--- a/指数合理性判断/nasdaq100.xlsx
+++ b/指数合理性判断/nasdaq100.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cca1d829fc1698e0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ipynb_notebook\指数合理性判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="13_ncr:1_{88CEF88E-7D77-4DA4-88BA-39647AAD75EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D397523D-1FE6-4479-A2DB-25D6F12E2D5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAD2E77-D42A-4B75-AF8C-81C4C651CA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="指数合理性判断" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$214</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$218</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">指数合理性判断!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$214</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$218</definedName>
     <definedName name="Var_1">0.0000466449993450831</definedName>
     <definedName name="Var_2">4.35347873832069</definedName>
   </definedNames>
@@ -38,7 +38,7 @@
     <author>ze wan</author>
   </authors>
   <commentList>
-    <comment ref="C214" authorId="0" shapeId="0" xr:uid="{ABF94653-2E4D-4FA1-A7F4-11E4BAA537F0}">
+    <comment ref="C218" authorId="0" shapeId="0" xr:uid="{ABF94653-2E4D-4FA1-A7F4-11E4BAA537F0}">
       <text>
         <r>
           <rPr>
@@ -554,10 +554,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>指数合理性判断!$A$2:$A$213</c:f>
+              <c:f>指数合理性判断!$A$2:$A$217</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="212"/>
+                <c:ptCount val="216"/>
                 <c:pt idx="0">
                   <c:v>45490</c:v>
                 </c:pt>
@@ -1192,17 +1192,29 @@
                   <c:v>45796</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>45839</c:v>
+                  <c:v>45797</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>45798</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>45799</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>45800</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>45804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>指数合理性判断!$D$2:$D$213</c:f>
+              <c:f>指数合理性判断!$D$2:$D$217</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="212"/>
+                <c:ptCount val="216"/>
                 <c:pt idx="0">
                   <c:v>6.4341993064636879E-2</c:v>
                 </c:pt>
@@ -1831,13 +1843,25 @@
                   <c:v>5.6620279661845543E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>5.2243104271286651E-3</c:v>
+                  <c:v>9.5587984548421937E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3.9123005858605871E-3</c:v>
+                  <c:v>9.1351289213044626E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.1339367522187617E-2</c:v>
+                  <c:v>4.9333374821612236E-3</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-8.9963797334782214E-3</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-7.8770110194104712E-3</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-1.7562052121628594E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.0324202099209323E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1902,13 +1926,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$213</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$217</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="212"/>
+                      <c:ptCount val="216"/>
                       <c:pt idx="0">
                         <c:v>45490</c:v>
                       </c:pt>
@@ -2543,7 +2567,19 @@
                         <c:v>45796</c:v>
                       </c:pt>
                       <c:pt idx="211">
-                        <c:v>45839</c:v>
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>45804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2553,13 +2589,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$B$2:$B$213</c15:sqref>
+                          <c15:sqref>指数合理性判断!$B$2:$B$217</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="212"/>
+                      <c:ptCount val="216"/>
                       <c:pt idx="0">
                         <c:v>19799</c:v>
                       </c:pt>
@@ -3188,13 +3224,25 @@
                         <c:v>21336</c:v>
                       </c:pt>
                       <c:pt idx="209">
-                        <c:v>21336</c:v>
+                        <c:v>21428</c:v>
                       </c:pt>
                       <c:pt idx="210">
-                        <c:v>21336</c:v>
+                        <c:v>21447</c:v>
                       </c:pt>
                       <c:pt idx="211">
-                        <c:v>21900</c:v>
+                        <c:v>21367</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>21080</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>21113</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>20916</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>21413</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3245,13 +3293,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$213</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$217</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="212"/>
+                      <c:ptCount val="216"/>
                       <c:pt idx="0">
                         <c:v>45490</c:v>
                       </c:pt>
@@ -3886,7 +3934,19 @@
                         <c:v>45796</c:v>
                       </c:pt>
                       <c:pt idx="211">
-                        <c:v>45839</c:v>
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>45804</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3896,13 +3956,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$C$2:$C$213</c15:sqref>
+                          <c15:sqref>指数合理性判断!$C$2:$C$217</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                      <c:ptCount val="212"/>
+                      <c:ptCount val="216"/>
                       <c:pt idx="0">
                         <c:v>18602.103580439692</c:v>
                       </c:pt>
@@ -4537,7 +4597,19 @@
                         <c:v>21252.852452897321</c:v>
                       </c:pt>
                       <c:pt idx="211">
-                        <c:v>21654.452207922717</c:v>
+                        <c:v>21262.106851320663</c:v>
+                      </c:pt>
+                      <c:pt idx="212">
+                        <c:v>21271.365279503942</c:v>
+                      </c:pt>
+                      <c:pt idx="213">
+                        <c:v>21280.627739201664</c:v>
+                      </c:pt>
+                      <c:pt idx="214">
+                        <c:v>21289.894232169318</c:v>
+                      </c:pt>
+                      <c:pt idx="215">
+                        <c:v>21327.000571876968</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5988,8 +6060,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D214" totalsRowCount="1" dataDxfId="8">
-  <autoFilter ref="A1:D213" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D218" totalsRowCount="1" dataDxfId="8">
+  <autoFilter ref="A1:D217" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
@@ -7284,11 +7356,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M550"/>
+  <dimension ref="A1:M554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A213" sqref="A213"/>
+      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10671,7 +10743,7 @@
         <v>45793</v>
       </c>
       <c r="B211" s="6">
-        <v>21336</v>
+        <v>21428</v>
       </c>
       <c r="C211" s="5">
         <f t="shared" si="33"/>
@@ -10679,7 +10751,7 @@
       </c>
       <c r="D211" s="7">
         <f t="shared" si="34"/>
-        <v>5.2243104271286651E-3</v>
+        <v>9.5587984548421937E-3</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10687,7 +10759,7 @@
         <v>45796</v>
       </c>
       <c r="B212" s="6">
-        <v>21336</v>
+        <v>21447</v>
       </c>
       <c r="C212" s="5">
         <f t="shared" si="33"/>
@@ -10695,65 +10767,105 @@
       </c>
       <c r="D212" s="7">
         <f t="shared" si="34"/>
-        <v>3.9123005858605871E-3</v>
+        <v>9.1351289213044626E-3</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>45839</v>
+        <v>45797</v>
       </c>
       <c r="B213" s="6">
-        <v>21900</v>
+        <v>21367</v>
       </c>
       <c r="C213" s="5">
         <f>Var_1 * EXP((A213 * 0.0001) * Var_2)</f>
-        <v>21654.452207922717</v>
+        <v>21262.106851320663</v>
       </c>
       <c r="D213" s="7">
         <f>(B213-C213)/C213</f>
-        <v>1.1339367522187617E-2</v>
+        <v>4.9333374821612236E-3</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="3">
+        <v>45798</v>
+      </c>
+      <c r="B214" s="6">
+        <v>21080</v>
+      </c>
+      <c r="C214" s="5">
+        <f>Var_1 * EXP((A214 * 0.0001) * Var_2)</f>
+        <v>21271.365279503942</v>
+      </c>
+      <c r="D214" s="7">
+        <f>(B214-C214)/C214</f>
+        <v>-8.9963797334782214E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>45799</v>
+      </c>
+      <c r="B215" s="6">
+        <v>21113</v>
+      </c>
+      <c r="C215" s="5">
+        <f>Var_1 * EXP((A215 * 0.0001) * Var_2)</f>
+        <v>21280.627739201664</v>
+      </c>
+      <c r="D215" s="7">
+        <f>(B215-C215)/C215</f>
+        <v>-7.8770110194104712E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>45800</v>
+      </c>
+      <c r="B216" s="6">
+        <v>20916</v>
+      </c>
+      <c r="C216" s="5">
+        <f>Var_1 * EXP((A216 * 0.0001) * Var_2)</f>
+        <v>21289.894232169318</v>
+      </c>
+      <c r="D216" s="7">
+        <f>(B216-C216)/C216</f>
+        <v>-1.7562052121628594E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>45804</v>
+      </c>
+      <c r="B217" s="6">
+        <v>21413</v>
+      </c>
+      <c r="C217" s="5">
+        <f>Var_1 * EXP((A217 * 0.0001) * Var_2)</f>
+        <v>21327.000571876968</v>
+      </c>
+      <c r="D217" s="7">
+        <f>(B217-C217)/C217</f>
+        <v>4.0324202099209323E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="12">
+      <c r="B218" s="12">
         <f>表2[[#Totals],[溢价指标]] -7%</f>
-        <v>-5.4138998426449883E-2</v>
-      </c>
-      <c r="C214" s="13">
+        <v>-5.4558886123837226E-2</v>
+      </c>
+      <c r="C218" s="13">
         <f>表2[[#Totals],[溢价指标]] +7%</f>
-        <v>8.586100157355013E-2</v>
-      </c>
-      <c r="D214" s="14">
+        <v>8.5441113876162794E-2</v>
+      </c>
+      <c r="D218" s="14">
         <f>SUBTOTAL(101,表2[溢价指标])</f>
-        <v>1.5861001573550124E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215"/>
-      <c r="B215"/>
-      <c r="C215"/>
-      <c r="D215"/>
-    </row>
-    <row r="216" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216"/>
-      <c r="B216"/>
-      <c r="C216"/>
-      <c r="D216"/>
-    </row>
-    <row r="217" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217"/>
-      <c r="B217"/>
-      <c r="C217"/>
-      <c r="D217"/>
-    </row>
-    <row r="218" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218"/>
-      <c r="B218"/>
-      <c r="C218"/>
-      <c r="D218"/>
+        <v>1.5441113876162781E-2</v>
+      </c>
     </row>
     <row r="219" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219"/>
@@ -12760,6 +12872,30 @@
       <c r="B550"/>
       <c r="C550"/>
       <c r="D550"/>
+    </row>
+    <row r="551" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A551"/>
+      <c r="B551"/>
+      <c r="C551"/>
+      <c r="D551"/>
+    </row>
+    <row r="552" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A552"/>
+      <c r="B552"/>
+      <c r="C552"/>
+      <c r="D552"/>
+    </row>
+    <row r="553" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A553"/>
+      <c r="B553"/>
+      <c r="C553"/>
+      <c r="D553"/>
+    </row>
+    <row r="554" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A554"/>
+      <c r="B554"/>
+      <c r="C554"/>
+      <c r="D554"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/指数合理性判断/nasdaq100.xlsx
+++ b/指数合理性判断/nasdaq100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ipynb_notebook\指数合理性判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAD2E77-D42A-4B75-AF8C-81C4C651CA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874ECF6-066E-4DF3-B572-C76D9AA783C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$218</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">指数合理性判断!$D$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$218</definedName>
-    <definedName name="Var_1">0.0000466449993450831</definedName>
-    <definedName name="Var_2">4.35347873832069</definedName>
+    <definedName name="Var_1">0.0000466450118329541</definedName>
+    <definedName name="Var_2">4.35347867857269</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -283,6 +283,27 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="等线"/>
@@ -297,6 +318,27 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -344,6 +386,7 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="177" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -364,49 +407,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1216,652 +1216,652 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="216"/>
                 <c:pt idx="0">
-                  <c:v>6.4341993064636879E-2</c:v>
+                  <c:v>6.4341997398788542E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8591559590239412E-2</c:v>
+                  <c:v>4.8591563872781317E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3315088990256951E-2</c:v>
+                  <c:v>6.331509335199291E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9152696120315887E-2</c:v>
+                  <c:v>5.9152700471307079E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9996981356051966E-2</c:v>
+                  <c:v>1.9996985552286694E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7853617094189075E-3</c:v>
+                  <c:v>8.7853658655542254E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8680883686252456E-2</c:v>
+                  <c:v>1.8680887889243707E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.927649164652271E-2</c:v>
+                  <c:v>1.927649587024052E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7209977940972396E-3</c:v>
+                  <c:v>4.721001963499661E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4525473649099601E-2</c:v>
+                  <c:v>3.4525477948367266E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8668732385710491E-3</c:v>
+                  <c:v>8.8668774372389642E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5541750314711372E-2</c:v>
+                  <c:v>-1.5541746211747294E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.5936392694155004E-2</c:v>
+                  <c:v>-4.5936388700767383E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.6599338492034873E-2</c:v>
+                  <c:v>-3.6599334453808662E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.8258238052321718E-2</c:v>
+                  <c:v>-4.8258234057278193E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9547499230568501E-2</c:v>
+                  <c:v>-1.9547495109152883E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.4705288568058346E-2</c:v>
+                  <c:v>-1.4705284420400188E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.4449869486094103E-2</c:v>
+                  <c:v>-1.4449865319693068E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7731040384100454E-3</c:v>
+                  <c:v>9.773108313247748E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0236400000352128E-2</c:v>
+                  <c:v>1.0236404283184376E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4586422561703488E-2</c:v>
+                  <c:v>3.4586426953948493E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5144252387708567E-2</c:v>
+                  <c:v>3.5144256788507494E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7464760495426694E-2</c:v>
+                  <c:v>4.7464764967378864E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4519375030958798E-2</c:v>
+                  <c:v>4.4519379496574196E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9623912975659233E-2</c:v>
+                  <c:v>4.9623917469374085E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.154422955082304E-2</c:v>
+                  <c:v>3.1544233973298016E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3208976001618243E-2</c:v>
+                  <c:v>4.3208980480332788E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.101737447447963E-2</c:v>
+                  <c:v>3.1017378919332754E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.405383968433047E-2</c:v>
+                  <c:v>3.4053844148453298E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1410808254365372E-2</c:v>
+                  <c:v>2.1410812670006621E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9647226351066856E-2</c:v>
+                  <c:v>1.964723076517727E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2335039842052979E-2</c:v>
+                  <c:v>3.2335044317262036E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.8908253041770445E-3</c:v>
+                  <c:v>-1.8908209534878749E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4.324919994995173E-3</c:v>
+                  <c:v>-4.3249156489661485E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.2848920587428502E-3</c:v>
+                  <c:v>-4.2848877065892492E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.1479949234420185E-2</c:v>
+                  <c:v>-3.1479944995348869E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.0142053801110314E-2</c:v>
+                  <c:v>-2.0142049494848772E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.1750980134014532E-2</c:v>
+                  <c:v>-1.1750975784970389E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.2236348908050683E-3</c:v>
+                  <c:v>9.223639338183905E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8538169318397902E-2</c:v>
+                  <c:v>1.8538173812906331E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.2917208823746541E-2</c:v>
+                  <c:v>2.291721334369104E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6766039046793923E-2</c:v>
+                  <c:v>1.676604355778237E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6794420408989253E-2</c:v>
+                  <c:v>1.6794424926176048E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1801496633892001E-2</c:v>
+                  <c:v>1.1801501134947137E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7239822193788623E-2</c:v>
+                  <c:v>3.7239826814205547E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.4280001384898486E-2</c:v>
+                  <c:v>3.4280005998307793E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.6061424624445004E-2</c:v>
+                  <c:v>3.6061429264370164E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.0461965388867087E-2</c:v>
+                  <c:v>4.0461970054717147E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.1469128886338934E-2</c:v>
+                  <c:v>4.1469133562928966E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8469151341000626E-2</c:v>
+                  <c:v>4.8469156055285116E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.2438265687628061E-2</c:v>
+                  <c:v>4.2438270381024844E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.3783268989247885E-2</c:v>
+                  <c:v>4.3783273707412064E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.8350705723160091E-2</c:v>
+                  <c:v>2.8350710377710277E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.9462668491892177E-2</c:v>
+                  <c:v>2.9462673157623399E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.8494966041637478E-2</c:v>
+                  <c:v>2.849497070912882E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0616776828321828E-2</c:v>
+                  <c:v>4.0616781557042445E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.7120489395943897E-2</c:v>
+                  <c:v>2.7120494081748551E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.2591251479512655E-2</c:v>
+                  <c:v>4.2591256242122677E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.0481608536588111E-2</c:v>
+                  <c:v>5.0481613341518863E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.862566300362213E-2</c:v>
+                  <c:v>4.8625667806330188E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.972270244616777E-2</c:v>
+                  <c:v>4.9722707260169287E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.6988904468799131E-2</c:v>
+                  <c:v>5.698890933506795E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.2106832546002657E-2</c:v>
+                  <c:v>4.2106837349983384E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.2376622606002674E-2</c:v>
+                  <c:v>4.2376627417452177E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.2749274027690555E-2</c:v>
+                  <c:v>4.2749278847095236E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9213075639574215E-2</c:v>
+                  <c:v>4.921308049512297E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9802816527086492E-2</c:v>
+                  <c:v>4.9802821404180755E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.0479646001485079E-2</c:v>
+                  <c:v>5.0479650887997121E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.3693089252404426E-2</c:v>
+                  <c:v>3.3693094067007663E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.1790456022078398E-2</c:v>
+                  <c:v>4.1790460880621771E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.746161707009889E-2</c:v>
+                  <c:v>4.7461621961346068E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.60430793888435E-2</c:v>
+                  <c:v>4.6043084292219115E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.5863327965961752E-2</c:v>
+                  <c:v>5.5863332921679651E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.7032838403250787E-2</c:v>
+                  <c:v>4.7032843323779307E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.1013282285882839E-2</c:v>
+                  <c:v>2.1013287090230016E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.7906306407732208E-2</c:v>
+                  <c:v>2.7906311250656689E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.3028878131852743E-2</c:v>
+                  <c:v>2.3028882970133766E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.6106045557454572E-2</c:v>
+                  <c:v>3.6106050463770106E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.3968170781020017E-2</c:v>
+                  <c:v>6.3968175825633966E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.9932828026388611E-2</c:v>
+                  <c:v>7.9932833153149349E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.0230101762715916E-2</c:v>
+                  <c:v>8.0230106897339323E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.8309317444396162E-2</c:v>
+                  <c:v>7.8309322589216496E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.6001621141571316E-2</c:v>
+                  <c:v>7.6001626281811119E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.3746772718090867E-2</c:v>
+                  <c:v>7.374677785397496E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.6187491078818772E-2</c:v>
+                  <c:v>6.6187496184913486E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.0070996991760484E-2</c:v>
+                  <c:v>4.0071001978999043E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6098690339981936E-2</c:v>
+                  <c:v>4.6098695374873308E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.307625310818942E-2</c:v>
+                  <c:v>5.3076258182957123E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.1701914711621229E-2</c:v>
+                  <c:v>5.1701919786046699E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.5008229765491773E-2</c:v>
+                  <c:v>5.500823486217464E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.6328563388952591E-2</c:v>
+                  <c:v>5.6328568498325939E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.6422395362967011E-2</c:v>
+                  <c:v>5.6422400491732638E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.1951701491937967E-2</c:v>
+                  <c:v>6.1951706653889514E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.2458984815126286E-2</c:v>
+                  <c:v>5.2458989937224663E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0920474464880262E-2</c:v>
+                  <c:v>6.0920479640834774E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.1432134845458406E-2</c:v>
+                  <c:v>7.143214009190034E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.4204241434551066E-2</c:v>
+                  <c:v>7.4204246700986104E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.7038906974354194E-2</c:v>
+                  <c:v>8.7038912310204816E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.3178467336215756E-2</c:v>
+                  <c:v>8.3178472659593702E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.2662356199156595E-2</c:v>
+                  <c:v>9.2662361575673285E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.2101371625331418E-2</c:v>
+                  <c:v>8.2101376969276926E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.7947765368223371E-2</c:v>
+                  <c:v>7.7947770698094054E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.7446833071877806E-2</c:v>
+                  <c:v>9.7446838504718775E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.9459130726792152E-2</c:v>
+                  <c:v>8.9459136126600794E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>9.729780237622096E-2</c:v>
+                  <c:v>9.7297807821434504E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.11181554562579814</c:v>
+                  <c:v>0.11181555116298579</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.10650346514139514</c:v>
+                  <c:v>0.10650347065873897</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.6206879005629465E-2</c:v>
+                  <c:v>6.6206884328414234E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6.0818352754272269E-2</c:v>
+                  <c:v>6.0818358056491557E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6.9297155931442742E-2</c:v>
+                  <c:v>6.9297161282430769E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.8636213929967461E-2</c:v>
+                  <c:v>7.8636219347023043E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>9.2958120772429903E-2</c:v>
+                  <c:v>9.2958126267943156E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>9.0504001284906613E-2</c:v>
+                  <c:v>9.050400678111313E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7.525727497447883E-2</c:v>
+                  <c:v>7.52572804002625E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6.0051238462187753E-2</c:v>
+                  <c:v>6.0051243830241088E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5.0342118366318224E-2</c:v>
+                  <c:v>5.034212369148134E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.7629995988778949E-2</c:v>
+                  <c:v>4.7630001312712493E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.464688094991447E-2</c:v>
+                  <c:v>6.4646886366687903E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.492392735122079E-2</c:v>
+                  <c:v>7.4923932839548762E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.5169676688147373E-2</c:v>
+                  <c:v>5.516968208191967E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5.5108922257127532E-2</c:v>
+                  <c:v>5.5108927656890516E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.7617040278694412E-2</c:v>
+                  <c:v>3.7617045601339515E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.3131297716530214E-2</c:v>
+                  <c:v>3.3131303034685887E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1290472517581186E-2</c:v>
+                  <c:v>3.1290477832420067E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5.4729195129621815E-2</c:v>
+                  <c:v>5.4729200571556683E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4.6972931585612332E-2</c:v>
+                  <c:v>4.6972936993784568E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>6.3883931543642525E-2</c:v>
+                  <c:v>6.3883937045522671E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>6.8274038887144547E-2</c:v>
+                  <c:v>6.8274044437262746E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8.1969285986057017E-2</c:v>
+                  <c:v>8.1969291613789311E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8.3873860945813186E-2</c:v>
+                  <c:v>8.3873866589928639E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7.7119645552107263E-2</c:v>
+                  <c:v>7.7119651167487618E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.3749674939629481E-2</c:v>
+                  <c:v>4.3749680399748976E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.988776130395309E-2</c:v>
+                  <c:v>5.9887766854824588E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5.6909051520607157E-2</c:v>
+                  <c:v>5.6909057062194353E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.1185583137933972E-2</c:v>
+                  <c:v>6.1185588708285228E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5.9244169740776606E-2</c:v>
+                  <c:v>5.9244175307266486E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>4.8996065724386639E-2</c:v>
+                  <c:v>4.8996071255822719E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.1782848820955298E-2</c:v>
+                  <c:v>6.178285442616218E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.5798850951889032E-2</c:v>
+                  <c:v>6.5798856584665402E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7.1040880512567364E-2</c:v>
+                  <c:v>7.1040886179444374E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.6660283827051509E-2</c:v>
+                  <c:v>5.6660289424155318E-2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6.834264424888481E-2</c:v>
+                  <c:v>6.8342649927021784E-2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.4785477123043181E-2</c:v>
+                  <c:v>6.4785482788637036E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6.5548542496284112E-2</c:v>
+                  <c:v>6.5548548172301657E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.0385023673178596E-2</c:v>
+                  <c:v>8.0385029434683855E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8.4032291760826619E-2</c:v>
+                  <c:v>8.4032297548255905E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>8.4592843808497215E-2</c:v>
+                  <c:v>8.4592849624840094E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>8.4658796582007451E-2</c:v>
+                  <c:v>8.4658802405185515E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7.890656544233221E-2</c:v>
+                  <c:v>7.8906571241075543E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5.62505268318855E-2</c:v>
+                  <c:v>5.6250532515172522E-2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>4.2085000170969486E-2</c:v>
+                  <c:v>4.2085005796714883E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.8703725747879768E-2</c:v>
+                  <c:v>2.8703731307532832E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.0499056728520477E-2</c:v>
+                  <c:v>3.0499062304030981E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.6830746826460093E-3</c:v>
+                  <c:v>1.6830801082333854E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7470887381669461E-2</c:v>
+                  <c:v>1.7470892898850818E-2</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-6.1417955882793734E-3</c:v>
+                  <c:v>-6.141790181319504E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-1.012475590268674E-2</c:v>
+                  <c:v>-1.0124750511483914E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.8619113803613145E-3</c:v>
+                  <c:v>2.8619168482868361E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.5564167003553403E-2</c:v>
+                  <c:v>-2.5564161684793092E-2</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-1.8799656501075367E-2</c:v>
+                  <c:v>-1.8799651139532539E-2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-5.74318356924002E-2</c:v>
+                  <c:v>-5.7431830525059867E-2</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-6.0460408915816284E-2</c:v>
+                  <c:v>-6.0460403759461587E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-5.0255236269003821E-2</c:v>
+                  <c:v>-5.0255231050969372E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-6.8593325391618706E-2</c:v>
+                  <c:v>-6.8593320268770491E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-4.5803590857272126E-2</c:v>
+                  <c:v>-4.5803585603375663E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-4.1874386134889217E-2</c:v>
+                  <c:v>-4.1874380842185296E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-5.8195215291114759E-2</c:v>
+                  <c:v>-5.8195210082942948E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-4.6332167726535721E-2</c:v>
+                  <c:v>-4.6332162447062619E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-4.9596822039790323E-2</c:v>
+                  <c:v>-4.9596816772707594E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-4.6341456438124165E-2</c:v>
+                  <c:v>-4.6341451147304903E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.7047118119252173E-2</c:v>
+                  <c:v>-2.704711270395101E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.2265783473209746E-2</c:v>
+                  <c:v>-2.2265778025453833E-2</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-4.0563068081542031E-2</c:v>
+                  <c:v>-4.0563062730001924E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-4.6662459516809633E-2</c:v>
+                  <c:v>-4.6662454193597096E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-7.2008657036863211E-2</c:v>
+                  <c:v>-7.2008651849632552E-2</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-7.3315997127149771E-2</c:v>
+                  <c:v>-7.3315991930614208E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-6.6176102357676542E-2</c:v>
+                  <c:v>-6.6176097115522678E-2</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-5.9570875475066433E-2</c:v>
+                  <c:v>-5.9570870190216653E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.11086473638561385</c:v>
+                  <c:v>-0.11086473138370284</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.16518506049640005</c:v>
+                  <c:v>-0.16518505579508713</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.16469326852868779</c:v>
+                  <c:v>-0.16469326380963381</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.18139070438489191</c:v>
+                  <c:v>-0.18139069975527525</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-8.3355555417353511E-2</c:v>
+                  <c:v>-8.3355550227824843E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.12208895573297468</c:v>
+                  <c:v>-0.12208895075748984</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.10591933517331606</c:v>
+                  <c:v>-0.10591933010084854</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.10202213716464517</c:v>
+                  <c:v>-0.10202213205397247</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.10078934371317233</c:v>
+                  <c:v>-0.10078933859011024</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.1284842130163015</c:v>
+                  <c:v>-0.12848420804582028</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.12886354298494063</c:v>
+                  <c:v>-0.12886353801141701</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.12623812304206086</c:v>
+                  <c:v>-0.12623811804832374</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.15181252145783822</c:v>
+                  <c:v>-0.15181251659506195</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.12990075849615634</c:v>
+                  <c:v>-0.1299007535025605</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.11043522479721775</c:v>
+                  <c:v>-0.11043521968659135</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-8.6039790195298171E-2</c:v>
+                  <c:v>-8.603978493905648E-2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-7.6024865655337684E-2</c:v>
+                  <c:v>-7.6024860335981201E-2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-7.7515737683398284E-2</c:v>
+                  <c:v>-7.7515732356087649E-2</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-7.2316502147289727E-2</c:v>
+                  <c:v>-7.2316496784410142E-2</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-7.1486752925875155E-2</c:v>
+                  <c:v>-7.1486747552653732E-2</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-6.1647594119458957E-2</c:v>
+                  <c:v>-6.1647588683691884E-2</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-4.707697317649668E-2</c:v>
+                  <c:v>-4.7076967650629201E-2</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-5.4711641740240097E-2</c:v>
+                  <c:v>-5.4711636241702367E-2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-6.3498643078730446E-2</c:v>
+                  <c:v>-6.3498637625711715E-2</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-6.0264238204665914E-2</c:v>
+                  <c:v>-6.0264232727198504E-2</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-5.1406699784632894E-2</c:v>
+                  <c:v>-5.1406694249865652E-2</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-5.1914093573972982E-2</c:v>
+                  <c:v>-5.191408803650379E-2</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-1.5111457625718375E-2</c:v>
+                  <c:v>-1.5111451855644381E-2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.7805795134359677E-5</c:v>
+                  <c:v>2.7811659879276149E-5</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5.2983004239982321E-3</c:v>
+                  <c:v>5.2983063256596963E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5.6620279661845543E-3</c:v>
+                  <c:v>5.6620338759871868E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>9.5587984548421937E-3</c:v>
+                  <c:v>9.5588043935773068E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>9.1351289213044626E-3</c:v>
+                  <c:v>9.1351348756379888E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>4.9333374821612236E-3</c:v>
+                  <c:v>4.9333434177040066E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-8.9963797334782214E-3</c:v>
+                  <c:v>-8.9963738742882982E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-7.8770110194104712E-3</c:v>
+                  <c:v>-7.8770051476736991E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.7562052121628594E-2</c:v>
+                  <c:v>-1.7562046301344027E-2</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>4.0324202099209323E-3</c:v>
+                  <c:v>4.0324261821373646E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3964,652 +3964,652 @@
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                       <c:ptCount val="216"/>
                       <c:pt idx="0">
-                        <c:v>18602.103580439692</c:v>
+                        <c:v>18602.103504689287</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>18618.307406202133</c:v>
+                        <c:v>18618.307330163298</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>18642.639613836644</c:v>
+                        <c:v>18642.63953736423</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18650.757414260519</c:v>
+                        <c:v>18650.75733764335</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>18658.878749520994</c:v>
+                        <c:v>18658.878672758969</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>18667.003621157102</c:v>
+                        <c:v>18667.003544250165</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>18675.132030708919</c:v>
+                        <c:v>18675.131953656903</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>18699.538502267216</c:v>
+                        <c:v>18699.538424779337</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>18707.681078893867</c:v>
+                        <c:v>18707.681001260524</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>18715.827201145741</c:v>
+                        <c:v>18715.827123366747</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>18723.976870566748</c:v>
+                        <c:v>18723.976792641937</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>18732.130088701288</c:v>
+                        <c:v>18732.130010630677</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>18756.611050843054</c:v>
+                        <c:v>18756.610972334223</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>18764.778479291646</c:v>
+                        <c:v>18764.7784006365</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>18772.949464186939</c:v>
+                        <c:v>18772.949385385364</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>18781.12400707756</c:v>
+                        <c:v>18781.123928129506</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>18789.302109512813</c:v>
+                        <c:v>18789.302030418101</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>18813.857789589503</c:v>
+                        <c:v>18813.857710054152</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>18822.050145709807</c:v>
+                        <c:v>18822.050066027343</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>18830.246069131314</c:v>
+                        <c:v>18830.245989301697</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>18838.445561407512</c:v>
+                        <c:v>18838.445481430561</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>18846.648624092435</c:v>
+                        <c:v>18846.648543968036</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>18871.279250149346</c:v>
+                        <c:v>18871.279169581998</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>18879.496610022685</c:v>
+                        <c:v>18879.496529307504</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>18887.717548084998</c:v>
+                        <c:v>18887.717467221733</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>18895.942065894375</c:v>
+                        <c:v>18895.941984882986</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>18904.170165009593</c:v>
+                        <c:v>18904.170083850033</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>18928.875965788171</c:v>
+                        <c:v>18928.875884183268</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>18937.11840572815</c:v>
+                        <c:v>18937.118323974551</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>18945.364434777897</c:v>
+                        <c:v>18945.36435287556</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>18953.614054500467</c:v>
+                        <c:v>18953.613972449202</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>18961.867266459318</c:v>
+                        <c:v>18961.86718425895</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>18994.916067952003</c:v>
+                        <c:v>18994.915985154472</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>19003.187264569173</c:v>
+                        <c:v>19003.18718162203</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>19011.46206281806</c:v>
+                        <c:v>19011.461979721196</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>19019.740464266972</c:v>
+                        <c:v>19019.740381020336</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>19044.597303507733</c:v>
+                        <c:v>19044.59721981089</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>19052.890133453777</c:v>
+                        <c:v>19052.890049606631</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>19061.186574451742</c:v>
+                        <c:v>19061.186490454187</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>19069.486628073842</c:v>
+                        <c:v>19069.486543925825</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>19077.790295893366</c:v>
+                        <c:v>19077.790211594704</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>19102.723000277263</c:v>
+                        <c:v>19102.722915526043</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>19111.041140630758</c:v>
+                        <c:v>19111.041055728499</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>19119.362903057408</c:v>
+                        <c:v>19119.362818003861</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>19127.688289134421</c:v>
+                        <c:v>19127.688203929541</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>19136.017300439493</c:v>
+                        <c:v>19136.017215083226</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>19161.026101513256</c:v>
+                        <c:v>19161.026015702006</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>19169.369629523808</c:v>
+                        <c:v>19169.369543560642</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>19177.716790662318</c:v>
+                        <c:v>19177.716704547121</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>19186.067586510744</c:v>
+                        <c:v>19186.067500243465</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>19194.422018651989</c:v>
+                        <c:v>19194.421932232446</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>19219.50714866905</c:v>
+                        <c:v>19219.507061792021</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>19227.876141821838</c:v>
+                        <c:v>19227.876054792079</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>19236.248779191126</c:v>
+                        <c:v>19236.24869200859</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>19244.625062363895</c:v>
+                        <c:v>19244.624975028397</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>19253.00499292769</c:v>
+                        <c:v>19253.004905439113</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>19278.166684850279</c:v>
+                        <c:v>19278.166596901763</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>19286.561220867035</c:v>
+                        <c:v>19286.56113276504</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>19294.959412222812</c:v>
+                        <c:v>19294.959323967156</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>19303.3612605093</c:v>
+                        <c:v>19303.36117209986</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>19311.766767318815</c:v>
+                        <c:v>19311.766678755546</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>19337.005254820375</c:v>
+                        <c:v>19337.005165794781</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>19345.425411660046</c:v>
+                        <c:v>19345.425322480081</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>19353.849234995138</c:v>
+                        <c:v>19353.849145660759</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>19362.276726422202</c:v>
+                        <c:v>19362.276636933148</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>19370.707887538472</c:v>
+                        <c:v>19370.707797894702</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>19396.023405005439</c:v>
+                        <c:v>19396.023314896865</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>19404.469260864844</c:v>
+                        <c:v>19404.469170601151</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>19412.918794410256</c:v>
+                        <c:v>19412.91870399125</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>19421.372007242891</c:v>
+                        <c:v>19421.37191666846</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>19429.828900964865</c:v>
+                        <c:v>19429.828810234958</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>19455.221683499101</c:v>
+                        <c:v>19455.221592301845</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>19463.693316813926</c:v>
+                        <c:v>19463.693225460651</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>19472.168639039221</c:v>
+                        <c:v>19472.168547529807</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>19480.647651781299</c:v>
+                        <c:v>19480.6475601157</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>19489.130356647169</c:v>
+                        <c:v>19489.130264825195</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>19514.600640068096</c:v>
+                        <c:v>19514.60054777635</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>19523.098129513142</c:v>
+                        <c:v>19523.098037064614</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>19531.599319127592</c:v>
+                        <c:v>19531.599226522023</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>19540.104210522586</c:v>
+                        <c:v>19540.104117759929</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>19548.612805310044</c:v>
+                        <c:v>19548.612712390244</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>19574.160826156822</c:v>
+                        <c:v>19574.160732764751</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>19582.684250647289</c:v>
+                        <c:v>19582.68415709753</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>19591.211386600313</c:v>
+                        <c:v>19591.211292892753</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>19599.742235631962</c:v>
+                        <c:v>19599.742141766539</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>19608.276799359268</c:v>
+                        <c:v>19608.276705335731</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>19633.902794892925</c:v>
+                        <c:v>19633.902700394607</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>19642.452233584736</c:v>
+                        <c:v>19642.452138927885</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>19651.005395066655</c:v>
+                        <c:v>19651.005300251232</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>19659.562280959959</c:v>
+                        <c:v>19659.562185985767</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>19668.122892886342</c:v>
+                        <c:v>19668.122797753269</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>19693.827101092258</c:v>
+                        <c:v>19693.827005481806</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>19702.402633382702</c:v>
+                        <c:v>19702.402537612954</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>19710.981899825809</c:v>
+                        <c:v>19710.981803896571</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>19728.151641674107</c:v>
+                        <c:v>19728.151545425597</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>19753.934301263798</c:v>
+                        <c:v>19753.934204535442</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>19762.536006792929</c:v>
+                        <c:v>19762.53590990436</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>19771.141457871523</c:v>
+                        <c:v>19771.14136082269</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>19779.750656130553</c:v>
+                        <c:v>19779.750558921191</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>19788.363603201698</c:v>
+                        <c:v>19788.36350583176</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>19814.224953615314</c:v>
+                        <c:v>19814.224855762986</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>19822.852912265895</c:v>
+                        <c:v>19822.852814252572</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>19831.484627897738</c:v>
+                        <c:v>19831.484529723231</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>19840.120102146793</c:v>
+                        <c:v>19840.120003810978</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>19848.759336649506</c:v>
+                        <c:v>19848.759238152332</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>19874.699618058003</c:v>
+                        <c:v>19874.69951907581</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>19883.353909956884</c:v>
+                        <c:v>19883.353810812776</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>19892.011970303578</c:v>
+                        <c:v>19892.01187099743</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>19900.673800738954</c:v>
+                        <c:v>19900.673701270713</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>19909.339402904883</c:v>
+                        <c:v>19909.339303274359</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>19935.358856212224</c:v>
+                        <c:v>19935.358756094181</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>19944.039561730533</c:v>
+                        <c:v>19944.039461449716</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>19961.412314261524</c:v>
+                        <c:v>19961.412213654792</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>19970.10436456676</c:v>
+                        <c:v>19970.104263796955</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>19996.203231412102</c:v>
+                        <c:v>19996.2031301522</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>20004.910431166616</c:v>
+                        <c:v>20004.910329743081</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>20022.336206784854</c:v>
+                        <c:v>20022.336105033675</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>20031.054785951386</c:v>
+                        <c:v>20031.0546840362</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>20057.233308711606</c:v>
+                        <c:v>20057.233206303732</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>20065.967083564727</c:v>
+                        <c:v>20065.966980992354</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>20074.704661475927</c:v>
+                        <c:v>20074.704558739002</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>20092.191233097346</c:v>
+                        <c:v>20092.191130030802</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>20118.449654888853</c:v>
+                        <c:v>20118.449551326947</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>20127.210085949999</c:v>
+                        <c:v>20127.209982222794</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>20135.974331676614</c:v>
+                        <c:v>20135.974227783918</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>20144.742393729557</c:v>
+                        <c:v>20144.742289671245</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>20153.514273770616</c:v>
+                        <c:v>20153.514169546634</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>20188.640007078182</c:v>
+                        <c:v>20188.639902189985</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>20197.431002012392</c:v>
+                        <c:v>20197.4308969579</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>20206.225824920886</c:v>
+                        <c:v>20206.225719699905</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>20215.024477470317</c:v>
+                        <c:v>20215.02437208272</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>20241.443429644169</c:v>
+                        <c:v>20241.443323756041</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>20250.257417440705</c:v>
+                        <c:v>20250.257311385536</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>20259.075243223535</c:v>
+                        <c:v>20259.07513700112</c:v>
                       </c:pt>
                       <c:pt idx="134">
-                        <c:v>20267.896908663872</c:v>
+                        <c:v>20267.896802274088</c:v>
                       </c:pt>
                       <c:pt idx="135">
-                        <c:v>20276.722415433451</c:v>
+                        <c:v>20276.722308876178</c:v>
                       </c:pt>
                       <c:pt idx="136">
-                        <c:v>20303.222000449179</c:v>
+                        <c:v>20303.221893388745</c:v>
                       </c:pt>
                       <c:pt idx="137">
-                        <c:v>20312.062889270466</c:v>
+                        <c:v>20312.06278204203</c:v>
                       </c:pt>
                       <c:pt idx="138">
-                        <c:v>20320.907627791821</c:v>
+                        <c:v>20320.907520395263</c:v>
                       </c:pt>
                       <c:pt idx="139">
-                        <c:v>20329.756217689497</c:v>
+                        <c:v>20329.756110124763</c:v>
                       </c:pt>
                       <c:pt idx="140">
-                        <c:v>20338.608660640766</c:v>
+                        <c:v>20338.608552907652</c:v>
                       </c:pt>
                       <c:pt idx="141">
-                        <c:v>20365.189124596447</c:v>
+                        <c:v>20365.189016357454</c:v>
                       </c:pt>
                       <c:pt idx="142">
-                        <c:v>20374.056996546649</c:v>
+                        <c:v>20374.056888138774</c:v>
                       </c:pt>
                       <c:pt idx="143">
-                        <c:v>20382.928729946379</c:v>
+                        <c:v>20382.92862136957</c:v>
                       </c:pt>
                       <c:pt idx="144">
-                        <c:v>20391.804326477297</c:v>
+                        <c:v>20391.804217731355</c:v>
                       </c:pt>
                       <c:pt idx="145">
-                        <c:v>20400.683787821425</c:v>
+                        <c:v>20400.683678906298</c:v>
                       </c:pt>
                       <c:pt idx="146">
-                        <c:v>20436.240315000268</c:v>
+                        <c:v>20436.240205406903</c:v>
                       </c:pt>
                       <c:pt idx="147">
-                        <c:v>20445.139125669135</c:v>
+                        <c:v>20445.139015905876</c:v>
                       </c:pt>
                       <c:pt idx="148">
-                        <c:v>20454.041811259642</c:v>
+                        <c:v>20454.041701326361</c:v>
                       </c:pt>
                       <c:pt idx="149">
-                        <c:v>20462.948373459243</c:v>
+                        <c:v>20462.948263355811</c:v>
                       </c:pt>
                       <c:pt idx="150">
-                        <c:v>20489.691336596235</c:v>
+                        <c:v>20489.691225981664</c:v>
                       </c:pt>
                       <c:pt idx="151">
-                        <c:v>20498.61342211967</c:v>
+                        <c:v>20498.61331133444</c:v>
                       </c:pt>
                       <c:pt idx="152">
-                        <c:v>20507.539392699684</c:v>
+                        <c:v>20507.539281743735</c:v>
                       </c:pt>
                       <c:pt idx="153">
-                        <c:v>20516.469250027993</c:v>
+                        <c:v>20516.469138901131</c:v>
                       </c:pt>
                       <c:pt idx="154">
-                        <c:v>20525.402995797049</c:v>
+                        <c:v>20525.402884499152</c:v>
                       </c:pt>
                       <c:pt idx="155">
-                        <c:v>20552.227580684361</c:v>
+                        <c:v>20552.227468872567</c:v>
                       </c:pt>
                       <c:pt idx="156">
-                        <c:v>20561.176897155663</c:v>
+                        <c:v>20561.176785172385</c:v>
                       </c:pt>
                       <c:pt idx="157">
-                        <c:v>20570.130110541129</c:v>
+                        <c:v>20570.129998386168</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>20579.087222537644</c:v>
+                        <c:v>20579.087110210872</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>20588.048234842612</c:v>
+                        <c:v>20588.048122343975</c:v>
                       </c:pt>
                       <c:pt idx="160">
-                        <c:v>20614.95469059662</c:v>
+                        <c:v>20614.954577581466</c:v>
                       </c:pt>
                       <c:pt idx="161">
-                        <c:v>20623.931321127053</c:v>
+                        <c:v>20623.931207939375</c:v>
                       </c:pt>
                       <c:pt idx="162">
-                        <c:v>20632.91186046521</c:v>
+                        <c:v>20632.911747105023</c:v>
                       </c:pt>
                       <c:pt idx="163">
-                        <c:v>20641.896310313379</c:v>
+                        <c:v>20641.896196780479</c:v>
                       </c:pt>
                       <c:pt idx="164">
-                        <c:v>20650.884672374137</c:v>
+                        <c:v>20650.884558668396</c:v>
                       </c:pt>
                       <c:pt idx="165">
-                        <c:v>20677.873248871543</c:v>
+                        <c:v>20677.873134646583</c:v>
                       </c:pt>
                       <c:pt idx="166">
-                        <c:v>20686.877276825744</c:v>
+                        <c:v>20686.877162427503</c:v>
                       </c:pt>
                       <c:pt idx="167">
-                        <c:v>20695.885225517824</c:v>
+                        <c:v>20695.885110946099</c:v>
                       </c:pt>
                       <c:pt idx="168">
-                        <c:v>20704.897096654968</c:v>
+                        <c:v>20704.896981909555</c:v>
                       </c:pt>
                       <c:pt idx="169">
-                        <c:v>20713.912891945176</c:v>
+                        <c:v>20713.912777026089</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>20740.983839825254</c:v>
+                        <c:v>20740.983724384234</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>20750.015348822664</c:v>
+                        <c:v>20750.015233207381</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>20759.050790524223</c:v>
+                        <c:v>20759.050674734546</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>20768.090166642403</c:v>
+                        <c:v>20768.090050678275</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>20777.133478890559</c:v>
+                        <c:v>20777.133362751778</c:v>
                       </c:pt>
                       <c:pt idx="175">
-                        <c:v>20804.287049557777</c:v>
+                        <c:v>20804.286932894258</c:v>
                       </c:pt>
                       <c:pt idx="176">
-                        <c:v>20813.346123472678</c:v>
+                        <c:v>20813.346006633987</c:v>
                       </c:pt>
                       <c:pt idx="177">
-                        <c:v>20822.409142094602</c:v>
+                        <c:v>20822.409025080677</c:v>
                       </c:pt>
                       <c:pt idx="178">
-                        <c:v>20831.47610714145</c:v>
+                        <c:v>20831.475989952094</c:v>
                       </c:pt>
                       <c:pt idx="179">
-                        <c:v>20840.547020331534</c:v>
+                        <c:v>20840.546902966682</c:v>
                       </c:pt>
                       <c:pt idx="180">
-                        <c:v>20867.78346595744</c:v>
+                        <c:v>20867.783348065183</c:v>
                       </c:pt>
                       <c:pt idx="181">
-                        <c:v>20876.870188920184</c:v>
+                        <c:v>20876.870070851764</c:v>
                       </c:pt>
                       <c:pt idx="182">
-                        <c:v>20885.960868629743</c:v>
+                        <c:v>20885.960750385104</c:v>
                       </c:pt>
                       <c:pt idx="183">
-                        <c:v>20895.055506808832</c:v>
+                        <c:v>20895.055388387915</c:v>
                       </c:pt>
                       <c:pt idx="184">
-                        <c:v>20904.154105181355</c:v>
+                        <c:v>20904.153986583955</c:v>
                       </c:pt>
                       <c:pt idx="185">
-                        <c:v>20931.473678707229</c:v>
+                        <c:v>20931.47355957967</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>20940.588135105085</c:v>
+                        <c:v>20940.588015800524</c:v>
                       </c:pt>
                       <c:pt idx="187">
-                        <c:v>20949.706560325925</c:v>
+                        <c:v>20949.7064408443</c:v>
                       </c:pt>
                       <c:pt idx="188">
-                        <c:v>20958.828956098176</c:v>
+                        <c:v>20958.828836439276</c:v>
                       </c:pt>
                       <c:pt idx="189">
-                        <c:v>20967.955324150553</c:v>
+                        <c:v>20967.955204314178</c:v>
                       </c:pt>
                       <c:pt idx="190">
-                        <c:v>20995.358279289663</c:v>
+                        <c:v>20995.358158920368</c:v>
                       </c:pt>
                       <c:pt idx="191">
-                        <c:v>21004.50055376731</c:v>
+                        <c:v>21004.500433220157</c:v>
                       </c:pt>
                       <c:pt idx="192">
-                        <c:v>21013.646809181271</c:v>
+                        <c:v>21013.646688456058</c:v>
                       </c:pt>
                       <c:pt idx="193">
-                        <c:v>21022.797047265016</c:v>
+                        <c:v>21022.796926361611</c:v>
                       </c:pt>
                       <c:pt idx="194">
-                        <c:v>21031.951269752546</c:v>
+                        <c:v>21031.951148670883</c:v>
                       </c:pt>
                       <c:pt idx="195">
-                        <c:v>21059.437860992522</c:v>
+                        <c:v>21059.437739375091</c:v>
                       </c:pt>
                       <c:pt idx="196">
-                        <c:v>21068.608038453207</c:v>
+                        <c:v>21068.607916656918</c:v>
                       </c:pt>
                       <c:pt idx="197">
-                        <c:v>21077.782209000205</c:v>
+                        <c:v>21077.782087025003</c:v>
                       </c:pt>
                       <c:pt idx="198">
-                        <c:v>21086.960374372426</c:v>
+                        <c:v>21086.960252218101</c:v>
                       </c:pt>
                       <c:pt idx="199">
-                        <c:v>21096.142536309388</c:v>
+                        <c:v>21096.142413975806</c:v>
                       </c:pt>
                       <c:pt idx="200">
-                        <c:v>21123.713018914495</c:v>
+                        <c:v>21123.712896042431</c:v>
                       </c:pt>
                       <c:pt idx="201">
-                        <c:v>21132.91118452037</c:v>
+                        <c:v>21132.911061468589</c:v>
                       </c:pt>
                       <c:pt idx="202">
-                        <c:v>21142.113355399866</c:v>
+                        <c:v>21142.113232168165</c:v>
                       </c:pt>
                       <c:pt idx="203">
-                        <c:v>21151.319533297043</c:v>
+                        <c:v>21151.319409885218</c:v>
                       </c:pt>
                       <c:pt idx="204">
-                        <c:v>21160.529719956667</c:v>
+                        <c:v>21160.529596364722</c:v>
                       </c:pt>
                       <c:pt idx="205">
-                        <c:v>21188.184349970488</c:v>
+                        <c:v>21188.184225837264</c:v>
                       </c:pt>
                       <c:pt idx="206">
-                        <c:v>21197.410589143779</c:v>
+                        <c:v>21197.410464829831</c:v>
                       </c:pt>
                       <c:pt idx="207">
-                        <c:v>21206.64084581504</c:v>
+                        <c:v>21206.640721320236</c:v>
                       </c:pt>
                       <c:pt idx="208">
-                        <c:v>21215.875121733665</c:v>
+                        <c:v>21215.874997057948</c:v>
                       </c:pt>
                       <c:pt idx="209">
-                        <c:v>21225.113418649958</c:v>
+                        <c:v>21225.113293793114</c:v>
                       </c:pt>
                       <c:pt idx="210">
-                        <c:v>21252.852452897321</c:v>
+                        <c:v>21252.852327496304</c:v>
                       </c:pt>
                       <c:pt idx="211">
-                        <c:v>21262.106851320663</c:v>
+                        <c:v>21262.10672573806</c:v>
                       </c:pt>
                       <c:pt idx="212">
-                        <c:v>21271.365279503942</c:v>
+                        <c:v>21271.365153739549</c:v>
                       </c:pt>
                       <c:pt idx="213">
-                        <c:v>21280.627739201664</c:v>
+                        <c:v>21280.627613255339</c:v>
                       </c:pt>
                       <c:pt idx="214">
-                        <c:v>21289.894232169318</c:v>
+                        <c:v>21289.894106041003</c:v>
                       </c:pt>
                       <c:pt idx="215">
-                        <c:v>21327.000571876968</c:v>
+                        <c:v>21327.00044501905</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6063,15 +6063,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D218" totalsRowCount="1" dataDxfId="8">
   <autoFilter ref="A1:D217" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>表2[[#Totals],[溢价指标]] -7%</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D0A16EFB-8A6B-4FCA-BEEB-6BED8414B294}" name="预测值" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{D0A16EFB-8A6B-4FCA-BEEB-6BED8414B294}" name="预测值" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Var_1 * EXP((A2 * 0.0001) * Var_2)</calculatedColumnFormula>
       <totalsRowFormula>表2[[#Totals],[溢价指标]] +7%</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45F9AFE1-71D5-4546-9F88-08F5D5B7D0AE}" name="溢价指标" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{45F9AFE1-71D5-4546-9F88-08F5D5B7D0AE}" name="溢价指标" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>(B2-C2)/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7396,11 +7396,11 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C64" si="0">Var_1 * EXP((A2 * 0.0001) * Var_2)</f>
-        <v>18602.103580439692</v>
+        <v>18602.103504689287</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D18" si="1">(B2-C2)/C2</f>
-        <v>6.4341993064636879E-2</v>
+        <v>6.4341997398788542E-2</v>
       </c>
       <c r="E2"/>
       <c r="G2" s="7"/>
@@ -7414,11 +7414,11 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>18618.307406202133</v>
+        <v>18618.307330163298</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="1"/>
-        <v>4.8591559590239412E-2</v>
+        <v>4.8591563872781317E-2</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7432,11 +7432,11 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>18642.639613836644</v>
+        <v>18642.63953736423</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="1"/>
-        <v>6.3315088990256951E-2</v>
+        <v>6.331509335199291E-2</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -7450,11 +7450,11 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>18650.757414260519</v>
+        <v>18650.75733764335</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>5.9152696120315887E-2</v>
+        <v>5.9152700471307079E-2</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -7467,11 +7467,11 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>18658.878749520994</v>
+        <v>18658.878672758969</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>1.9996981356051966E-2</v>
+        <v>1.9996985552286694E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7483,11 +7483,11 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>18667.003621157102</v>
+        <v>18667.003544250165</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>8.7853617094189075E-3</v>
+        <v>8.7853658655542254E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7499,11 +7499,11 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>18675.132030708919</v>
+        <v>18675.131953656903</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>1.8680883686252456E-2</v>
+        <v>1.8680887889243707E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7515,11 +7515,11 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>18699.538502267216</v>
+        <v>18699.538424779337</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
-        <v>1.927649164652271E-2</v>
+        <v>1.927649587024052E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7531,11 +7531,11 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>18707.681078893867</v>
+        <v>18707.681001260524</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>4.7209977940972396E-3</v>
+        <v>4.721001963499661E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7547,11 +7547,11 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>18715.827201145741</v>
+        <v>18715.827123366747</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
-        <v>3.4525473649099601E-2</v>
+        <v>3.4525477948367266E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7563,11 +7563,11 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>18723.976870566748</v>
+        <v>18723.976792641937</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
-        <v>8.8668732385710491E-3</v>
+        <v>8.8668774372389642E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7579,11 +7579,11 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>18732.130088701288</v>
+        <v>18732.130010630677</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="1"/>
-        <v>-1.5541750314711372E-2</v>
+        <v>-1.5541746211747294E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7595,11 +7595,11 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>18756.611050843054</v>
+        <v>18756.610972334223</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
-        <v>-4.5936392694155004E-2</v>
+        <v>-4.5936388700767383E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7611,11 +7611,11 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>18764.778479291646</v>
+        <v>18764.7784006365</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
-        <v>-3.6599338492034873E-2</v>
+        <v>-3.6599334453808662E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7627,11 +7627,11 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>18772.949464186939</v>
+        <v>18772.949385385364</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>-4.8258238052321718E-2</v>
+        <v>-4.8258234057278193E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7643,11 +7643,11 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>18781.12400707756</v>
+        <v>18781.123928129506</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
-        <v>-1.9547499230568501E-2</v>
+        <v>-1.9547495109152883E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7659,11 +7659,11 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>18789.302109512813</v>
+        <v>18789.302030418101</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
-        <v>-1.4705288568058346E-2</v>
+        <v>-1.4705284420400188E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7675,11 +7675,11 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>18813.857789589503</v>
+        <v>18813.857710054152</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" ref="D19:D24" si="2">(B19-C19)/C19</f>
-        <v>-1.4449869486094103E-2</v>
+        <v>-1.4449865319693068E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7691,11 +7691,11 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>18822.050145709807</v>
+        <v>18822.050066027343</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="2"/>
-        <v>9.7731040384100454E-3</v>
+        <v>9.773108313247748E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7707,11 +7707,11 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>18830.246069131314</v>
+        <v>18830.245989301697</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="2"/>
-        <v>1.0236400000352128E-2</v>
+        <v>1.0236404283184376E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7723,11 +7723,11 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>18838.445561407512</v>
+        <v>18838.445481430561</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="2"/>
-        <v>3.4586422561703488E-2</v>
+        <v>3.4586426953948493E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7739,11 +7739,11 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>18846.648624092435</v>
+        <v>18846.648543968036</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="2"/>
-        <v>3.5144252387708567E-2</v>
+        <v>3.5144256788507494E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7755,11 +7755,11 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>18871.279250149346</v>
+        <v>18871.279169581998</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="2"/>
-        <v>4.7464760495426694E-2</v>
+        <v>4.7464764967378864E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7771,11 +7771,11 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>18879.496610022685</v>
+        <v>18879.496529307504</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" ref="D25:D30" si="3">(B25-C25)/C25</f>
-        <v>4.4519375030958798E-2</v>
+        <v>4.4519379496574196E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7787,11 +7787,11 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>18887.717548084998</v>
+        <v>18887.717467221733</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="3"/>
-        <v>4.9623912975659233E-2</v>
+        <v>4.9623917469374085E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7803,11 +7803,11 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>18895.942065894375</v>
+        <v>18895.941984882986</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="3"/>
-        <v>3.154422955082304E-2</v>
+        <v>3.1544233973298016E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7819,11 +7819,11 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>18904.170165009593</v>
+        <v>18904.170083850033</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="3"/>
-        <v>4.3208976001618243E-2</v>
+        <v>4.3208980480332788E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7835,11 +7835,11 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>18928.875965788171</v>
+        <v>18928.875884183268</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="3"/>
-        <v>3.101737447447963E-2</v>
+        <v>3.1017378919332754E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7851,11 +7851,11 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>18937.11840572815</v>
+        <v>18937.118323974551</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="3"/>
-        <v>3.405383968433047E-2</v>
+        <v>3.4053844148453298E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7867,11 +7867,11 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>18945.364434777897</v>
+        <v>18945.36435287556</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" ref="D31:D33" si="4">(B31-C31)/C31</f>
-        <v>2.1410808254365372E-2</v>
+        <v>2.1410812670006621E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7883,11 +7883,11 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>18953.614054500467</v>
+        <v>18953.613972449202</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="4"/>
-        <v>1.9647226351066856E-2</v>
+        <v>1.964723076517727E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7899,11 +7899,11 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>18961.867266459318</v>
+        <v>18961.86718425895</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="4"/>
-        <v>3.2335039842052979E-2</v>
+        <v>3.2335044317262036E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7915,11 +7915,11 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
-        <v>18994.916067952003</v>
+        <v>18994.915985154472</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" ref="D34:D39" si="5">(B34-C34)/C34</f>
-        <v>-1.8908253041770445E-3</v>
+        <v>-1.8908209534878749E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7931,11 +7931,11 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
-        <v>19003.187264569173</v>
+        <v>19003.18718162203</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="5"/>
-        <v>-4.324919994995173E-3</v>
+        <v>-4.3249156489661485E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7947,11 +7947,11 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
-        <v>19011.46206281806</v>
+        <v>19011.461979721196</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="5"/>
-        <v>-4.2848920587428502E-3</v>
+        <v>-4.2848877065892492E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7963,11 +7963,11 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
-        <v>19019.740464266972</v>
+        <v>19019.740381020336</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="5"/>
-        <v>-3.1479949234420185E-2</v>
+        <v>-3.1479944995348869E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7979,11 +7979,11 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" si="0"/>
-        <v>19044.597303507733</v>
+        <v>19044.59721981089</v>
       </c>
       <c r="D38" s="7">
         <f t="shared" si="5"/>
-        <v>-2.0142053801110314E-2</v>
+        <v>-2.0142049494848772E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7995,11 +7995,11 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="0"/>
-        <v>19052.890133453777</v>
+        <v>19052.890049606631</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" si="5"/>
-        <v>-1.1750980134014532E-2</v>
+        <v>-1.1750975784970389E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8011,11 +8011,11 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="0"/>
-        <v>19061.186574451742</v>
+        <v>19061.186490454187</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" ref="D40:D41" si="6">(B40-C40)/C40</f>
-        <v>9.2236348908050683E-3</v>
+        <v>9.223639338183905E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8027,11 +8027,11 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="0"/>
-        <v>19069.486628073842</v>
+        <v>19069.486543925825</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="6"/>
-        <v>1.8538169318397902E-2</v>
+        <v>1.8538173812906331E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8043,11 +8043,11 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="0"/>
-        <v>19077.790295893366</v>
+        <v>19077.790211594704</v>
       </c>
       <c r="D42" s="7">
         <f t="shared" ref="D42:D46" si="7">(B42-C42)/C42</f>
-        <v>2.2917208823746541E-2</v>
+        <v>2.291721334369104E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8059,11 +8059,11 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="0"/>
-        <v>19102.723000277263</v>
+        <v>19102.722915526043</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="7"/>
-        <v>1.6766039046793923E-2</v>
+        <v>1.676604355778237E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8075,11 +8075,11 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="0"/>
-        <v>19111.041140630758</v>
+        <v>19111.041055728499</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="7"/>
-        <v>1.6794420408989253E-2</v>
+        <v>1.6794424926176048E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8091,11 +8091,11 @@
       </c>
       <c r="C45" s="5">
         <f t="shared" si="0"/>
-        <v>19119.362903057408</v>
+        <v>19119.362818003861</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="7"/>
-        <v>1.1801496633892001E-2</v>
+        <v>1.1801501134947137E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8107,11 +8107,11 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="0"/>
-        <v>19127.688289134421</v>
+        <v>19127.688203929541</v>
       </c>
       <c r="D46" s="7">
         <f t="shared" si="7"/>
-        <v>3.7239822193788623E-2</v>
+        <v>3.7239826814205547E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8123,11 +8123,11 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="0"/>
-        <v>19136.017300439493</v>
+        <v>19136.017215083226</v>
       </c>
       <c r="D47" s="7">
         <f t="shared" ref="D47:D56" si="8">(B47-C47)/C47</f>
-        <v>3.4280001384898486E-2</v>
+        <v>3.4280005998307793E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8139,11 +8139,11 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="0"/>
-        <v>19161.026101513256</v>
+        <v>19161.026015702006</v>
       </c>
       <c r="D48" s="7">
         <f t="shared" si="8"/>
-        <v>3.6061424624445004E-2</v>
+        <v>3.6061429264370164E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8155,11 +8155,11 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="0"/>
-        <v>19169.369629523808</v>
+        <v>19169.369543560642</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="8"/>
-        <v>4.0461965388867087E-2</v>
+        <v>4.0461970054717147E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8171,11 +8171,11 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="0"/>
-        <v>19177.716790662318</v>
+        <v>19177.716704547121</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="8"/>
-        <v>4.1469128886338934E-2</v>
+        <v>4.1469133562928966E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8187,11 +8187,11 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="0"/>
-        <v>19186.067586510744</v>
+        <v>19186.067500243465</v>
       </c>
       <c r="D51" s="7">
         <f t="shared" si="8"/>
-        <v>4.8469151341000626E-2</v>
+        <v>4.8469156055285116E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8203,11 +8203,11 @@
       </c>
       <c r="C52" s="5">
         <f t="shared" si="0"/>
-        <v>19194.422018651989</v>
+        <v>19194.421932232446</v>
       </c>
       <c r="D52" s="7">
         <f t="shared" si="8"/>
-        <v>4.2438265687628061E-2</v>
+        <v>4.2438270381024844E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8219,11 +8219,11 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="0"/>
-        <v>19219.50714866905</v>
+        <v>19219.507061792021</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" si="8"/>
-        <v>4.3783268989247885E-2</v>
+        <v>4.3783273707412064E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8235,11 +8235,11 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="0"/>
-        <v>19227.876141821838</v>
+        <v>19227.876054792079</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" si="8"/>
-        <v>2.8350705723160091E-2</v>
+        <v>2.8350710377710277E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8251,11 +8251,11 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="0"/>
-        <v>19236.248779191126</v>
+        <v>19236.24869200859</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" si="8"/>
-        <v>2.9462668491892177E-2</v>
+        <v>2.9462673157623399E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8267,11 +8267,11 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="0"/>
-        <v>19244.625062363895</v>
+        <v>19244.624975028397</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="8"/>
-        <v>2.8494966041637478E-2</v>
+        <v>2.849497070912882E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8283,11 +8283,11 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="0"/>
-        <v>19253.00499292769</v>
+        <v>19253.004905439113</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ref="D57:D62" si="9">(B57-C57)/C57</f>
-        <v>4.0616776828321828E-2</v>
+        <v>4.0616781557042445E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8299,11 +8299,11 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="0"/>
-        <v>19278.166684850279</v>
+        <v>19278.166596901763</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" si="9"/>
-        <v>2.7120489395943897E-2</v>
+        <v>2.7120494081748551E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8315,11 +8315,11 @@
       </c>
       <c r="C59" s="5">
         <f t="shared" si="0"/>
-        <v>19286.561220867035</v>
+        <v>19286.56113276504</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="9"/>
-        <v>4.2591251479512655E-2</v>
+        <v>4.2591256242122677E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8331,11 +8331,11 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="0"/>
-        <v>19294.959412222812</v>
+        <v>19294.959323967156</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="9"/>
-        <v>5.0481608536588111E-2</v>
+        <v>5.0481613341518863E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8347,11 +8347,11 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="0"/>
-        <v>19303.3612605093</v>
+        <v>19303.36117209986</v>
       </c>
       <c r="D61" s="7">
         <f t="shared" si="9"/>
-        <v>4.862566300362213E-2</v>
+        <v>4.8625667806330188E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8363,11 +8363,11 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="0"/>
-        <v>19311.766767318815</v>
+        <v>19311.766678755546</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" si="9"/>
-        <v>4.972270244616777E-2</v>
+        <v>4.9722707260169287E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8379,11 +8379,11 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="0"/>
-        <v>19337.005254820375</v>
+        <v>19337.005165794781</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" ref="D63:D69" si="10">(B63-C63)/C63</f>
-        <v>5.6988904468799131E-2</v>
+        <v>5.698890933506795E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8395,11 +8395,11 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="0"/>
-        <v>19345.425411660046</v>
+        <v>19345.425322480081</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="10"/>
-        <v>4.2106832546002657E-2</v>
+        <v>4.2106837349983384E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8411,11 +8411,11 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" ref="C65:C128" si="11">Var_1 * EXP((A65 * 0.0001) * Var_2)</f>
-        <v>19353.849234995138</v>
+        <v>19353.849145660759</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="10"/>
-        <v>4.2376622606002674E-2</v>
+        <v>4.2376627417452177E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8427,11 +8427,11 @@
       </c>
       <c r="C66" s="5">
         <f t="shared" si="11"/>
-        <v>19362.276726422202</v>
+        <v>19362.276636933148</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" si="10"/>
-        <v>4.2749274027690555E-2</v>
+        <v>4.2749278847095236E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8443,11 +8443,11 @@
       </c>
       <c r="C67" s="5">
         <f t="shared" si="11"/>
-        <v>19370.707887538472</v>
+        <v>19370.707797894702</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" si="10"/>
-        <v>4.9213075639574215E-2</v>
+        <v>4.921308049512297E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8459,11 +8459,11 @@
       </c>
       <c r="C68" s="5">
         <f t="shared" si="11"/>
-        <v>19396.023405005439</v>
+        <v>19396.023314896865</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" si="10"/>
-        <v>4.9802816527086492E-2</v>
+        <v>4.9802821404180755E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8475,11 +8475,11 @@
       </c>
       <c r="C69" s="5">
         <f t="shared" si="11"/>
-        <v>19404.469260864844</v>
+        <v>19404.469170601151</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="10"/>
-        <v>5.0479646001485079E-2</v>
+        <v>5.0479650887997121E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8491,11 +8491,11 @@
       </c>
       <c r="C70" s="5">
         <f t="shared" si="11"/>
-        <v>19412.918794410256</v>
+        <v>19412.91870399125</v>
       </c>
       <c r="D70" s="7">
         <f t="shared" ref="D70:D75" si="12">(B70-C70)/C70</f>
-        <v>3.3693089252404426E-2</v>
+        <v>3.3693094067007663E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8507,11 +8507,11 @@
       </c>
       <c r="C71" s="5">
         <f t="shared" si="11"/>
-        <v>19421.372007242891</v>
+        <v>19421.37191666846</v>
       </c>
       <c r="D71" s="7">
         <f t="shared" si="12"/>
-        <v>4.1790456022078398E-2</v>
+        <v>4.1790460880621771E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8523,11 +8523,11 @@
       </c>
       <c r="C72" s="5">
         <f t="shared" si="11"/>
-        <v>19429.828900964865</v>
+        <v>19429.828810234958</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" si="12"/>
-        <v>4.746161707009889E-2</v>
+        <v>4.7461621961346068E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8539,11 +8539,11 @@
       </c>
       <c r="C73" s="5">
         <f t="shared" si="11"/>
-        <v>19455.221683499101</v>
+        <v>19455.221592301845</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="12"/>
-        <v>4.60430793888435E-2</v>
+        <v>4.6043084292219115E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8555,11 +8555,11 @@
       </c>
       <c r="C74" s="5">
         <f t="shared" si="11"/>
-        <v>19463.693316813926</v>
+        <v>19463.693225460651</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" si="12"/>
-        <v>5.5863327965961752E-2</v>
+        <v>5.5863332921679651E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8571,11 +8571,11 @@
       </c>
       <c r="C75" s="5">
         <f t="shared" si="11"/>
-        <v>19472.168639039221</v>
+        <v>19472.168547529807</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" si="12"/>
-        <v>4.7032838403250787E-2</v>
+        <v>4.7032843323779307E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8587,11 +8587,11 @@
       </c>
       <c r="C76" s="5">
         <f t="shared" si="11"/>
-        <v>19480.647651781299</v>
+        <v>19480.6475601157</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" ref="D76:D81" si="13">(B76-C76)/C76</f>
-        <v>2.1013282285882839E-2</v>
+        <v>2.1013287090230016E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8603,11 +8603,11 @@
       </c>
       <c r="C77" s="5">
         <f t="shared" si="11"/>
-        <v>19489.130356647169</v>
+        <v>19489.130264825195</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="13"/>
-        <v>2.7906306407732208E-2</v>
+        <v>2.7906311250656689E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8619,11 +8619,11 @@
       </c>
       <c r="C78" s="5">
         <f t="shared" si="11"/>
-        <v>19514.600640068096</v>
+        <v>19514.60054777635</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="13"/>
-        <v>2.3028878131852743E-2</v>
+        <v>2.3028882970133766E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8635,11 +8635,11 @@
       </c>
       <c r="C79" s="5">
         <f t="shared" si="11"/>
-        <v>19523.098129513142</v>
+        <v>19523.098037064614</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="13"/>
-        <v>3.6106045557454572E-2</v>
+        <v>3.6106050463770106E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8651,11 +8651,11 @@
       </c>
       <c r="C80" s="5">
         <f t="shared" si="11"/>
-        <v>19531.599319127592</v>
+        <v>19531.599226522023</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" si="13"/>
-        <v>6.3968170781020017E-2</v>
+        <v>6.3968175825633966E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8667,11 +8667,11 @@
       </c>
       <c r="C81" s="5">
         <f t="shared" si="11"/>
-        <v>19540.104210522586</v>
+        <v>19540.104117759929</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" si="13"/>
-        <v>7.9932828026388611E-2</v>
+        <v>7.9932833153149349E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8683,11 +8683,11 @@
       </c>
       <c r="C82" s="5">
         <f t="shared" si="11"/>
-        <v>19548.612805310044</v>
+        <v>19548.612712390244</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" ref="D82:D87" si="14">(B82-C82)/C82</f>
-        <v>8.0230101762715916E-2</v>
+        <v>8.0230106897339323E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8699,11 +8699,11 @@
       </c>
       <c r="C83" s="5">
         <f t="shared" si="11"/>
-        <v>19574.160826156822</v>
+        <v>19574.160732764751</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="14"/>
-        <v>7.8309317444396162E-2</v>
+        <v>7.8309322589216496E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8715,11 +8715,11 @@
       </c>
       <c r="C84" s="5">
         <f t="shared" si="11"/>
-        <v>19582.684250647289</v>
+        <v>19582.68415709753</v>
       </c>
       <c r="D84" s="7">
         <f t="shared" si="14"/>
-        <v>7.6001621141571316E-2</v>
+        <v>7.6001626281811119E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8731,11 +8731,11 @@
       </c>
       <c r="C85" s="5">
         <f t="shared" si="11"/>
-        <v>19591.211386600313</v>
+        <v>19591.211292892753</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="14"/>
-        <v>7.3746772718090867E-2</v>
+        <v>7.374677785397496E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8747,11 +8747,11 @@
       </c>
       <c r="C86" s="5">
         <f t="shared" si="11"/>
-        <v>19599.742235631962</v>
+        <v>19599.742141766539</v>
       </c>
       <c r="D86" s="7">
         <f t="shared" si="14"/>
-        <v>6.6187491078818772E-2</v>
+        <v>6.6187496184913486E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8763,11 +8763,11 @@
       </c>
       <c r="C87" s="5">
         <f t="shared" si="11"/>
-        <v>19608.276799359268</v>
+        <v>19608.276705335731</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" si="14"/>
-        <v>4.0070996991760484E-2</v>
+        <v>4.0071001978999043E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8779,11 +8779,11 @@
       </c>
       <c r="C88" s="5">
         <f t="shared" si="11"/>
-        <v>19633.902794892925</v>
+        <v>19633.902700394607</v>
       </c>
       <c r="D88" s="7">
         <f t="shared" ref="D88:D98" si="15">(B88-C88)/C88</f>
-        <v>4.6098690339981936E-2</v>
+        <v>4.6098695374873308E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8795,11 +8795,11 @@
       </c>
       <c r="C89" s="5">
         <f t="shared" si="11"/>
-        <v>19642.452233584736</v>
+        <v>19642.452138927885</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" si="15"/>
-        <v>5.307625310818942E-2</v>
+        <v>5.3076258182957123E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8811,11 +8811,11 @@
       </c>
       <c r="C90" s="5">
         <f t="shared" si="11"/>
-        <v>19651.005395066655</v>
+        <v>19651.005300251232</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" si="15"/>
-        <v>5.1701914711621229E-2</v>
+        <v>5.1701919786046699E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8827,11 +8827,11 @@
       </c>
       <c r="C91" s="5">
         <f t="shared" si="11"/>
-        <v>19659.562280959959</v>
+        <v>19659.562185985767</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="15"/>
-        <v>5.5008229765491773E-2</v>
+        <v>5.500823486217464E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8843,11 +8843,11 @@
       </c>
       <c r="C92" s="5">
         <f t="shared" si="11"/>
-        <v>19668.122892886342</v>
+        <v>19668.122797753269</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" si="15"/>
-        <v>5.6328563388952591E-2</v>
+        <v>5.6328568498325939E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8859,11 +8859,11 @@
       </c>
       <c r="C93" s="5">
         <f t="shared" si="11"/>
-        <v>19693.827101092258</v>
+        <v>19693.827005481806</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" si="15"/>
-        <v>5.6422395362967011E-2</v>
+        <v>5.6422400491732638E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8875,11 +8875,11 @@
       </c>
       <c r="C94" s="5">
         <f t="shared" si="11"/>
-        <v>19702.402633382702</v>
+        <v>19702.402537612954</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="15"/>
-        <v>6.1951701491937967E-2</v>
+        <v>6.1951706653889514E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8891,11 +8891,11 @@
       </c>
       <c r="C95" s="5">
         <f t="shared" si="11"/>
-        <v>19710.981899825809</v>
+        <v>19710.981803896571</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="15"/>
-        <v>5.2458984815126286E-2</v>
+        <v>5.2458989937224663E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8907,11 +8907,11 @@
       </c>
       <c r="C96" s="5">
         <f t="shared" si="11"/>
-        <v>19728.151641674107</v>
+        <v>19728.151545425597</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" si="15"/>
-        <v>6.0920474464880262E-2</v>
+        <v>6.0920479640834774E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8923,11 +8923,11 @@
       </c>
       <c r="C97" s="5">
         <f t="shared" si="11"/>
-        <v>19753.934301263798</v>
+        <v>19753.934204535442</v>
       </c>
       <c r="D97" s="7">
         <f t="shared" si="15"/>
-        <v>7.1432134845458406E-2</v>
+        <v>7.143214009190034E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8939,11 +8939,11 @@
       </c>
       <c r="C98" s="5">
         <f t="shared" si="11"/>
-        <v>19762.536006792929</v>
+        <v>19762.53590990436</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" si="15"/>
-        <v>7.4204241434551066E-2</v>
+        <v>7.4204246700986104E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8955,11 +8955,11 @@
       </c>
       <c r="C99" s="5">
         <f t="shared" si="11"/>
-        <v>19771.141457871523</v>
+        <v>19771.14136082269</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" ref="D99:D104" si="16">(B99-C99)/C99</f>
-        <v>8.7038906974354194E-2</v>
+        <v>8.7038912310204816E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8971,11 +8971,11 @@
       </c>
       <c r="C100" s="5">
         <f t="shared" si="11"/>
-        <v>19779.750656130553</v>
+        <v>19779.750558921191</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="16"/>
-        <v>8.3178467336215756E-2</v>
+        <v>8.3178472659593702E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8987,11 +8987,11 @@
       </c>
       <c r="C101" s="5">
         <f t="shared" si="11"/>
-        <v>19788.363603201698</v>
+        <v>19788.36350583176</v>
       </c>
       <c r="D101" s="7">
         <f t="shared" si="16"/>
-        <v>9.2662356199156595E-2</v>
+        <v>9.2662361575673285E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9003,11 +9003,11 @@
       </c>
       <c r="C102" s="5">
         <f t="shared" si="11"/>
-        <v>19814.224953615314</v>
+        <v>19814.224855762986</v>
       </c>
       <c r="D102" s="7">
         <f t="shared" si="16"/>
-        <v>8.2101371625331418E-2</v>
+        <v>8.2101376969276926E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9019,11 +9019,11 @@
       </c>
       <c r="C103" s="5">
         <f t="shared" si="11"/>
-        <v>19822.852912265895</v>
+        <v>19822.852814252572</v>
       </c>
       <c r="D103" s="7">
         <f t="shared" si="16"/>
-        <v>7.7947765368223371E-2</v>
+        <v>7.7947770698094054E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9035,11 +9035,11 @@
       </c>
       <c r="C104" s="5">
         <f t="shared" si="11"/>
-        <v>19831.484627897738</v>
+        <v>19831.484529723231</v>
       </c>
       <c r="D104" s="7">
         <f t="shared" si="16"/>
-        <v>9.7446833071877806E-2</v>
+        <v>9.7446838504718775E-2</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9051,11 +9051,11 @@
       </c>
       <c r="C105" s="5">
         <f t="shared" si="11"/>
-        <v>19840.120102146793</v>
+        <v>19840.120003810978</v>
       </c>
       <c r="D105" s="7">
         <f t="shared" ref="D105:D110" si="17">(B105-C105)/C105</f>
-        <v>8.9459130726792152E-2</v>
+        <v>8.9459136126600794E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9067,11 +9067,11 @@
       </c>
       <c r="C106" s="5">
         <f t="shared" si="11"/>
-        <v>19848.759336649506</v>
+        <v>19848.759238152332</v>
       </c>
       <c r="D106" s="7">
         <f t="shared" si="17"/>
-        <v>9.729780237622096E-2</v>
+        <v>9.7297807821434504E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9083,11 +9083,11 @@
       </c>
       <c r="C107" s="5">
         <f t="shared" si="11"/>
-        <v>19874.699618058003</v>
+        <v>19874.69951907581</v>
       </c>
       <c r="D107" s="7">
         <f t="shared" si="17"/>
-        <v>0.11181554562579814</v>
+        <v>0.11181555116298579</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9099,11 +9099,11 @@
       </c>
       <c r="C108" s="5">
         <f t="shared" si="11"/>
-        <v>19883.353909956884</v>
+        <v>19883.353810812776</v>
       </c>
       <c r="D108" s="7">
         <f t="shared" si="17"/>
-        <v>0.10650346514139514</v>
+        <v>0.10650347065873897</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9115,11 +9115,11 @@
       </c>
       <c r="C109" s="5">
         <f t="shared" si="11"/>
-        <v>19892.011970303578</v>
+        <v>19892.01187099743</v>
       </c>
       <c r="D109" s="7">
         <f t="shared" si="17"/>
-        <v>6.6206879005629465E-2</v>
+        <v>6.6206884328414234E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9131,11 +9131,11 @@
       </c>
       <c r="C110" s="5">
         <f t="shared" si="11"/>
-        <v>19900.673800738954</v>
+        <v>19900.673701270713</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="17"/>
-        <v>6.0818352754272269E-2</v>
+        <v>6.0818358056491557E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9147,11 +9147,11 @@
       </c>
       <c r="C111" s="5">
         <f t="shared" si="11"/>
-        <v>19909.339402904883</v>
+        <v>19909.339303274359</v>
       </c>
       <c r="D111" s="7">
         <f t="shared" ref="D111:D116" si="18">(B111-C111)/C111</f>
-        <v>6.9297155931442742E-2</v>
+        <v>6.9297161282430769E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9163,11 +9163,11 @@
       </c>
       <c r="C112" s="5">
         <f t="shared" si="11"/>
-        <v>19935.358856212224</v>
+        <v>19935.358756094181</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="18"/>
-        <v>7.8636213929967461E-2</v>
+        <v>7.8636219347023043E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9179,11 +9179,11 @@
       </c>
       <c r="C113" s="5">
         <f t="shared" si="11"/>
-        <v>19944.039561730533</v>
+        <v>19944.039461449716</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" si="18"/>
-        <v>9.2958120772429903E-2</v>
+        <v>9.2958126267943156E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9195,11 +9195,11 @@
       </c>
       <c r="C114" s="5">
         <f t="shared" si="11"/>
-        <v>19961.412314261524</v>
+        <v>19961.412213654792</v>
       </c>
       <c r="D114" s="7">
         <f t="shared" si="18"/>
-        <v>9.0504001284906613E-2</v>
+        <v>9.050400678111313E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9211,11 +9211,11 @@
       </c>
       <c r="C115" s="5">
         <f t="shared" si="11"/>
-        <v>19970.10436456676</v>
+        <v>19970.104263796955</v>
       </c>
       <c r="D115" s="7">
         <f t="shared" si="18"/>
-        <v>7.525727497447883E-2</v>
+        <v>7.52572804002625E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9227,11 +9227,11 @@
       </c>
       <c r="C116" s="5">
         <f t="shared" si="11"/>
-        <v>19996.203231412102</v>
+        <v>19996.2031301522</v>
       </c>
       <c r="D116" s="7">
         <f t="shared" si="18"/>
-        <v>6.0051238462187753E-2</v>
+        <v>6.0051243830241088E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9243,11 +9243,11 @@
       </c>
       <c r="C117" s="5">
         <f t="shared" si="11"/>
-        <v>20004.910431166616</v>
+        <v>20004.910329743081</v>
       </c>
       <c r="D117" s="7">
         <f t="shared" ref="D117:D122" si="19">(B117-C117)/C117</f>
-        <v>5.0342118366318224E-2</v>
+        <v>5.034212369148134E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9259,11 +9259,11 @@
       </c>
       <c r="C118" s="5">
         <f t="shared" si="11"/>
-        <v>20022.336206784854</v>
+        <v>20022.336105033675</v>
       </c>
       <c r="D118" s="7">
         <f t="shared" si="19"/>
-        <v>4.7629995988778949E-2</v>
+        <v>4.7630001312712493E-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,11 +9275,11 @@
       </c>
       <c r="C119" s="5">
         <f t="shared" si="11"/>
-        <v>20031.054785951386</v>
+        <v>20031.0546840362</v>
       </c>
       <c r="D119" s="7">
         <f t="shared" si="19"/>
-        <v>6.464688094991447E-2</v>
+        <v>6.4646886366687903E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9291,11 +9291,11 @@
       </c>
       <c r="C120" s="5">
         <f t="shared" si="11"/>
-        <v>20057.233308711606</v>
+        <v>20057.233206303732</v>
       </c>
       <c r="D120" s="7">
         <f t="shared" si="19"/>
-        <v>7.492392735122079E-2</v>
+        <v>7.4923932839548762E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9307,11 +9307,11 @@
       </c>
       <c r="C121" s="5">
         <f t="shared" si="11"/>
-        <v>20065.967083564727</v>
+        <v>20065.966980992354</v>
       </c>
       <c r="D121" s="7">
         <f t="shared" si="19"/>
-        <v>5.5169676688147373E-2</v>
+        <v>5.516968208191967E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9323,11 +9323,11 @@
       </c>
       <c r="C122" s="5">
         <f t="shared" si="11"/>
-        <v>20074.704661475927</v>
+        <v>20074.704558739002</v>
       </c>
       <c r="D122" s="7">
         <f t="shared" si="19"/>
-        <v>5.5108922257127532E-2</v>
+        <v>5.5108927656890516E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9339,11 +9339,11 @@
       </c>
       <c r="C123" s="5">
         <f t="shared" si="11"/>
-        <v>20092.191233097346</v>
+        <v>20092.191130030802</v>
       </c>
       <c r="D123" s="7">
         <f t="shared" ref="D123:D129" si="20">(B123-C123)/C123</f>
-        <v>3.7617040278694412E-2</v>
+        <v>3.7617045601339515E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9355,11 +9355,11 @@
       </c>
       <c r="C124" s="5">
         <f t="shared" si="11"/>
-        <v>20118.449654888853</v>
+        <v>20118.449551326947</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="20"/>
-        <v>3.3131297716530214E-2</v>
+        <v>3.3131303034685887E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9371,11 +9371,11 @@
       </c>
       <c r="C125" s="5">
         <f t="shared" si="11"/>
-        <v>20127.210085949999</v>
+        <v>20127.209982222794</v>
       </c>
       <c r="D125" s="7">
         <f t="shared" si="20"/>
-        <v>3.1290472517581186E-2</v>
+        <v>3.1290477832420067E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9387,11 +9387,11 @@
       </c>
       <c r="C126" s="5">
         <f t="shared" si="11"/>
-        <v>20135.974331676614</v>
+        <v>20135.974227783918</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="20"/>
-        <v>5.4729195129621815E-2</v>
+        <v>5.4729200571556683E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9403,11 +9403,11 @@
       </c>
       <c r="C127" s="5">
         <f t="shared" si="11"/>
-        <v>20144.742393729557</v>
+        <v>20144.742289671245</v>
       </c>
       <c r="D127" s="7">
         <f t="shared" si="20"/>
-        <v>4.6972931585612332E-2</v>
+        <v>4.6972936993784568E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9419,11 +9419,11 @@
       </c>
       <c r="C128" s="5">
         <f t="shared" si="11"/>
-        <v>20153.514273770616</v>
+        <v>20153.514169546634</v>
       </c>
       <c r="D128" s="7">
         <f t="shared" si="20"/>
-        <v>6.3883931543642525E-2</v>
+        <v>6.3883937045522671E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9435,11 +9435,11 @@
       </c>
       <c r="C129" s="5">
         <f t="shared" ref="C129:C183" si="21">Var_1 * EXP((A129 * 0.0001) * Var_2)</f>
-        <v>20188.640007078182</v>
+        <v>20188.639902189985</v>
       </c>
       <c r="D129" s="7">
         <f t="shared" si="20"/>
-        <v>6.8274038887144547E-2</v>
+        <v>6.8274044437262746E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9451,11 +9451,11 @@
       </c>
       <c r="C130" s="5">
         <f t="shared" si="21"/>
-        <v>20197.431002012392</v>
+        <v>20197.4308969579</v>
       </c>
       <c r="D130" s="7">
         <f t="shared" ref="D130:D140" si="22">(B130-C130)/C130</f>
-        <v>8.1969285986057017E-2</v>
+        <v>8.1969291613789311E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9467,11 +9467,11 @@
       </c>
       <c r="C131" s="5">
         <f t="shared" si="21"/>
-        <v>20206.225824920886</v>
+        <v>20206.225719699905</v>
       </c>
       <c r="D131" s="7">
         <f t="shared" si="22"/>
-        <v>8.3873860945813186E-2</v>
+        <v>8.3873866589928639E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9483,11 +9483,11 @@
       </c>
       <c r="C132" s="5">
         <f t="shared" si="21"/>
-        <v>20215.024477470317</v>
+        <v>20215.02437208272</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" si="22"/>
-        <v>7.7119645552107263E-2</v>
+        <v>7.7119651167487618E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9499,11 +9499,11 @@
       </c>
       <c r="C133" s="5">
         <f t="shared" si="21"/>
-        <v>20241.443429644169</v>
+        <v>20241.443323756041</v>
       </c>
       <c r="D133" s="7">
         <f t="shared" si="22"/>
-        <v>4.3749674939629481E-2</v>
+        <v>4.3749680399748976E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9515,11 +9515,11 @@
       </c>
       <c r="C134" s="5">
         <f t="shared" si="21"/>
-        <v>20250.257417440705</v>
+        <v>20250.257311385536</v>
       </c>
       <c r="D134" s="7">
         <f t="shared" si="22"/>
-        <v>5.988776130395309E-2</v>
+        <v>5.9887766854824588E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9531,11 +9531,11 @@
       </c>
       <c r="C135" s="5">
         <f t="shared" si="21"/>
-        <v>20259.075243223535</v>
+        <v>20259.07513700112</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" si="22"/>
-        <v>5.6909051520607157E-2</v>
+        <v>5.6909057062194353E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9547,11 +9547,11 @@
       </c>
       <c r="C136" s="5">
         <f t="shared" si="21"/>
-        <v>20267.896908663872</v>
+        <v>20267.896802274088</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="22"/>
-        <v>6.1185583137933972E-2</v>
+        <v>6.1185588708285228E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9563,11 +9563,11 @@
       </c>
       <c r="C137" s="5">
         <f t="shared" si="21"/>
-        <v>20276.722415433451</v>
+        <v>20276.722308876178</v>
       </c>
       <c r="D137" s="7">
         <f t="shared" si="22"/>
-        <v>5.9244169740776606E-2</v>
+        <v>5.9244175307266486E-2</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9579,11 +9579,11 @@
       </c>
       <c r="C138" s="5">
         <f t="shared" si="21"/>
-        <v>20303.222000449179</v>
+        <v>20303.221893388745</v>
       </c>
       <c r="D138" s="7">
         <f t="shared" si="22"/>
-        <v>4.8996065724386639E-2</v>
+        <v>4.8996071255822719E-2</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9595,11 +9595,11 @@
       </c>
       <c r="C139" s="5">
         <f t="shared" si="21"/>
-        <v>20312.062889270466</v>
+        <v>20312.06278204203</v>
       </c>
       <c r="D139" s="7">
         <f t="shared" si="22"/>
-        <v>6.1782848820955298E-2</v>
+        <v>6.178285442616218E-2</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9611,11 +9611,11 @@
       </c>
       <c r="C140" s="5">
         <f t="shared" si="21"/>
-        <v>20320.907627791821</v>
+        <v>20320.907520395263</v>
       </c>
       <c r="D140" s="7">
         <f t="shared" si="22"/>
-        <v>6.5798850951889032E-2</v>
+        <v>6.5798856584665402E-2</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9627,11 +9627,11 @@
       </c>
       <c r="C141" s="5">
         <f t="shared" si="21"/>
-        <v>20329.756217689497</v>
+        <v>20329.756110124763</v>
       </c>
       <c r="D141" s="7">
         <f t="shared" ref="D141:D147" si="23">(B141-C141)/C141</f>
-        <v>7.1040880512567364E-2</v>
+        <v>7.1040886179444374E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9643,11 +9643,11 @@
       </c>
       <c r="C142" s="5">
         <f t="shared" si="21"/>
-        <v>20338.608660640766</v>
+        <v>20338.608552907652</v>
       </c>
       <c r="D142" s="7">
         <f t="shared" si="23"/>
-        <v>5.6660283827051509E-2</v>
+        <v>5.6660289424155318E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9659,11 +9659,11 @@
       </c>
       <c r="C143" s="5">
         <f t="shared" si="21"/>
-        <v>20365.189124596447</v>
+        <v>20365.189016357454</v>
       </c>
       <c r="D143" s="7">
         <f t="shared" si="23"/>
-        <v>6.834264424888481E-2</v>
+        <v>6.8342649927021784E-2</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9675,11 +9675,11 @@
       </c>
       <c r="C144" s="5">
         <f t="shared" si="21"/>
-        <v>20374.056996546649</v>
+        <v>20374.056888138774</v>
       </c>
       <c r="D144" s="7">
         <f t="shared" si="23"/>
-        <v>6.4785477123043181E-2</v>
+        <v>6.4785482788637036E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9691,11 +9691,11 @@
       </c>
       <c r="C145" s="5">
         <f t="shared" si="21"/>
-        <v>20382.928729946379</v>
+        <v>20382.92862136957</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="23"/>
-        <v>6.5548542496284112E-2</v>
+        <v>6.5548548172301657E-2</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9707,11 +9707,11 @@
       </c>
       <c r="C146" s="5">
         <f t="shared" si="21"/>
-        <v>20391.804326477297</v>
+        <v>20391.804217731355</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="23"/>
-        <v>8.0385023673178596E-2</v>
+        <v>8.0385029434683855E-2</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9723,11 +9723,11 @@
       </c>
       <c r="C147" s="5">
         <f t="shared" si="21"/>
-        <v>20400.683787821425</v>
+        <v>20400.683678906298</v>
       </c>
       <c r="D147" s="7">
         <f t="shared" si="23"/>
-        <v>8.4032291760826619E-2</v>
+        <v>8.4032297548255905E-2</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9739,11 +9739,11 @@
       </c>
       <c r="C148" s="5">
         <f t="shared" si="21"/>
-        <v>20436.240315000268</v>
+        <v>20436.240205406903</v>
       </c>
       <c r="D148" s="7">
         <f t="shared" ref="D148:D153" si="24">(B148-C148)/C148</f>
-        <v>8.4592843808497215E-2</v>
+        <v>8.4592849624840094E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9755,11 +9755,11 @@
       </c>
       <c r="C149" s="5">
         <f t="shared" si="21"/>
-        <v>20445.139125669135</v>
+        <v>20445.139015905876</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="24"/>
-        <v>8.4658796582007451E-2</v>
+        <v>8.4658802405185515E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9771,11 +9771,11 @@
       </c>
       <c r="C150" s="5">
         <f t="shared" si="21"/>
-        <v>20454.041811259642</v>
+        <v>20454.041701326361</v>
       </c>
       <c r="D150" s="7">
         <f t="shared" si="24"/>
-        <v>7.890656544233221E-2</v>
+        <v>7.8906571241075543E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9787,11 +9787,11 @@
       </c>
       <c r="C151" s="5">
         <f t="shared" si="21"/>
-        <v>20462.948373459243</v>
+        <v>20462.948263355811</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="24"/>
-        <v>5.62505268318855E-2</v>
+        <v>5.6250532515172522E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9803,11 +9803,11 @@
       </c>
       <c r="C152" s="5">
         <f t="shared" si="21"/>
-        <v>20489.691336596235</v>
+        <v>20489.691225981664</v>
       </c>
       <c r="D152" s="7">
         <f t="shared" si="24"/>
-        <v>4.2085000170969486E-2</v>
+        <v>4.2085005796714883E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9819,11 +9819,11 @@
       </c>
       <c r="C153" s="5">
         <f t="shared" si="21"/>
-        <v>20498.61342211967</v>
+        <v>20498.61331133444</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="24"/>
-        <v>2.8703725747879768E-2</v>
+        <v>2.8703731307532832E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9835,11 +9835,11 @@
       </c>
       <c r="C154" s="5">
         <f t="shared" si="21"/>
-        <v>20507.539392699684</v>
+        <v>20507.539281743735</v>
       </c>
       <c r="D154" s="7">
         <f t="shared" ref="D154:D157" si="25">(B154-C154)/C154</f>
-        <v>3.0499056728520477E-2</v>
+        <v>3.0499062304030981E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9851,11 +9851,11 @@
       </c>
       <c r="C155" s="5">
         <f t="shared" si="21"/>
-        <v>20516.469250027993</v>
+        <v>20516.469138901131</v>
       </c>
       <c r="D155" s="7">
         <f t="shared" si="25"/>
-        <v>1.6830746826460093E-3</v>
+        <v>1.6830801082333854E-3</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9867,11 +9867,11 @@
       </c>
       <c r="C156" s="5">
         <f t="shared" si="21"/>
-        <v>20525.402995797049</v>
+        <v>20525.402884499152</v>
       </c>
       <c r="D156" s="7">
         <f t="shared" si="25"/>
-        <v>1.7470887381669461E-2</v>
+        <v>1.7470892898850818E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9883,11 +9883,11 @@
       </c>
       <c r="C157" s="5">
         <f t="shared" si="21"/>
-        <v>20552.227580684361</v>
+        <v>20552.227468872567</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="25"/>
-        <v>-6.1417955882793734E-3</v>
+        <v>-6.141790181319504E-3</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9899,11 +9899,11 @@
       </c>
       <c r="C158" s="5">
         <f t="shared" si="21"/>
-        <v>20561.176897155663</v>
+        <v>20561.176785172385</v>
       </c>
       <c r="D158" s="7">
         <f t="shared" ref="D158:D162" si="26">(B158-C158)/C158</f>
-        <v>-1.012475590268674E-2</v>
+        <v>-1.0124750511483914E-2</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9915,11 +9915,11 @@
       </c>
       <c r="C159" s="5">
         <f t="shared" si="21"/>
-        <v>20570.130110541129</v>
+        <v>20570.129998386168</v>
       </c>
       <c r="D159" s="7">
         <f t="shared" si="26"/>
-        <v>2.8619113803613145E-3</v>
+        <v>2.8619168482868361E-3</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9931,11 +9931,11 @@
       </c>
       <c r="C160" s="5">
         <f t="shared" si="21"/>
-        <v>20579.087222537644</v>
+        <v>20579.087110210872</v>
       </c>
       <c r="D160" s="7">
         <f t="shared" si="26"/>
-        <v>-2.5564167003553403E-2</v>
+        <v>-2.5564161684793092E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9947,11 +9947,11 @@
       </c>
       <c r="C161" s="5">
         <f t="shared" si="21"/>
-        <v>20588.048234842612</v>
+        <v>20588.048122343975</v>
       </c>
       <c r="D161" s="7">
         <f t="shared" si="26"/>
-        <v>-1.8799656501075367E-2</v>
+        <v>-1.8799651139532539E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9963,11 +9963,11 @@
       </c>
       <c r="C162" s="5">
         <f t="shared" si="21"/>
-        <v>20614.95469059662</v>
+        <v>20614.954577581466</v>
       </c>
       <c r="D162" s="7">
         <f t="shared" si="26"/>
-        <v>-5.74318356924002E-2</v>
+        <v>-5.7431830525059867E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9979,11 +9979,11 @@
       </c>
       <c r="C163" s="5">
         <f t="shared" si="21"/>
-        <v>20623.931321127053</v>
+        <v>20623.931207939375</v>
       </c>
       <c r="D163" s="7">
         <f t="shared" ref="D163:D178" si="27">(B163-C163)/C163</f>
-        <v>-6.0460408915816284E-2</v>
+        <v>-6.0460403759461587E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9995,11 +9995,11 @@
       </c>
       <c r="C164" s="5">
         <f t="shared" si="21"/>
-        <v>20632.91186046521</v>
+        <v>20632.911747105023</v>
       </c>
       <c r="D164" s="7">
         <f t="shared" si="27"/>
-        <v>-5.0255236269003821E-2</v>
+        <v>-5.0255231050969372E-2</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10011,11 +10011,11 @@
       </c>
       <c r="C165" s="5">
         <f t="shared" si="21"/>
-        <v>20641.896310313379</v>
+        <v>20641.896196780479</v>
       </c>
       <c r="D165" s="7">
         <f t="shared" si="27"/>
-        <v>-6.8593325391618706E-2</v>
+        <v>-6.8593320268770491E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10027,11 +10027,11 @@
       </c>
       <c r="C166" s="5">
         <f t="shared" si="21"/>
-        <v>20650.884672374137</v>
+        <v>20650.884558668396</v>
       </c>
       <c r="D166" s="7">
         <f t="shared" si="27"/>
-        <v>-4.5803590857272126E-2</v>
+        <v>-4.5803585603375663E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10043,11 +10043,11 @@
       </c>
       <c r="C167" s="5">
         <f t="shared" si="21"/>
-        <v>20677.873248871543</v>
+        <v>20677.873134646583</v>
       </c>
       <c r="D167" s="7">
         <f t="shared" si="27"/>
-        <v>-4.1874386134889217E-2</v>
+        <v>-4.1874380842185296E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10059,11 +10059,11 @@
       </c>
       <c r="C168" s="5">
         <f t="shared" si="21"/>
-        <v>20686.877276825744</v>
+        <v>20686.877162427503</v>
       </c>
       <c r="D168" s="7">
         <f t="shared" si="27"/>
-        <v>-5.8195215291114759E-2</v>
+        <v>-5.8195210082942948E-2</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10075,11 +10075,11 @@
       </c>
       <c r="C169" s="5">
         <f t="shared" si="21"/>
-        <v>20695.885225517824</v>
+        <v>20695.885110946099</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="27"/>
-        <v>-4.6332167726535721E-2</v>
+        <v>-4.6332162447062619E-2</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10091,11 +10091,11 @@
       </c>
       <c r="C170" s="5">
         <f t="shared" si="21"/>
-        <v>20704.897096654968</v>
+        <v>20704.896981909555</v>
       </c>
       <c r="D170" s="7">
         <f t="shared" si="27"/>
-        <v>-4.9596822039790323E-2</v>
+        <v>-4.9596816772707594E-2</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10107,11 +10107,11 @@
       </c>
       <c r="C171" s="5">
         <f t="shared" si="21"/>
-        <v>20713.912891945176</v>
+        <v>20713.912777026089</v>
       </c>
       <c r="D171" s="7">
         <f t="shared" si="27"/>
-        <v>-4.6341456438124165E-2</v>
+        <v>-4.6341451147304903E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10123,11 +10123,11 @@
       </c>
       <c r="C172" s="5">
         <f t="shared" si="21"/>
-        <v>20740.983839825254</v>
+        <v>20740.983724384234</v>
       </c>
       <c r="D172" s="7">
         <f t="shared" si="27"/>
-        <v>-2.7047118119252173E-2</v>
+        <v>-2.704711270395101E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10139,11 +10139,11 @@
       </c>
       <c r="C173" s="5">
         <f t="shared" si="21"/>
-        <v>20750.015348822664</v>
+        <v>20750.015233207381</v>
       </c>
       <c r="D173" s="7">
         <f t="shared" si="27"/>
-        <v>-2.2265783473209746E-2</v>
+        <v>-2.2265778025453833E-2</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10155,11 +10155,11 @@
       </c>
       <c r="C174" s="5">
         <f t="shared" si="21"/>
-        <v>20759.050790524223</v>
+        <v>20759.050674734546</v>
       </c>
       <c r="D174" s="7">
         <f t="shared" si="27"/>
-        <v>-4.0563068081542031E-2</v>
+        <v>-4.0563062730001924E-2</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10171,11 +10171,11 @@
       </c>
       <c r="C175" s="5">
         <f t="shared" si="21"/>
-        <v>20768.090166642403</v>
+        <v>20768.090050678275</v>
       </c>
       <c r="D175" s="7">
         <f t="shared" si="27"/>
-        <v>-4.6662459516809633E-2</v>
+        <v>-4.6662454193597096E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10187,11 +10187,11 @@
       </c>
       <c r="C176" s="5">
         <f t="shared" si="21"/>
-        <v>20777.133478890559</v>
+        <v>20777.133362751778</v>
       </c>
       <c r="D176" s="7">
         <f t="shared" si="27"/>
-        <v>-7.2008657036863211E-2</v>
+        <v>-7.2008651849632552E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10203,11 +10203,11 @@
       </c>
       <c r="C177" s="5">
         <f t="shared" si="21"/>
-        <v>20804.287049557777</v>
+        <v>20804.286932894258</v>
       </c>
       <c r="D177" s="7">
         <f t="shared" si="27"/>
-        <v>-7.3315997127149771E-2</v>
+        <v>-7.3315991930614208E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10219,11 +10219,11 @@
       </c>
       <c r="C178" s="5">
         <f t="shared" si="21"/>
-        <v>20813.346123472678</v>
+        <v>20813.346006633987</v>
       </c>
       <c r="D178" s="7">
         <f t="shared" si="27"/>
-        <v>-6.6176102357676542E-2</v>
+        <v>-6.6176097115522678E-2</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10235,11 +10235,11 @@
       </c>
       <c r="C179" s="5">
         <f t="shared" si="21"/>
-        <v>20822.409142094602</v>
+        <v>20822.409025080677</v>
       </c>
       <c r="D179" s="7">
         <f t="shared" ref="D179:D183" si="28">(B179-C179)/C179</f>
-        <v>-5.9570875475066433E-2</v>
+        <v>-5.9570870190216653E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10251,11 +10251,11 @@
       </c>
       <c r="C180" s="5">
         <f t="shared" si="21"/>
-        <v>20831.47610714145</v>
+        <v>20831.475989952094</v>
       </c>
       <c r="D180" s="7">
         <f t="shared" si="28"/>
-        <v>-0.11086473638561385</v>
+        <v>-0.11086473138370284</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10267,11 +10267,11 @@
       </c>
       <c r="C181" s="5">
         <f t="shared" si="21"/>
-        <v>20840.547020331534</v>
+        <v>20840.546902966682</v>
       </c>
       <c r="D181" s="7">
         <f t="shared" si="28"/>
-        <v>-0.16518506049640005</v>
+        <v>-0.16518505579508713</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10283,11 +10283,11 @@
       </c>
       <c r="C182" s="5">
         <f t="shared" si="21"/>
-        <v>20867.78346595744</v>
+        <v>20867.783348065183</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="28"/>
-        <v>-0.16469326852868779</v>
+        <v>-0.16469326380963381</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10299,11 +10299,11 @@
       </c>
       <c r="C183" s="5">
         <f t="shared" si="21"/>
-        <v>20876.870188920184</v>
+        <v>20876.870070851764</v>
       </c>
       <c r="D183" s="7">
         <f t="shared" si="28"/>
-        <v>-0.18139070438489191</v>
+        <v>-0.18139069975527525</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10315,11 +10315,11 @@
       </c>
       <c r="C184" s="5">
         <f t="shared" ref="C184:C190" si="29">Var_1 * EXP((A184 * 0.0001) * Var_2)</f>
-        <v>20885.960868629743</v>
+        <v>20885.960750385104</v>
       </c>
       <c r="D184" s="7">
         <f t="shared" ref="D184:D190" si="30">(B184-C184)/C184</f>
-        <v>-8.3355555417353511E-2</v>
+        <v>-8.3355550227824843E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10331,11 +10331,11 @@
       </c>
       <c r="C185" s="5">
         <f t="shared" si="29"/>
-        <v>20895.055506808832</v>
+        <v>20895.055388387915</v>
       </c>
       <c r="D185" s="7">
         <f t="shared" si="30"/>
-        <v>-0.12208895573297468</v>
+        <v>-0.12208895075748984</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10347,11 +10347,11 @@
       </c>
       <c r="C186" s="5">
         <f t="shared" si="29"/>
-        <v>20904.154105181355</v>
+        <v>20904.153986583955</v>
       </c>
       <c r="D186" s="7">
         <f t="shared" si="30"/>
-        <v>-0.10591933517331606</v>
+        <v>-0.10591933010084854</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10363,11 +10363,11 @@
       </c>
       <c r="C187" s="5">
         <f t="shared" si="29"/>
-        <v>20931.473678707229</v>
+        <v>20931.47355957967</v>
       </c>
       <c r="D187" s="7">
         <f t="shared" si="30"/>
-        <v>-0.10202213716464517</v>
+        <v>-0.10202213205397247</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10379,11 +10379,11 @@
       </c>
       <c r="C188" s="5">
         <f t="shared" si="29"/>
-        <v>20940.588135105085</v>
+        <v>20940.588015800524</v>
       </c>
       <c r="D188" s="7">
         <f t="shared" si="30"/>
-        <v>-0.10078934371317233</v>
+        <v>-0.10078933859011024</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10395,11 +10395,11 @@
       </c>
       <c r="C189" s="5">
         <f t="shared" si="29"/>
-        <v>20949.706560325925</v>
+        <v>20949.7064408443</v>
       </c>
       <c r="D189" s="7">
         <f t="shared" si="30"/>
-        <v>-0.1284842130163015</v>
+        <v>-0.12848420804582028</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10411,11 +10411,11 @@
       </c>
       <c r="C190" s="5">
         <f t="shared" si="29"/>
-        <v>20958.828956098176</v>
+        <v>20958.828836439276</v>
       </c>
       <c r="D190" s="7">
         <f t="shared" si="30"/>
-        <v>-0.12886354298494063</v>
+        <v>-0.12886353801141701</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10427,11 +10427,11 @@
       </c>
       <c r="C191" s="5">
         <f t="shared" ref="C191:C207" si="31">Var_1 * EXP((A191 * 0.0001) * Var_2)</f>
-        <v>20967.955324150553</v>
+        <v>20967.955204314178</v>
       </c>
       <c r="D191" s="7">
         <f t="shared" ref="D191:D207" si="32">(B191-C191)/C191</f>
-        <v>-0.12623812304206086</v>
+        <v>-0.12623811804832374</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10443,11 +10443,11 @@
       </c>
       <c r="C192" s="5">
         <f t="shared" si="31"/>
-        <v>20995.358279289663</v>
+        <v>20995.358158920368</v>
       </c>
       <c r="D192" s="7">
         <f t="shared" si="32"/>
-        <v>-0.15181252145783822</v>
+        <v>-0.15181251659506195</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10459,11 +10459,11 @@
       </c>
       <c r="C193" s="5">
         <f t="shared" si="31"/>
-        <v>21004.50055376731</v>
+        <v>21004.500433220157</v>
       </c>
       <c r="D193" s="7">
         <f t="shared" si="32"/>
-        <v>-0.12990075849615634</v>
+        <v>-0.1299007535025605</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10475,11 +10475,11 @@
       </c>
       <c r="C194" s="5">
         <f t="shared" si="31"/>
-        <v>21013.646809181271</v>
+        <v>21013.646688456058</v>
       </c>
       <c r="D194" s="7">
         <f t="shared" si="32"/>
-        <v>-0.11043522479721775</v>
+        <v>-0.11043521968659135</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10491,11 +10491,11 @@
       </c>
       <c r="C195" s="5">
         <f t="shared" si="31"/>
-        <v>21022.797047265016</v>
+        <v>21022.796926361611</v>
       </c>
       <c r="D195" s="7">
         <f t="shared" si="32"/>
-        <v>-8.6039790195298171E-2</v>
+        <v>-8.603978493905648E-2</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10507,11 +10507,11 @@
       </c>
       <c r="C196" s="5">
         <f t="shared" si="31"/>
-        <v>21031.951269752546</v>
+        <v>21031.951148670883</v>
       </c>
       <c r="D196" s="7">
         <f t="shared" si="32"/>
-        <v>-7.6024865655337684E-2</v>
+        <v>-7.6024860335981201E-2</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10523,11 +10523,11 @@
       </c>
       <c r="C197" s="5">
         <f t="shared" si="31"/>
-        <v>21059.437860992522</v>
+        <v>21059.437739375091</v>
       </c>
       <c r="D197" s="7">
         <f t="shared" si="32"/>
-        <v>-7.7515737683398284E-2</v>
+        <v>-7.7515732356087649E-2</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10539,11 +10539,11 @@
       </c>
       <c r="C198" s="5">
         <f t="shared" si="31"/>
-        <v>21068.608038453207</v>
+        <v>21068.607916656918</v>
       </c>
       <c r="D198" s="7">
         <f t="shared" si="32"/>
-        <v>-7.2316502147289727E-2</v>
+        <v>-7.2316496784410142E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10555,11 +10555,11 @@
       </c>
       <c r="C199" s="5">
         <f t="shared" si="31"/>
-        <v>21077.782209000205</v>
+        <v>21077.782087025003</v>
       </c>
       <c r="D199" s="7">
         <f t="shared" si="32"/>
-        <v>-7.1486752925875155E-2</v>
+        <v>-7.1486747552653732E-2</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10571,11 +10571,11 @@
       </c>
       <c r="C200" s="5">
         <f t="shared" si="31"/>
-        <v>21086.960374372426</v>
+        <v>21086.960252218101</v>
       </c>
       <c r="D200" s="7">
         <f t="shared" si="32"/>
-        <v>-6.1647594119458957E-2</v>
+        <v>-6.1647588683691884E-2</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10587,11 +10587,11 @@
       </c>
       <c r="C201" s="5">
         <f t="shared" si="31"/>
-        <v>21096.142536309388</v>
+        <v>21096.142413975806</v>
       </c>
       <c r="D201" s="7">
         <f t="shared" si="32"/>
-        <v>-4.707697317649668E-2</v>
+        <v>-4.7076967650629201E-2</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10603,11 +10603,11 @@
       </c>
       <c r="C202" s="5">
         <f t="shared" si="31"/>
-        <v>21123.713018914495</v>
+        <v>21123.712896042431</v>
       </c>
       <c r="D202" s="7">
         <f t="shared" si="32"/>
-        <v>-5.4711641740240097E-2</v>
+        <v>-5.4711636241702367E-2</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10619,11 +10619,11 @@
       </c>
       <c r="C203" s="5">
         <f t="shared" si="31"/>
-        <v>21132.91118452037</v>
+        <v>21132.911061468589</v>
       </c>
       <c r="D203" s="7">
         <f t="shared" si="32"/>
-        <v>-6.3498643078730446E-2</v>
+        <v>-6.3498637625711715E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10635,11 +10635,11 @@
       </c>
       <c r="C204" s="5">
         <f t="shared" si="31"/>
-        <v>21142.113355399866</v>
+        <v>21142.113232168165</v>
       </c>
       <c r="D204" s="7">
         <f t="shared" si="32"/>
-        <v>-6.0264238204665914E-2</v>
+        <v>-6.0264232727198504E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10651,11 +10651,11 @@
       </c>
       <c r="C205" s="5">
         <f t="shared" si="31"/>
-        <v>21151.319533297043</v>
+        <v>21151.319409885218</v>
       </c>
       <c r="D205" s="7">
         <f t="shared" si="32"/>
-        <v>-5.1406699784632894E-2</v>
+        <v>-5.1406694249865652E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10667,11 +10667,11 @@
       </c>
       <c r="C206" s="5">
         <f t="shared" si="31"/>
-        <v>21160.529719956667</v>
+        <v>21160.529596364722</v>
       </c>
       <c r="D206" s="7">
         <f t="shared" si="32"/>
-        <v>-5.1914093573972982E-2</v>
+        <v>-5.191408803650379E-2</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10683,11 +10683,11 @@
       </c>
       <c r="C207" s="5">
         <f t="shared" si="31"/>
-        <v>21188.184349970488</v>
+        <v>21188.184225837264</v>
       </c>
       <c r="D207" s="7">
         <f t="shared" si="32"/>
-        <v>-1.5111457625718375E-2</v>
+        <v>-1.5111451855644381E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10699,11 +10699,11 @@
       </c>
       <c r="C208" s="5">
         <f t="shared" ref="C208:C212" si="33">Var_1 * EXP((A208 * 0.0001) * Var_2)</f>
-        <v>21197.410589143779</v>
+        <v>21197.410464829831</v>
       </c>
       <c r="D208" s="7">
         <f t="shared" ref="D208:D212" si="34">(B208-C208)/C208</f>
-        <v>2.7805795134359677E-5</v>
+        <v>2.7811659879276149E-5</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10715,11 +10715,11 @@
       </c>
       <c r="C209" s="5">
         <f t="shared" si="33"/>
-        <v>21206.64084581504</v>
+        <v>21206.640721320236</v>
       </c>
       <c r="D209" s="7">
         <f t="shared" si="34"/>
-        <v>5.2983004239982321E-3</v>
+        <v>5.2983063256596963E-3</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10731,11 +10731,11 @@
       </c>
       <c r="C210" s="5">
         <f t="shared" si="33"/>
-        <v>21215.875121733665</v>
+        <v>21215.874997057948</v>
       </c>
       <c r="D210" s="7">
         <f t="shared" si="34"/>
-        <v>5.6620279661845543E-3</v>
+        <v>5.6620338759871868E-3</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10747,11 +10747,11 @@
       </c>
       <c r="C211" s="5">
         <f t="shared" si="33"/>
-        <v>21225.113418649958</v>
+        <v>21225.113293793114</v>
       </c>
       <c r="D211" s="7">
         <f t="shared" si="34"/>
-        <v>9.5587984548421937E-3</v>
+        <v>9.5588043935773068E-3</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10763,11 +10763,11 @@
       </c>
       <c r="C212" s="5">
         <f t="shared" si="33"/>
-        <v>21252.852452897321</v>
+        <v>21252.852327496304</v>
       </c>
       <c r="D212" s="7">
         <f t="shared" si="34"/>
-        <v>9.1351289213044626E-3</v>
+        <v>9.1351348756379888E-3</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10779,11 +10779,11 @@
       </c>
       <c r="C213" s="5">
         <f>Var_1 * EXP((A213 * 0.0001) * Var_2)</f>
-        <v>21262.106851320663</v>
+        <v>21262.10672573806</v>
       </c>
       <c r="D213" s="7">
         <f>(B213-C213)/C213</f>
-        <v>4.9333374821612236E-3</v>
+        <v>4.9333434177040066E-3</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10795,11 +10795,11 @@
       </c>
       <c r="C214" s="5">
         <f>Var_1 * EXP((A214 * 0.0001) * Var_2)</f>
-        <v>21271.365279503942</v>
+        <v>21271.365153739549</v>
       </c>
       <c r="D214" s="7">
         <f>(B214-C214)/C214</f>
-        <v>-8.9963797334782214E-3</v>
+        <v>-8.9963738742882982E-3</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10811,11 +10811,11 @@
       </c>
       <c r="C215" s="5">
         <f>Var_1 * EXP((A215 * 0.0001) * Var_2)</f>
-        <v>21280.627739201664</v>
+        <v>21280.627613255339</v>
       </c>
       <c r="D215" s="7">
         <f>(B215-C215)/C215</f>
-        <v>-7.8770110194104712E-3</v>
+        <v>-7.8770051476736991E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10827,11 +10827,11 @@
       </c>
       <c r="C216" s="5">
         <f>Var_1 * EXP((A216 * 0.0001) * Var_2)</f>
-        <v>21289.894232169318</v>
+        <v>21289.894106041003</v>
       </c>
       <c r="D216" s="7">
         <f>(B216-C216)/C216</f>
-        <v>-1.7562052121628594E-2</v>
+        <v>-1.7562046301344027E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10843,11 +10843,11 @@
       </c>
       <c r="C217" s="5">
         <f>Var_1 * EXP((A217 * 0.0001) * Var_2)</f>
-        <v>21327.000571876968</v>
+        <v>21327.00044501905</v>
       </c>
       <c r="D217" s="7">
         <f>(B217-C217)/C217</f>
-        <v>4.0324202099209323E-3</v>
+        <v>4.0324261821373646E-3</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10856,15 +10856,15 @@
       </c>
       <c r="B218" s="12">
         <f>表2[[#Totals],[溢价指标]] -7%</f>
-        <v>-5.4558886123837226E-2</v>
+        <v>-5.4558881052175497E-2</v>
       </c>
       <c r="C218" s="13">
         <f>表2[[#Totals],[溢价指标]] +7%</f>
-        <v>8.5441113876162794E-2</v>
+        <v>8.544111894782451E-2</v>
       </c>
       <c r="D218" s="14">
         <f>SUBTOTAL(101,表2[溢价指标])</f>
-        <v>1.5441113876162781E-2</v>
+        <v>1.5441118947824508E-2</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/指数合理性判断/nasdaq100.xlsx
+++ b/指数合理性判断/nasdaq100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ipynb_notebook\指数合理性判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874ECF6-066E-4DF3-B572-C76D9AA783C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F68E13F-DF3E-423B-BAB3-0F4FAF0DFEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="指数合理性判断" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$218</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$222</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">指数合理性判断!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$218</definedName>
-    <definedName name="Var_1">0.0000466450118329541</definedName>
-    <definedName name="Var_2">4.35347867857269</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$222</definedName>
+    <definedName name="Var_1">0.0000463887724638388</definedName>
+    <definedName name="Var_2">4.35469453188038</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
     <author>ze wan</author>
   </authors>
   <commentList>
-    <comment ref="C218" authorId="0" shapeId="0" xr:uid="{ABF94653-2E4D-4FA1-A7F4-11E4BAA537F0}">
+    <comment ref="C222" authorId="0" shapeId="0" xr:uid="{ABF94653-2E4D-4FA1-A7F4-11E4BAA537F0}">
       <text>
         <r>
           <rPr>
@@ -554,10 +554,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>指数合理性判断!$A$2:$A$217</c:f>
+              <c:f>指数合理性判断!$A$2:$A$221</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="216"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
                   <c:v>45490</c:v>
                 </c:pt>
@@ -1205,663 +1205,687 @@
                 </c:pt>
                 <c:pt idx="215">
                   <c:v>45804</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>45805</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>45806</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>45810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>指数合理性判断!$D$2:$D$217</c:f>
+              <c:f>指数合理性判断!$D$2:$D$221</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="216"/>
+                <c:ptCount val="220"/>
                 <c:pt idx="0">
-                  <c:v>6.4341997398788542E-2</c:v>
+                  <c:v>6.4318177912087521E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8591563872781317E-2</c:v>
+                  <c:v>4.8567841892606885E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.331509335199291E-2</c:v>
+                  <c:v>6.3290650444005961E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9152700471307079E-2</c:v>
+                  <c:v>5.9128224471676837E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9996985552286694E-2</c:v>
+                  <c:v>1.9973290389749668E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7853658655542254E-3</c:v>
+                  <c:v>8.7618085052504121E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8680887889243707E-2</c:v>
+                  <c:v>1.8656975592951978E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.927649587024052E-2</c:v>
+                  <c:v>1.925219781436182E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.721001963499661E-3</c:v>
+                  <c:v>4.6969287328205381E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4525477948367266E-2</c:v>
+                  <c:v>3.4500564818917542E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8668774372389642E-3</c:v>
+                  <c:v>8.8424595499861647E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.5541746211747294E-2</c:v>
+                  <c:v>-1.5565693023031249E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.5936388700767383E-2</c:v>
+                  <c:v>-4.5959944158453087E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.6599334453808662E-2</c:v>
+                  <c:v>-3.6623237572203544E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.8258234057278193E-2</c:v>
+                  <c:v>-4.8281963619441218E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.9547495109152883E-2</c:v>
+                  <c:v>-1.9572059715337958E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.4705284420400188E-2</c:v>
+                  <c:v>-1.4730090139430651E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.4449865319693068E-2</c:v>
+                  <c:v>-1.4475036945342169E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.773108313247748E-3</c:v>
+                  <c:v>9.7471952458027707E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.0236404283184376E-2</c:v>
+                  <c:v>1.0210356499747142E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4586426953948493E-2</c:v>
+                  <c:v>3.4559625545905436E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5144256788507494E-2</c:v>
+                  <c:v>3.5117315074553533E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7464764967378864E-2</c:v>
+                  <c:v>4.7437120528353201E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4519379496574196E-2</c:v>
+                  <c:v>4.4491685796581616E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.9623917469374085E-2</c:v>
+                  <c:v>4.9595960815535044E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1544233973298016E-2</c:v>
+                  <c:v>3.1516633453166659E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3208980480332788E-2</c:v>
+                  <c:v>4.3180941016827228E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1017378919332754E-2</c:v>
+                  <c:v>3.0989291083186477E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.4053844148453298E-2</c:v>
+                  <c:v>3.4025547868040906E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1410812670006621E-2</c:v>
+                  <c:v>2.1382738173612529E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.964723076517727E-2</c:v>
+                  <c:v>1.9619080771863098E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2335044317262036E-2</c:v>
+                  <c:v>3.2306418530781873E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.8908209534878749E-3</c:v>
+                  <c:v>-1.9189830935370262E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-4.3249156489661485E-3</c:v>
+                  <c:v>-4.3531301659005201E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4.2848877065892492E-3</c:v>
+                  <c:v>-4.3132244187109731E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-3.1479944995348869E-2</c:v>
+                  <c:v>-3.1507625527210072E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.0142049494848772E-2</c:v>
+                  <c:v>-2.0170411465224983E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.1750975784970389E-2</c:v>
+                  <c:v>-1.1779700787919746E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.223639338183905E-3</c:v>
+                  <c:v>9.1941819720383761E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8538173812906331E-2</c:v>
+                  <c:v>1.8508320737097697E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.291721334369104E-2</c:v>
+                  <c:v>2.2887107551354931E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.676604355778237E-2</c:v>
+                  <c:v>1.6735747941900782E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.6794424926176048E-2</c:v>
+                  <c:v>1.6764004841046801E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1801501134947137E-2</c:v>
+                  <c:v>1.1771107409757306E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7239826814205547E-2</c:v>
+                  <c:v>3.7208542832271291E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.4280005998307793E-2</c:v>
+                  <c:v>3.4248685537458551E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.6061429264370164E-2</c:v>
+                  <c:v>3.6029676959683246E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.0461970054717147E-2</c:v>
+                  <c:v>4.042995638507671E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.1469133562928966E-2</c:v>
+                  <c:v>4.1436962280704703E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8469156055285116E-2</c:v>
+                  <c:v>4.8436641065822156E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.2438270381024844E-2</c:v>
+                  <c:v>4.2405815679343192E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.3783273707412064E-2</c:v>
+                  <c:v>4.3750396416847116E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.8350710377710277E-2</c:v>
+                  <c:v>2.8318194156641493E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.9462673157623399E-2</c:v>
+                  <c:v>2.9429996612944861E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.849497070912882E-2</c:v>
+                  <c:v>2.8462199834717421E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0616781557042445E-2</c:v>
+                  <c:v>4.058349792639325E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.7120494081748551E-2</c:v>
+                  <c:v>2.7087267487101285E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.2591256242122677E-2</c:v>
+                  <c:v>4.2557402419972433E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.0481613341518863E-2</c:v>
+                  <c:v>5.0447375593784358E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.8625667806330188E-2</c:v>
+                  <c:v>4.859136305503424E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9722707260169287E-2</c:v>
+                  <c:v>4.9688238993614041E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.698890933506795E-2</c:v>
+                  <c:v>5.6953816948159097E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.2106837349983384E-2</c:v>
+                  <c:v>4.2072112352174437E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.2376627417452177E-2</c:v>
+                  <c:v>4.2341766696245398E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.2749278847095236E-2</c:v>
+                  <c:v>4.2714278884349602E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.921308049512297E-2</c:v>
+                  <c:v>4.917773600972996E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9802821404180755E-2</c:v>
+                  <c:v>4.9767074143486446E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.0479650887997121E-2</c:v>
+                  <c:v>5.0443752861749951E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.3693094067007663E-2</c:v>
+                  <c:v>3.3657644009911877E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.1790460880621771E-2</c:v>
+                  <c:v>4.1754606465751729E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.7461621961346068E-2</c:v>
+                  <c:v>4.7425445015379444E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.6043084292219115E-2</c:v>
+                  <c:v>4.6006574802084713E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.5863332921679651E-2</c:v>
+                  <c:v>5.5826352307582677E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.7032843323779307E-2</c:v>
+                  <c:v>4.69960446898567E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.1013287090230016E-2</c:v>
+                  <c:v>2.0977278794261114E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.7906311250656689E-2</c:v>
+                  <c:v>2.7869934883003836E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.3028882970133766E-2</c:v>
+                  <c:v>2.2992306066159315E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.6106050463770106E-2</c:v>
+                  <c:v>3.6068880033981364E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.3968175825633966E-2</c:v>
+                  <c:v>6.3929876480453465E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7.9932833153149349E-2</c:v>
+                  <c:v>7.9893827833703635E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.0230106897339323E-2</c:v>
+                  <c:v>8.0190959505493736E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.8309322589216496E-2</c:v>
+                  <c:v>7.8269851500872636E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.6001626281811119E-2</c:v>
+                  <c:v>7.5962108844565973E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7.374677785397496E-2</c:v>
+                  <c:v>7.370721268166161E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.6187496184913486E-2</c:v>
+                  <c:v>6.6148079927283929E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.0071001978999043E-2</c:v>
+                  <c:v>4.003242477845724E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.6098695374873308E-2</c:v>
+                  <c:v>4.6059513045035298E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.3076258182957123E-2</c:v>
+                  <c:v>5.303668646999242E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.1701919786046699E-2</c:v>
+                  <c:v>5.1662271850231395E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.500823486217464E-2</c:v>
+                  <c:v>5.4968334013455758E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.6328568498325939E-2</c:v>
+                  <c:v>5.6288489284849266E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.6422400491732638E-2</c:v>
+                  <c:v>5.6381932396370696E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.1951706653889514E-2</c:v>
+                  <c:v>6.1910897636053827E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.2458989937224663E-2</c:v>
+                  <c:v>5.2418417749876663E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0920479640834774E-2</c:v>
+                  <c:v>6.08793232891593E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.143214009190034E-2</c:v>
+                  <c:v>7.1390185164692047E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.4204246700986104E-2</c:v>
+                  <c:v>7.4162052621821226E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>8.7038912310204816E-2</c:v>
+                  <c:v>8.6996081930518554E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.3178472659593702E-2</c:v>
+                  <c:v>8.3135662691527196E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.2662361575673285E-2</c:v>
+                  <c:v>9.261904393374136E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.2101376969276926E-2</c:v>
+                  <c:v>8.2058083321082054E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.7947770698094054E-2</c:v>
+                  <c:v>7.7904512173588819E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.7446838504718775E-2</c:v>
+                  <c:v>9.7402664045857873E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>8.9459136126600794E-2</c:v>
+                  <c:v>8.9415150732036167E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>9.7297807821434504E-2</c:v>
+                  <c:v>9.7253372541500599E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.11181555116298579</c:v>
+                  <c:v>0.11177012245942987</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.10650347065873897</c:v>
+                  <c:v>0.10645812447732633</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.6206884328414234E-2</c:v>
+                  <c:v>6.6163059932102128E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6.0818358056491557E-2</c:v>
+                  <c:v>6.0774626170612453E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6.9297161282430769E-2</c:v>
+                  <c:v>6.9252949855212728E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7.8636219347023043E-2</c:v>
+                  <c:v>7.8591228362096088E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>9.2958126267943156E-2</c:v>
+                  <c:v>9.2912405019967573E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>9.050400678111313E-2</c:v>
+                  <c:v>9.0458123027809798E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7.52572804002625E-2</c:v>
+                  <c:v>7.5211907434115169E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6.0051243830241088E-2</c:v>
+                  <c:v>6.0006125874296712E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>5.034212369148134E-2</c:v>
+                  <c:v>5.029729127486051E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.7630001312712493E-2</c:v>
+                  <c:v>4.7585029917342918E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>6.4646886366687903E-2</c:v>
+                  <c:v>6.4601055051151102E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7.4923932839548762E-2</c:v>
+                  <c:v>7.4877267045895202E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.516968208191967E-2</c:v>
+                  <c:v>5.5123745594200226E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>5.5108927656890516E-2</c:v>
+                  <c:v>5.5062865533921368E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.7617045601339515E-2</c:v>
+                  <c:v>3.7571494801765422E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.3131303034685887E-2</c:v>
+                  <c:v>3.3085572332441318E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.1290477832420067E-2</c:v>
+                  <c:v>3.1244703228544488E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5.4729200571556683E-2</c:v>
+                  <c:v>5.4682257388436982E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4.6972936993784568E-2</c:v>
+                  <c:v>4.6926211730389265E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>6.3883937045522671E-2</c:v>
+                  <c:v>6.3836327715689978E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>6.8274044437262746E-2</c:v>
+                  <c:v>6.8225719125525858E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8.1969291613789311E-2</c:v>
+                  <c:v>8.192021522710069E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8.3873866589928639E-2</c:v>
+                  <c:v>8.3824572037606224E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>7.7119651167487618E-2</c:v>
+                  <c:v>7.7070532840704281E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.3749680399748976E-2</c:v>
+                  <c:v>4.3701703098869692E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.9887766854824588E-2</c:v>
+                  <c:v>5.9838918885104744E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5.6909057062194353E-2</c:v>
+                  <c:v>5.6860217876158137E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>6.1185588708285228E-2</c:v>
+                  <c:v>6.1136422887444225E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5.9244175307266486E-2</c:v>
+                  <c:v>5.9194970651525312E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>4.8996071255822719E-2</c:v>
+                  <c:v>4.8946960041496769E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.178285442616218E-2</c:v>
+                  <c:v>6.1733015477388874E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.5798856584665402E-2</c:v>
+                  <c:v>6.5748699549641298E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7.1040886179444374E-2</c:v>
+                  <c:v>7.0990352235123802E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.6660289424155318E-2</c:v>
+                  <c:v>5.6610305518081695E-2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>6.8342649927021784E-2</c:v>
+                  <c:v>6.8291723736580656E-2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>6.4785482788637036E-2</c:v>
+                  <c:v>6.4734596706565256E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>6.5548548172301657E-2</c:v>
+                  <c:v>6.5497496074474151E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8.0385029434683855E-2</c:v>
+                  <c:v>8.0333135145160744E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8.4032297548255905E-2</c:v>
+                  <c:v>8.3980096272892657E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>8.4592849624840094E-2</c:v>
+                  <c:v>8.454009389945269E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>8.4658802405185515E-2</c:v>
+                  <c:v>8.4605911599610298E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7.8906571241075543E-2</c:v>
+                  <c:v>7.8853829756554833E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5.6250532515172522E-2</c:v>
+                  <c:v>5.6198770134694126E-2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>4.2085005796714883E-2</c:v>
+                  <c:v>4.2033557520860514E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>2.8703731307532832E-2</c:v>
+                  <c:v>2.8652818603022542E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.0499062304030981E-2</c:v>
+                  <c:v>3.0447935457464995E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>1.6830801082333854E-3</c:v>
+                  <c:v>1.633261144552951E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7470892898850818E-2</c:v>
+                  <c:v>1.7420165020896862E-2</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-6.141790181319504E-3</c:v>
+                  <c:v>-6.1917033032396866E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-1.0124750511483914E-2</c:v>
+                  <c:v>-1.0174583951131518E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>2.8619168482868361E-3</c:v>
+                  <c:v>2.8113076917254168E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2.5564161684793092E-2</c:v>
+                  <c:v>-2.5613454798073705E-2</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-1.8799651139532539E-2</c:v>
+                  <c:v>-1.8849405737965931E-2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-5.7431830525059867E-2</c:v>
+                  <c:v>-5.747996995711712E-2</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-6.0460403759461587E-2</c:v>
+                  <c:v>-6.0508502742723229E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-5.0255231050969372E-2</c:v>
+                  <c:v>-5.0303967949053771E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-6.8593320268770491E-2</c:v>
+                  <c:v>-6.864122937299072E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-4.5803585603375663E-2</c:v>
+                  <c:v>-4.5852782961779838E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-4.1874380842185296E-2</c:v>
+                  <c:v>-4.1924130250210155E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-5.8195210082942948E-2</c:v>
+                  <c:v>-5.8244226557147054E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-4.6332162447062619E-2</c:v>
+                  <c:v>-4.6381912282630409E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-4.9596816772707594E-2</c:v>
+                  <c:v>-4.964651185063531E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-4.6341451147304903E-2</c:v>
+                  <c:v>-4.6391432387967432E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-2.704711270395101E-2</c:v>
+                  <c:v>-2.709846003254256E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.2265778025453833E-2</c:v>
+                  <c:v>-2.2317496559562427E-2</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-4.0563062730001924E-2</c:v>
+                  <c:v>-4.0613930052515866E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-4.6662454193597096E-2</c:v>
+                  <c:v>-4.6713114044950182E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-7.2008651849632552E-2</c:v>
+                  <c:v>-7.2058077641622448E-2</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-7.3315991930614208E-2</c:v>
+                  <c:v>-7.3365686087783016E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-6.6176097115522678E-2</c:v>
+                  <c:v>-6.6226287688346125E-2</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-5.9570870190216653E-2</c:v>
+                  <c:v>-5.962153011280702E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.11086473138370284</c:v>
+                  <c:v>-0.11091273626021608</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.16518505579508713</c:v>
+                  <c:v>-0.16523022938474155</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.16469326380963381</c:v>
+                  <c:v>-0.164738768677782</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.18139069975527525</c:v>
+                  <c:v>-0.18143539452539906</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-8.3355550227824843E-2</c:v>
+                  <c:v>-8.3405709006132714E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-0.12208895075748984</c:v>
+                  <c:v>-0.12213709677963114</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-0.10591933010084854</c:v>
+                  <c:v>-0.1059684715915328</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.10202213205397247</c:v>
+                  <c:v>-0.10207181527168513</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.10078933859011024</c:v>
+                  <c:v>-0.10083919934044926</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.12848420804582028</c:v>
+                  <c:v>-0.12853263908811069</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-0.12886353801141701</c:v>
+                  <c:v>-0.12891205388546736</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.12623811804832374</c:v>
+                  <c:v>-0.12628688636960381</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.15181251659506195</c:v>
+                  <c:v>-0.15186016686586334</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.1299007535025605</c:v>
+                  <c:v>-0.12994974053826477</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.11043521968659135</c:v>
+                  <c:v>-0.11048541079380636</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-8.603978493905648E-2</c:v>
+                  <c:v>-8.6091463605649884E-2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-7.6024860335981201E-2</c:v>
+                  <c:v>-7.6077217618649731E-2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-7.7515732356087649E-2</c:v>
+                  <c:v>-7.7568341620660841E-2</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-7.2316496784410142E-2</c:v>
+                  <c:v>-7.2369515347579308E-2</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-7.1486747552653732E-2</c:v>
+                  <c:v>-7.1539926424420752E-2</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-6.1647588683691884E-2</c:v>
+                  <c:v>-6.1701445158352998E-2</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-4.7076967650629201E-2</c:v>
+                  <c:v>-4.7131776256821169E-2</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-5.4711636241702367E-2</c:v>
+                  <c:v>-5.4766350509711008E-2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-6.3498637625711715E-2</c:v>
+                  <c:v>-6.3552957151223721E-2</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-6.0264232727198504E-2</c:v>
+                  <c:v>-6.0318854108093199E-2</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-5.1406694249865652E-2</c:v>
+                  <c:v>-5.1461945796338435E-2</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-5.191408803650379E-2</c:v>
+                  <c:v>-5.1969425296053091E-2</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-1.5111451855644381E-2</c:v>
+                  <c:v>-1.5169296410399973E-2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>2.7811659879276149E-5</c:v>
+                  <c:v>-3.1043636902514514E-5</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>5.2983063256596963E-3</c:v>
+                  <c:v>5.2390186186516592E-3</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>5.6620338759871868E-3</c:v>
+                  <c:v>5.6026024515282305E-3</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>9.5588043935773068E-3</c:v>
+                  <c:v>9.4990199421077816E-3</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>9.1351348756379888E-3</c:v>
+                  <c:v>9.075007446972233E-3</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>4.9333434177040066E-3</c:v>
+                  <c:v>4.8733441670549106E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-8.9963738742882982E-3</c:v>
+                  <c:v>-9.0556619395521197E-3</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-7.8770051476736991E-3</c:v>
+                  <c:v>-7.9364808009913888E-3</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.7562046301344027E-2</c:v>
+                  <c:v>-1.7621060800017158E-2</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>4.0324261821373646E-3</c:v>
+                  <c:v>4.0653984021165159E-3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-9.1771589565851127E-4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>8.0219108598548192E-4</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-7.1050476805658051E-4</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.0712739619675917E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,13 +1950,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$217</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$221</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="216"/>
+                      <c:ptCount val="220"/>
                       <c:pt idx="0">
                         <c:v>45490</c:v>
                       </c:pt>
@@ -2580,6 +2604,18 @@
                       </c:pt>
                       <c:pt idx="215">
                         <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>45810</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2589,13 +2625,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$B$2:$B$217</c15:sqref>
+                          <c15:sqref>指数合理性判断!$B$2:$B$221</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="216"/>
+                      <c:ptCount val="220"/>
                       <c:pt idx="0">
                         <c:v>19799</c:v>
                       </c:pt>
@@ -3242,7 +3278,19 @@
                         <c:v>20916</c:v>
                       </c:pt>
                       <c:pt idx="215">
-                        <c:v>21413</c:v>
+                        <c:v>21415</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>21318</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>21364</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>21341</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>21407</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3293,13 +3341,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$217</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$221</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="216"/>
+                      <c:ptCount val="220"/>
                       <c:pt idx="0">
                         <c:v>45490</c:v>
                       </c:pt>
@@ -3947,6 +3995,18 @@
                       </c:pt>
                       <c:pt idx="215">
                         <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>45810</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3956,660 +4016,672 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$C$2:$C$217</c15:sqref>
+                          <c15:sqref>指数合理性判断!$C$2:$C$221</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                      <c:ptCount val="216"/>
+                      <c:ptCount val="220"/>
                       <c:pt idx="0">
-                        <c:v>18602.103504689287</c:v>
+                        <c:v>18602.519820567599</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>18618.307330163298</c:v>
+                        <c:v>18618.728536211893</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>18642.63953736423</c:v>
+                        <c:v>18643.068094055343</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>18650.75733764335</c:v>
+                        <c:v>18651.18834865708</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>18658.878672758969</c:v>
+                        <c:v>18659.312140151767</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>18667.003544250165</c:v>
+                        <c:v>18667.439470079808</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>18675.131953656903</c:v>
+                        <c:v>18675.570339982489</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>18699.538424779337</c:v>
+                        <c:v>18699.984204960656</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>18707.681001260524</c:v>
+                        <c:v>18708.129250187474</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>18715.827123366747</c:v>
+                        <c:v>18716.277843105083</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>18723.976792641937</c:v>
+                        <c:v>18724.429985258801</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>18732.130010630677</c:v>
+                        <c:v>18732.585678194406</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>18756.610972334223</c:v>
+                        <c:v>18757.07407716235</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>18764.7784006365</c:v>
+                        <c:v>18765.243988698468</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>18772.949385385364</c:v>
+                        <c:v>18773.417458756252</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>18781.123928129506</c:v>
+                        <c:v>18781.594488885734</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>18789.302030418101</c:v>
+                        <c:v>18789.775080637417</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>18813.857710054152</c:v>
+                        <c:v>18814.338241142705</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>18822.050066027343</c:v>
+                        <c:v>18822.533094903392</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>18830.245989301697</c:v>
+                        <c:v>18830.731518049688</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>18838.445481430561</c:v>
+                        <c:v>18838.933512136358</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>18846.648543968036</c:v>
+                        <c:v>18847.139078718705</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>18871.279169581998</c:v>
+                        <c:v>18871.777229003528</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>18879.496529307504</c:v>
+                        <c:v>18879.99710113589</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>18887.717467221733</c:v>
+                        <c:v>18888.220553550906</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>18895.941984882986</c:v>
+                        <c:v>18896.447587808078</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>18904.170083850033</c:v>
+                        <c:v>18904.678205467604</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>18928.875884183268</c:v>
+                        <c:v>18929.391574471098</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>18937.118323974551</c:v>
+                        <c:v>18937.636541354579</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>18945.36435287556</c:v>
+                        <c:v>18945.88509945109</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>18953.613972449202</c:v>
+                        <c:v>18954.137250324897</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>18961.86718425895</c:v>
+                        <c:v>18962.392995540889</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>18994.915985154472</c:v>
+                        <c:v>18995.451951148349</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>19003.18718162203</c:v>
+                        <c:v>19003.725691572483</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>19011.461979721196</c:v>
+                        <c:v>19012.003035742371</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>19019.740381020336</c:v>
+                        <c:v>19020.283985227747</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>19044.59721981089</c:v>
+                        <c:v>19045.148481283799</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>19052.890049606631</c:v>
+                        <c:v>19053.443867741418</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>19061.186490454187</c:v>
+                        <c:v>19061.742867373167</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>19069.486543925825</c:v>
+                        <c:v>19070.045481752681</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>19077.790211594704</c:v>
+                        <c:v>19078.351712454478</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>19102.722915526043</c:v>
+                        <c:v>19103.292118248493</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>19111.041055728499</c:v>
+                        <c:v>19111.612829997706</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>19119.362818003861</c:v>
+                        <c:v>19119.937165951771</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>19127.688203929541</c:v>
+                        <c:v>19128.26512768933</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>19136.017215083226</c:v>
+                        <c:v>19136.596716789514</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>19161.026015702006</c:v>
+                        <c:v>19161.613264069205</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>19169.369543560642</c:v>
+                        <c:v>19169.959378426523</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>19177.716704547121</c:v>
+                        <c:v>19178.309128053166</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>19186.067500243465</c:v>
+                        <c:v>19186.662514532523</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>19194.421932232446</c:v>
+                        <c:v>19195.019539448745</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>19219.507061792021</c:v>
+                        <c:v>19220.112460669334</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>19227.876054792079</c:v>
+                        <c:v>19228.48405518732</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>19236.24869200859</c:v>
+                        <c:v>19236.859296072878</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>19244.624975028397</c:v>
+                        <c:v>19245.238184914237</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>19253.004905439113</c:v>
+                        <c:v>19253.620723300377</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>19278.166596901763</c:v>
+                        <c:v>19278.790251626473</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>19286.56113276504</c:v>
+                        <c:v>19287.187404094526</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>19294.959323967156</c:v>
+                        <c:v>19295.588214062205</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>19303.36117209986</c:v>
+                        <c:v>19303.992683122662</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>19311.766678755546</c:v>
+                        <c:v>19312.400812869666</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>19337.005165794781</c:v>
+                        <c:v>19337.647182178142</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>19345.425322480081</c:v>
+                        <c:v>19346.069970622924</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>19353.849145660759</c:v>
+                        <c:v>19354.496427733589</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>19362.276636933148</c:v>
+                        <c:v>19362.926555107941</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>19370.707797894702</c:v>
+                        <c:v>19371.360354344688</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>19396.023314896865</c:v>
+                        <c:v>19396.68379922615</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>19404.469170601151</c:v>
+                        <c:v>19405.132301912752</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>19412.91870399125</c:v>
+                        <c:v>19413.584484465511</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>19421.37191666846</c:v>
+                        <c:v>19422.040348486975</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>19429.828810234958</c:v>
+                        <c:v>19430.499895580797</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>19455.221592301845</c:v>
+                        <c:v>19455.900651342101</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>19463.693225460651</c:v>
+                        <c:v>19464.374946774482</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>19472.168547529807</c:v>
+                        <c:v>19472.852933307284</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>19480.6475601157</c:v>
+                        <c:v>19481.334612548286</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>19489.130264825195</c:v>
+                        <c:v>19489.819986105766</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>19514.60054777635</c:v>
+                        <c:v>19515.298288772156</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>19523.098037064614</c:v>
+                        <c:v>19523.798455693945</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>19531.599226522023</c:v>
+                        <c:v>19532.302324984845</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>19540.104117759929</c:v>
+                        <c:v>19540.809898257485</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>19548.612712390244</c:v>
+                        <c:v>19549.321177125257</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>19574.160732764751</c:v>
+                        <c:v>19574.877263442544</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>19582.68415709753</c:v>
+                        <c:v>19583.403380837761</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>19591.211292892753</c:v>
+                        <c:v>19591.933211905194</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>19599.742141766539</c:v>
+                        <c:v>19600.466758262388</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>19608.276705335731</c:v>
+                        <c:v>19609.004021527726</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>19633.902700394607</c:v>
+                        <c:v>19634.638128964416</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>19642.452138927885</c:v>
+                        <c:v>19643.190276058293</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>19651.005300251232</c:v>
+                        <c:v>19651.746148161921</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>19659.562185985767</c:v>
+                        <c:v>19660.305746897855</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>19668.122797753269</c:v>
+                        <c:v>19668.86907388928</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>19693.827005481806</c:v>
+                        <c:v>19694.581440639071</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>19702.402537612954</c:v>
+                        <c:v>19703.159696898496</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>19710.981803896571</c:v>
+                        <c:v>19711.741689540031</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>19728.151545425597</c:v>
+                        <c:v>19728.916890479541</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>19753.934204535442</c:v>
+                        <c:v>19754.707755463111</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>19762.53590990436</c:v>
+                        <c:v>19763.312200597786</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>19771.14136082269</c:v>
+                        <c:v>19771.920393521512</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>19779.750558921191</c:v>
+                        <c:v>19780.532335866552</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>19788.36350583176</c:v>
+                        <c:v>19789.148029266093</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>19814.224855762986</c:v>
+                        <c:v>19815.017632133666</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>19822.852814252572</c:v>
+                        <c:v>19823.648346096576</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>19831.484529723231</c:v>
+                        <c:v>19832.282819290234</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>19840.120003810978</c:v>
+                        <c:v>19840.921053352093</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>19848.759238152332</c:v>
+                        <c:v>19849.563049920114</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>19874.69951907581</c:v>
+                        <c:v>19875.511631053345</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>19883.353810812776</c:v>
+                        <c:v>19884.168694041568</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>19892.01187099743</c:v>
+                        <c:v>19892.829527737231</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>19900.673701270713</c:v>
+                        <c:v>19901.494133782719</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>19909.339303274359</c:v>
+                        <c:v>19910.162513821204</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>19935.358756094181</c:v>
+                        <c:v>19936.190314335825</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>19944.039461449716</c:v>
+                        <c:v>19944.873806791267</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>19961.412213654792</c:v>
+                        <c:v>19962.25214000708</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>19970.104263796955</c:v>
+                        <c:v>19970.94698406303</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>19996.2031301522</c:v>
+                        <c:v>19997.054245810741</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>20004.910329743081</c:v>
+                        <c:v>20005.764248420979</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>20022.336105033675</c:v>
+                        <c:v>20023.195636591961</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>20031.0546840362</c:v>
+                        <c:v>20031.917025458279</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>20057.233206303732</c:v>
+                        <c:v>20058.103991029358</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>20065.966980992354</c:v>
+                        <c:v>20066.840584728077</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>20074.704558739002</c:v>
+                        <c:v>20075.580983775046</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>20092.191130030802</c:v>
+                        <c:v>20093.073204543984</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>20118.449551326947</c:v>
+                        <c:v>20119.340117269105</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>20127.209982222794</c:v>
+                        <c:v>20128.103383237289</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>20135.974227783918</c:v>
+                        <c:v>20136.870466171211</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>20144.742289671245</c:v>
+                        <c:v>20145.64136773326</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>20153.514169546634</c:v>
+                        <c:v>20154.416089586764</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>20188.639902189985</c:v>
+                        <c:v>20189.553213205952</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>20197.4308969579</c:v>
+                        <c:v>20198.347061490982</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>20206.225719699905</c:v>
+                        <c:v>20207.144740062311</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>20215.02437208272</c:v>
+                        <c:v>20215.946250588135</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>20241.443323756041</c:v>
+                        <c:v>20242.373790587408</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>20250.257311385536</c:v>
+                        <c:v>20251.190645629391</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>20259.07513700112</c:v>
+                        <c:v>20260.011340978526</c:v>
                       </c:pt>
                       <c:pt idx="134">
-                        <c:v>20267.896802274088</c:v>
+                        <c:v>20268.835878307586</c:v>
                       </c:pt>
                       <c:pt idx="135">
-                        <c:v>20276.722308876178</c:v>
+                        <c:v>20277.664259289853</c:v>
                       </c:pt>
                       <c:pt idx="136">
-                        <c:v>20303.221893388745</c:v>
+                        <c:v>20304.172480901649</c:v>
                       </c:pt>
                       <c:pt idx="137">
-                        <c:v>20312.06278204203</c:v>
+                        <c:v>20313.016253245918</c:v>
                       </c:pt>
                       <c:pt idx="138">
-                        <c:v>20320.907520395263</c:v>
+                        <c:v>20321.863877621552</c:v>
                       </c:pt>
                       <c:pt idx="139">
-                        <c:v>20329.756110124763</c:v>
+                        <c:v>20330.715355706365</c:v>
                       </c:pt>
                       <c:pt idx="140">
-                        <c:v>20338.608552907652</c:v>
+                        <c:v>20339.57068917896</c:v>
                       </c:pt>
                       <c:pt idx="141">
-                        <c:v>20365.189016357454</c:v>
+                        <c:v>20366.159838719148</c:v>
                       </c:pt>
                       <c:pt idx="142">
-                        <c:v>20374.056888138774</c:v>
+                        <c:v>20375.030610542603</c:v>
                       </c:pt>
                       <c:pt idx="143">
-                        <c:v>20382.92862136957</c:v>
+                        <c:v>20383.905246157356</c:v>
                       </c:pt>
                       <c:pt idx="144">
-                        <c:v>20391.804217731355</c:v>
+                        <c:v>20392.783747246416</c:v>
                       </c:pt>
                       <c:pt idx="145">
-                        <c:v>20400.683678906298</c:v>
+                        <c:v>20401.666115493448</c:v>
                       </c:pt>
                       <c:pt idx="146">
-                        <c:v>20436.240205406903</c:v>
+                        <c:v>20437.234293760383</c:v>
                       </c:pt>
                       <c:pt idx="147">
-                        <c:v>20445.139015905876</c:v>
+                        <c:v>20446.136023077866</c:v>
                       </c:pt>
                       <c:pt idx="148">
-                        <c:v>20454.041701326361</c:v>
+                        <c:v>20455.041629670704</c:v>
                       </c:pt>
                       <c:pt idx="149">
-                        <c:v>20462.948263355811</c:v>
+                        <c:v>20463.951115227701</c:v>
                       </c:pt>
                       <c:pt idx="150">
-                        <c:v>20489.691225981664</c:v>
+                        <c:v>20490.702862582766</c:v>
                       </c:pt>
                       <c:pt idx="151">
-                        <c:v>20498.61331133444</c:v>
+                        <c:v>20499.627880899134</c:v>
                       </c:pt>
                       <c:pt idx="152">
-                        <c:v>20507.539281743735</c:v>
+                        <c:v>20508.556786634788</c:v>
                       </c:pt>
                       <c:pt idx="153">
-                        <c:v>20516.469138901131</c:v>
+                        <c:v>20517.489581482794</c:v>
                       </c:pt>
                       <c:pt idx="154">
-                        <c:v>20525.402884499152</c:v>
+                        <c:v>20526.426267137198</c:v>
                       </c:pt>
                       <c:pt idx="155">
-                        <c:v>20552.227468872567</c:v>
+                        <c:v>20553.259685889465</c:v>
                       </c:pt>
                       <c:pt idx="156">
-                        <c:v>20561.176785172385</c:v>
+                        <c:v>20562.211951723773</c:v>
                       </c:pt>
                       <c:pt idx="157">
-                        <c:v>20570.129998386168</c:v>
+                        <c:v>20571.168116845336</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>20579.087110210872</c:v>
+                        <c:v>20580.12818295262</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>20588.048122343975</c:v>
+                        <c:v>20589.092151744604</c:v>
                       </c:pt>
                       <c:pt idx="160">
-                        <c:v>20614.954577581466</c:v>
+                        <c:v>20616.0074912317</c:v>
                       </c:pt>
                       <c:pt idx="161">
-                        <c:v>20623.931207939375</c:v>
+                        <c:v>20624.987087768895</c:v>
                       </c:pt>
                       <c:pt idx="162">
-                        <c:v>20632.911747105023</c:v>
+                        <c:v>20633.970595497631</c:v>
                       </c:pt>
                       <c:pt idx="163">
-                        <c:v>20641.896196780479</c:v>
+                        <c:v>20642.958016121622</c:v>
                       </c:pt>
                       <c:pt idx="164">
-                        <c:v>20650.884558668396</c:v>
+                        <c:v>20651.949351344887</c:v>
                       </c:pt>
                       <c:pt idx="165">
-                        <c:v>20677.873134646583</c:v>
+                        <c:v>20678.946861665645</c:v>
                       </c:pt>
                       <c:pt idx="166">
-                        <c:v>20686.877162427503</c:v>
+                        <c:v>20687.953872344649</c:v>
                       </c:pt>
                       <c:pt idx="167">
-                        <c:v>20695.885110946099</c:v>
+                        <c:v>20696.964806155807</c:v>
                       </c:pt>
                       <c:pt idx="168">
-                        <c:v>20704.896981909555</c:v>
+                        <c:v>20705.979664807899</c:v>
                       </c:pt>
                       <c:pt idx="169">
-                        <c:v>20713.912777026089</c:v>
+                        <c:v>20714.998450010513</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>20740.983724384234</c:v>
+                        <c:v>20742.07838202723</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>20750.015233207381</c:v>
+                        <c:v>20751.112890541757</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>20759.050674734546</c:v>
+                        <c:v>20760.151334165439</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>20768.090050678275</c:v>
+                        <c:v>20769.193714612349</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>20777.133362751778</c:v>
+                        <c:v>20778.240033597216</c:v>
                       </c:pt>
                       <c:pt idx="175">
-                        <c:v>20804.286932894258</c:v>
+                        <c:v>20805.402638938278</c:v>
                       </c:pt>
                       <c:pt idx="176">
-                        <c:v>20813.346006633987</c:v>
+                        <c:v>20814.46472923741</c:v>
                       </c:pt>
                       <c:pt idx="177">
-                        <c:v>20822.409025080677</c:v>
+                        <c:v>20823.530766659343</c:v>
                       </c:pt>
                       <c:pt idx="178">
-                        <c:v>20831.475989952094</c:v>
+                        <c:v>20832.600752923368</c:v>
                       </c:pt>
                       <c:pt idx="179">
-                        <c:v>20840.546902966682</c:v>
+                        <c:v>20841.674689749467</c:v>
                       </c:pt>
                       <c:pt idx="180">
-                        <c:v>20867.783348065183</c:v>
+                        <c:v>20868.920220811324</c:v>
                       </c:pt>
                       <c:pt idx="181">
-                        <c:v>20876.870070851764</c:v>
+                        <c:v>20878.009977100435</c:v>
                       </c:pt>
                       <c:pt idx="182">
-                        <c:v>20885.960750385104</c:v>
+                        <c:v>20887.103692562814</c:v>
                       </c:pt>
                       <c:pt idx="183">
-                        <c:v>20895.055388387915</c:v>
+                        <c:v>20896.201368922782</c:v>
                       </c:pt>
                       <c:pt idx="184">
-                        <c:v>20904.153986583955</c:v>
+                        <c:v>20905.303007905633</c:v>
                       </c:pt>
                       <c:pt idx="185">
-                        <c:v>20931.47355957967</c:v>
+                        <c:v>20932.631717855125</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>20940.588015800524</c:v>
+                        <c:v>20941.749224596817</c:v>
                       </c:pt>
                       <c:pt idx="187">
-                        <c:v>20949.7064408443</c:v>
+                        <c:v>20950.870702598804</c:v>
                       </c:pt>
                       <c:pt idx="188">
-                        <c:v>20958.828836439276</c:v>
+                        <c:v>20959.996153590899</c:v>
                       </c:pt>
                       <c:pt idx="189">
-                        <c:v>20967.955204314178</c:v>
+                        <c:v>20969.125579303447</c:v>
                       </c:pt>
                       <c:pt idx="190">
-                        <c:v>20995.358158920368</c:v>
+                        <c:v>20996.537722080546</c:v>
                       </c:pt>
                       <c:pt idx="191">
-                        <c:v>21004.500433220157</c:v>
+                        <c:v>21005.683063995199</c:v>
                       </c:pt>
                       <c:pt idx="192">
-                        <c:v>21013.646688456058</c:v>
+                        <c:v>21014.832389294152</c:v>
                       </c:pt>
                       <c:pt idx="193">
-                        <c:v>21022.796926361611</c:v>
+                        <c:v>21023.985699712503</c:v>
                       </c:pt>
                       <c:pt idx="194">
-                        <c:v>21031.951148670883</c:v>
+                        <c:v>21033.142996985873</c:v>
                       </c:pt>
                       <c:pt idx="195">
-                        <c:v>21059.437739375091</c:v>
+                        <c:v>21060.638827305811</c:v>
                       </c:pt>
                       <c:pt idx="196">
-                        <c:v>21068.607916656918</c:v>
+                        <c:v>21069.812089372452</c:v>
                       </c:pt>
                       <c:pt idx="197">
-                        <c:v>21077.782087025003</c:v>
+                        <c:v>21078.989346984414</c:v>
                       </c:pt>
                       <c:pt idx="198">
-                        <c:v>21086.960252218101</c:v>
+                        <c:v>21088.170601882015</c:v>
                       </c:pt>
                       <c:pt idx="199">
-                        <c:v>21096.142413975806</c:v>
+                        <c:v>21097.355855806403</c:v>
                       </c:pt>
                       <c:pt idx="200">
-                        <c:v>21123.712896042431</c:v>
+                        <c:v>21124.935629161755</c:v>
                       </c:pt>
                       <c:pt idx="201">
-                        <c:v>21132.911061468589</c:v>
+                        <c:v>21134.136896618918</c:v>
                       </c:pt>
                       <c:pt idx="202">
-                        <c:v>21142.113232168165</c:v>
+                        <c:v>21143.342171819473</c:v>
                       </c:pt>
                       <c:pt idx="203">
-                        <c:v>21151.319409885218</c:v>
+                        <c:v>21152.551456509133</c:v>
                       </c:pt>
                       <c:pt idx="204">
-                        <c:v>21160.529596364722</c:v>
+                        <c:v>21161.764752434283</c:v>
                       </c:pt>
                       <c:pt idx="205">
-                        <c:v>21188.184225837264</c:v>
+                        <c:v>21189.428725098056</c:v>
                       </c:pt>
                       <c:pt idx="206">
-                        <c:v>21197.410464829831</c:v>
+                        <c:v>21198.658083444363</c:v>
                       </c:pt>
                       <c:pt idx="207">
-                        <c:v>21206.640721320236</c:v>
+                        <c:v>21207.891461769446</c:v>
                       </c:pt>
                       <c:pt idx="208">
-                        <c:v>21215.874997057948</c:v>
+                        <c:v>21217.128861824352</c:v>
                       </c:pt>
                       <c:pt idx="209">
-                        <c:v>21225.113293793114</c:v>
+                        <c:v>21226.370285360794</c:v>
                       </c:pt>
                       <c:pt idx="210">
-                        <c:v>21252.852327496304</c:v>
+                        <c:v>21254.118714388096</c:v>
                       </c:pt>
                       <c:pt idx="211">
-                        <c:v>21262.10672573806</c:v>
+                        <c:v>21263.376249383175</c:v>
                       </c:pt>
                       <c:pt idx="212">
-                        <c:v>21271.365153739549</c:v>
+                        <c:v>21272.637816629933</c:v>
                       </c:pt>
                       <c:pt idx="213">
-                        <c:v>21280.627613255339</c:v>
+                        <c:v>21281.903417884594</c:v>
                       </c:pt>
                       <c:pt idx="214">
-                        <c:v>21289.894106041003</c:v>
+                        <c:v>21291.173054904153</c:v>
                       </c:pt>
                       <c:pt idx="215">
-                        <c:v>21327.00044501905</c:v>
+                        <c:v>21328.291995800399</c:v>
+                      </c:pt>
+                      <c:pt idx="216">
+                        <c:v>21337.581838027672</c:v>
+                      </c:pt>
+                      <c:pt idx="217">
+                        <c:v>21346.875726578499</c:v>
+                      </c:pt>
+                      <c:pt idx="218">
+                        <c:v>21356.173663215159</c:v>
+                      </c:pt>
+                      <c:pt idx="219">
+                        <c:v>21384.091779276536</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6060,8 +6132,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D218" totalsRowCount="1" dataDxfId="8">
-  <autoFilter ref="A1:D217" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D222" totalsRowCount="1" dataDxfId="8">
+  <autoFilter ref="A1:D221" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
@@ -6347,7 +6419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6368,962 +6440,962 @@
     </row>
     <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
-        <v>42155</v>
+        <v>42185</v>
       </c>
       <c r="B2" s="4">
-        <v>4508</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
-        <v>42185</v>
+        <v>42216</v>
       </c>
       <c r="B3" s="4">
-        <v>4396</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
-        <v>42216</v>
+        <v>42247</v>
       </c>
       <c r="B4" s="4">
-        <v>4588</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
-        <v>42247</v>
+        <v>42277</v>
       </c>
       <c r="B5" s="4">
-        <v>4274</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
-        <v>42277</v>
+        <v>42308</v>
       </c>
       <c r="B6" s="4">
-        <v>4181</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
-        <v>42308</v>
+        <v>42338</v>
       </c>
       <c r="B7" s="4">
-        <v>4648</v>
+        <v>4664</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>42338</v>
+        <v>42369</v>
       </c>
       <c r="B8" s="4">
-        <v>4664</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>42369</v>
+        <v>42400</v>
       </c>
       <c r="B9" s="4">
-        <v>4593</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>42400</v>
+        <v>42429</v>
       </c>
       <c r="B10" s="4">
-        <v>4279</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>42429</v>
+        <v>42460</v>
       </c>
       <c r="B11" s="4">
-        <v>4201</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>42460</v>
+        <v>42490</v>
       </c>
       <c r="B12" s="4">
-        <v>4483</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>42490</v>
+        <v>42521</v>
       </c>
       <c r="B13" s="4">
-        <v>4341</v>
+        <v>4523</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
-        <v>42521</v>
+        <v>42551</v>
       </c>
       <c r="B14" s="4">
-        <v>4523</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <v>42551</v>
+        <v>42582</v>
       </c>
       <c r="B15" s="4">
-        <v>4417</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
-        <v>42582</v>
+        <v>42613</v>
       </c>
       <c r="B16" s="4">
-        <v>4730</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>42613</v>
+        <v>42643</v>
       </c>
       <c r="B17" s="4">
-        <v>4771</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>42643</v>
+        <v>42674</v>
       </c>
       <c r="B18" s="4">
-        <v>4875</v>
+        <v>4801</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
-        <v>42674</v>
+        <v>42704</v>
       </c>
       <c r="B19" s="4">
-        <v>4801</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
-        <v>42704</v>
+        <v>42735</v>
       </c>
       <c r="B20" s="4">
-        <v>4810</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
-        <v>42735</v>
+        <v>42766</v>
       </c>
       <c r="B21" s="4">
-        <v>4863</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
-        <v>42766</v>
+        <v>42794</v>
       </c>
       <c r="B22" s="4">
-        <v>5116</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
-        <v>42794</v>
+        <v>42825</v>
       </c>
       <c r="B23" s="4">
-        <v>5330</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
-        <v>42825</v>
+        <v>42855</v>
       </c>
       <c r="B24" s="4">
-        <v>5436</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
-        <v>42855</v>
+        <v>42886</v>
       </c>
       <c r="B25" s="4">
-        <v>5583</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
-        <v>42886</v>
+        <v>42916</v>
       </c>
       <c r="B26" s="4">
-        <v>5788</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
-        <v>42916</v>
+        <v>42947</v>
       </c>
       <c r="B27" s="4">
-        <v>5646</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
-        <v>42947</v>
+        <v>42978</v>
       </c>
       <c r="B28" s="4">
-        <v>5880</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
-        <v>42978</v>
+        <v>43008</v>
       </c>
       <c r="B29" s="4">
-        <v>5988</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
-        <v>43008</v>
+        <v>43039</v>
       </c>
       <c r="B30" s="4">
-        <v>5979</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
-        <v>43039</v>
+        <v>43069</v>
       </c>
       <c r="B31" s="4">
-        <v>6248</v>
+        <v>6365</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
-        <v>43069</v>
+        <v>43100</v>
       </c>
       <c r="B32" s="4">
-        <v>6365</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
-        <v>43100</v>
+        <v>43131</v>
       </c>
       <c r="B33" s="4">
-        <v>6396</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
-        <v>43131</v>
+        <v>43159</v>
       </c>
       <c r="B34" s="4">
-        <v>6950</v>
+        <v>6854</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
-        <v>43159</v>
+        <v>43190</v>
       </c>
       <c r="B35" s="4">
-        <v>6854</v>
+        <v>6581</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
-        <v>43190</v>
+        <v>43220</v>
       </c>
       <c r="B36" s="4">
-        <v>6581</v>
+        <v>6605</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
-        <v>43220</v>
+        <v>43251</v>
       </c>
       <c r="B37" s="4">
-        <v>6605</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
-        <v>43251</v>
+        <v>43281</v>
       </c>
       <c r="B38" s="4">
-        <v>6967</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
-        <v>43281</v>
+        <v>43312</v>
       </c>
       <c r="B39" s="4">
-        <v>7040</v>
+        <v>7232</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
-        <v>43312</v>
+        <v>43343</v>
       </c>
       <c r="B40" s="4">
-        <v>7232</v>
+        <v>7654</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
-        <v>43343</v>
+        <v>43373</v>
       </c>
       <c r="B41" s="4">
-        <v>7654</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
-        <v>43373</v>
+        <v>43404</v>
       </c>
       <c r="B42" s="4">
-        <v>7627</v>
+        <v>6967</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
-        <v>43404</v>
+        <v>43434</v>
       </c>
       <c r="B43" s="4">
-        <v>6967</v>
+        <v>6949</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
-        <v>43434</v>
+        <v>43465</v>
       </c>
       <c r="B44" s="4">
-        <v>6949</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
-        <v>43465</v>
+        <v>43496</v>
       </c>
       <c r="B45" s="4">
-        <v>6330</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="B46" s="4">
-        <v>6906</v>
+        <v>7097</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
-        <v>43524</v>
+        <v>43555</v>
       </c>
       <c r="B47" s="4">
-        <v>7097</v>
+        <v>7378</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
-        <v>43555</v>
+        <v>43585</v>
       </c>
       <c r="B48" s="4">
-        <v>7378</v>
+        <v>7781</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
-        <v>43585</v>
+        <v>43616</v>
       </c>
       <c r="B49" s="4">
-        <v>7781</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
-        <v>43616</v>
+        <v>43646</v>
       </c>
       <c r="B50" s="4">
-        <v>7128</v>
+        <v>7671</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
-        <v>43646</v>
+        <v>43677</v>
       </c>
       <c r="B51" s="4">
-        <v>7671</v>
+        <v>7848</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
-        <v>43677</v>
+        <v>43708</v>
       </c>
       <c r="B52" s="4">
-        <v>7848</v>
+        <v>7691</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B53" s="4">
-        <v>7691</v>
+        <v>7749</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B54" s="4">
-        <v>7749</v>
+        <v>8083</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B55" s="4">
-        <v>8083</v>
+        <v>8418</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B56" s="4">
-        <v>8418</v>
+        <v>8727</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B57" s="4">
-        <v>8727</v>
+        <v>8991</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B58" s="4">
-        <v>8991</v>
+        <v>8461</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B59" s="4">
-        <v>8461</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B60" s="4">
-        <v>7813</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B61" s="4">
-        <v>9000</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B62" s="4">
-        <v>9555</v>
+        <v>10157</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B63" s="4">
-        <v>10157</v>
+        <v>10906</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B64" s="4">
-        <v>10906</v>
+        <v>12111</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B65" s="4">
-        <v>12111</v>
+        <v>11418</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B66" s="4">
-        <v>11418</v>
+        <v>11053</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B67" s="4">
-        <v>11053</v>
+        <v>12268</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B68" s="4">
-        <v>12268</v>
+        <v>12888</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B69" s="4">
-        <v>12888</v>
+        <v>12925</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B70" s="4">
-        <v>12925</v>
+        <v>12909</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B71" s="4">
-        <v>12909</v>
+        <v>13091</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B72" s="4">
-        <v>13091</v>
+        <v>13861</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B73" s="4">
-        <v>13861</v>
+        <v>13687</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B74" s="4">
-        <v>13687</v>
+        <v>14555</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="B75" s="4">
-        <v>14555</v>
+        <v>14960</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B76" s="4">
-        <v>14960</v>
+        <v>15583</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="B77" s="4">
-        <v>15583</v>
+        <v>14690</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="B78" s="4">
-        <v>14690</v>
+        <v>15851</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="B79" s="4">
-        <v>15851</v>
+        <v>16136</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="B80" s="4">
-        <v>16136</v>
+        <v>16320</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="B81" s="4">
-        <v>16320</v>
+        <v>14930</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="B82" s="4">
-        <v>14930</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B83" s="4">
-        <v>14238</v>
+        <v>14839</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B84" s="4">
-        <v>14839</v>
+        <v>12855</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B85" s="4">
-        <v>12855</v>
+        <v>12642</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B86" s="4">
-        <v>12642</v>
+        <v>11504</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B87" s="4">
-        <v>11504</v>
+        <v>12948</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B88" s="4">
-        <v>12948</v>
+        <v>12272</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B89" s="4">
-        <v>12272</v>
+        <v>10971</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B90" s="4">
-        <v>10971</v>
+        <v>11406</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="B91" s="4">
-        <v>11406</v>
+        <v>12030</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B92" s="4">
-        <v>12030</v>
+        <v>10940</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="B93" s="4">
-        <v>10940</v>
+        <v>12102</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="B94" s="4">
-        <v>12102</v>
+        <v>12042</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="B95" s="4">
-        <v>12042</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="B96" s="4">
-        <v>13181</v>
+        <v>13246</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
-        <v>45046</v>
+        <v>45077</v>
       </c>
       <c r="B97" s="4">
-        <v>13246</v>
+        <v>14254</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B98" s="4">
-        <v>14254</v>
+        <v>15179</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B99" s="4">
-        <v>15179</v>
+        <v>15757</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B100" s="4">
-        <v>15757</v>
+        <v>15501</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B101" s="4">
-        <v>15501</v>
+        <v>14715</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
-        <v>45199</v>
+        <v>45230</v>
       </c>
       <c r="B102" s="4">
-        <v>14715</v>
+        <v>14410</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
-        <v>45230</v>
+        <v>45260</v>
       </c>
       <c r="B103" s="4">
-        <v>14410</v>
+        <v>15948</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B104" s="4">
-        <v>15948</v>
+        <v>16826</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
-        <v>45291</v>
+        <v>45322</v>
       </c>
       <c r="B105" s="4">
-        <v>16826</v>
+        <v>17137</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
-        <v>45322</v>
+        <v>45351</v>
       </c>
       <c r="B106" s="4">
-        <v>17137</v>
+        <v>18044</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B107" s="4">
-        <v>18044</v>
+        <v>18246</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B108" s="4">
-        <v>18246</v>
+        <v>17441</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B109" s="4">
-        <v>17441</v>
+        <v>18537</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B110" s="4">
-        <v>18537</v>
+        <v>19683</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B111" s="4">
-        <v>19683</v>
+        <v>19362</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B112" s="4">
-        <v>19362</v>
+        <v>19575</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B113" s="4">
-        <v>19575</v>
+        <v>20061</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B114" s="4">
-        <v>20061</v>
+        <v>19890</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
-        <v>45596</v>
+        <v>45625</v>
       </c>
       <c r="B115" s="4">
-        <v>19890</v>
+        <v>20930</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
-        <v>45625</v>
+        <v>45657</v>
       </c>
       <c r="B116" s="4">
-        <v>20930</v>
+        <v>21012</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B117" s="4">
-        <v>21012</v>
+        <v>21478</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B118" s="4">
-        <v>21478</v>
+        <v>20884</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="B119" s="4">
-        <v>20884</v>
+        <v>19279</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B120" s="4">
-        <v>19279</v>
+        <v>19571</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
-        <v>45777</v>
+        <v>45807</v>
       </c>
       <c r="B121" s="4">
-        <v>19571</v>
+        <v>21341</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -7356,11 +7428,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M554"/>
+  <dimension ref="A1:M558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B217" sqref="B217"/>
+      <selection pane="bottomLeft" activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7396,11 +7468,11 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C64" si="0">Var_1 * EXP((A2 * 0.0001) * Var_2)</f>
-        <v>18602.103504689287</v>
+        <v>18602.519820567599</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D18" si="1">(B2-C2)/C2</f>
-        <v>6.4341997398788542E-2</v>
+        <v>6.4318177912087521E-2</v>
       </c>
       <c r="E2"/>
       <c r="G2" s="7"/>
@@ -7414,11 +7486,11 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>18618.307330163298</v>
+        <v>18618.728536211893</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="1"/>
-        <v>4.8591563872781317E-2</v>
+        <v>4.8567841892606885E-2</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -7432,11 +7504,11 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>18642.63953736423</v>
+        <v>18643.068094055343</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="1"/>
-        <v>6.331509335199291E-2</v>
+        <v>6.3290650444005961E-2</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -7450,11 +7522,11 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>18650.75733764335</v>
+        <v>18651.18834865708</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>5.9152700471307079E-2</v>
+        <v>5.9128224471676837E-2</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -7467,11 +7539,11 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>18658.878672758969</v>
+        <v>18659.312140151767</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>1.9996985552286694E-2</v>
+        <v>1.9973290389749668E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7483,11 +7555,11 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>18667.003544250165</v>
+        <v>18667.439470079808</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>8.7853658655542254E-3</v>
+        <v>8.7618085052504121E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7499,11 +7571,11 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>18675.131953656903</v>
+        <v>18675.570339982489</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>1.8680887889243707E-2</v>
+        <v>1.8656975592951978E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7515,11 +7587,11 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>18699.538424779337</v>
+        <v>18699.984204960656</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
-        <v>1.927649587024052E-2</v>
+        <v>1.925219781436182E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7531,11 +7603,11 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>18707.681001260524</v>
+        <v>18708.129250187474</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>4.721001963499661E-3</v>
+        <v>4.6969287328205381E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7547,11 +7619,11 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>18715.827123366747</v>
+        <v>18716.277843105083</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="1"/>
-        <v>3.4525477948367266E-2</v>
+        <v>3.4500564818917542E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7563,11 +7635,11 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>18723.976792641937</v>
+        <v>18724.429985258801</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="1"/>
-        <v>8.8668774372389642E-3</v>
+        <v>8.8424595499861647E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7579,11 +7651,11 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>18732.130010630677</v>
+        <v>18732.585678194406</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="1"/>
-        <v>-1.5541746211747294E-2</v>
+        <v>-1.5565693023031249E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7595,11 +7667,11 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>18756.610972334223</v>
+        <v>18757.07407716235</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="1"/>
-        <v>-4.5936388700767383E-2</v>
+        <v>-4.5959944158453087E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7611,11 +7683,11 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>18764.7784006365</v>
+        <v>18765.243988698468</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="1"/>
-        <v>-3.6599334453808662E-2</v>
+        <v>-3.6623237572203544E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7627,11 +7699,11 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>18772.949385385364</v>
+        <v>18773.417458756252</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="1"/>
-        <v>-4.8258234057278193E-2</v>
+        <v>-4.8281963619441218E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7643,11 +7715,11 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>18781.123928129506</v>
+        <v>18781.594488885734</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="1"/>
-        <v>-1.9547495109152883E-2</v>
+        <v>-1.9572059715337958E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7659,11 +7731,11 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>18789.302030418101</v>
+        <v>18789.775080637417</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
-        <v>-1.4705284420400188E-2</v>
+        <v>-1.4730090139430651E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7675,11 +7747,11 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>18813.857710054152</v>
+        <v>18814.338241142705</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" ref="D19:D24" si="2">(B19-C19)/C19</f>
-        <v>-1.4449865319693068E-2</v>
+        <v>-1.4475036945342169E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7691,11 +7763,11 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>18822.050066027343</v>
+        <v>18822.533094903392</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="2"/>
-        <v>9.773108313247748E-3</v>
+        <v>9.7471952458027707E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7707,11 +7779,11 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>18830.245989301697</v>
+        <v>18830.731518049688</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="2"/>
-        <v>1.0236404283184376E-2</v>
+        <v>1.0210356499747142E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7723,11 +7795,11 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>18838.445481430561</v>
+        <v>18838.933512136358</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="2"/>
-        <v>3.4586426953948493E-2</v>
+        <v>3.4559625545905436E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7739,11 +7811,11 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
-        <v>18846.648543968036</v>
+        <v>18847.139078718705</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="2"/>
-        <v>3.5144256788507494E-2</v>
+        <v>3.5117315074553533E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7755,11 +7827,11 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
-        <v>18871.279169581998</v>
+        <v>18871.777229003528</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" si="2"/>
-        <v>4.7464764967378864E-2</v>
+        <v>4.7437120528353201E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7771,11 +7843,11 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
-        <v>18879.496529307504</v>
+        <v>18879.99710113589</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" ref="D25:D30" si="3">(B25-C25)/C25</f>
-        <v>4.4519379496574196E-2</v>
+        <v>4.4491685796581616E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7787,11 +7859,11 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>18887.717467221733</v>
+        <v>18888.220553550906</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="3"/>
-        <v>4.9623917469374085E-2</v>
+        <v>4.9595960815535044E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7803,11 +7875,11 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
-        <v>18895.941984882986</v>
+        <v>18896.447587808078</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="3"/>
-        <v>3.1544233973298016E-2</v>
+        <v>3.1516633453166659E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7819,11 +7891,11 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
-        <v>18904.170083850033</v>
+        <v>18904.678205467604</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="3"/>
-        <v>4.3208980480332788E-2</v>
+        <v>4.3180941016827228E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7835,11 +7907,11 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
-        <v>18928.875884183268</v>
+        <v>18929.391574471098</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="3"/>
-        <v>3.1017378919332754E-2</v>
+        <v>3.0989291083186477E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7851,11 +7923,11 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
-        <v>18937.118323974551</v>
+        <v>18937.636541354579</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" si="3"/>
-        <v>3.4053844148453298E-2</v>
+        <v>3.4025547868040906E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7867,11 +7939,11 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
-        <v>18945.36435287556</v>
+        <v>18945.88509945109</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" ref="D31:D33" si="4">(B31-C31)/C31</f>
-        <v>2.1410812670006621E-2</v>
+        <v>2.1382738173612529E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7883,11 +7955,11 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
-        <v>18953.613972449202</v>
+        <v>18954.137250324897</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="4"/>
-        <v>1.964723076517727E-2</v>
+        <v>1.9619080771863098E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7899,11 +7971,11 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
-        <v>18961.86718425895</v>
+        <v>18962.392995540889</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="4"/>
-        <v>3.2335044317262036E-2</v>
+        <v>3.2306418530781873E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7915,11 +7987,11 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
-        <v>18994.915985154472</v>
+        <v>18995.451951148349</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" ref="D34:D39" si="5">(B34-C34)/C34</f>
-        <v>-1.8908209534878749E-3</v>
+        <v>-1.9189830935370262E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7931,11 +8003,11 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
-        <v>19003.18718162203</v>
+        <v>19003.725691572483</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="5"/>
-        <v>-4.3249156489661485E-3</v>
+        <v>-4.3531301659005201E-3</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7947,11 +8019,11 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
-        <v>19011.461979721196</v>
+        <v>19012.003035742371</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" si="5"/>
-        <v>-4.2848877065892492E-3</v>
+        <v>-4.3132244187109731E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7963,11 +8035,11 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
-        <v>19019.740381020336</v>
+        <v>19020.283985227747</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="5"/>
-        <v>-3.1479944995348869E-2</v>
+        <v>-3.1507625527210072E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7979,11 +8051,11 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" si="0"/>
-        <v>19044.59721981089</v>
+        <v>19045.148481283799</v>
       </c>
       <c r="D38" s="7">
         <f t="shared" si="5"/>
-        <v>-2.0142049494848772E-2</v>
+        <v>-2.0170411465224983E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7995,11 +8067,11 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="0"/>
-        <v>19052.890049606631</v>
+        <v>19053.443867741418</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" si="5"/>
-        <v>-1.1750975784970389E-2</v>
+        <v>-1.1779700787919746E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8011,11 +8083,11 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="0"/>
-        <v>19061.186490454187</v>
+        <v>19061.742867373167</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" ref="D40:D41" si="6">(B40-C40)/C40</f>
-        <v>9.223639338183905E-3</v>
+        <v>9.1941819720383761E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8027,11 +8099,11 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="0"/>
-        <v>19069.486543925825</v>
+        <v>19070.045481752681</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="6"/>
-        <v>1.8538173812906331E-2</v>
+        <v>1.8508320737097697E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8043,11 +8115,11 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" si="0"/>
-        <v>19077.790211594704</v>
+        <v>19078.351712454478</v>
       </c>
       <c r="D42" s="7">
         <f t="shared" ref="D42:D46" si="7">(B42-C42)/C42</f>
-        <v>2.291721334369104E-2</v>
+        <v>2.2887107551354931E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8059,11 +8131,11 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="0"/>
-        <v>19102.722915526043</v>
+        <v>19103.292118248493</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" si="7"/>
-        <v>1.676604355778237E-2</v>
+        <v>1.6735747941900782E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8075,11 +8147,11 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="0"/>
-        <v>19111.041055728499</v>
+        <v>19111.612829997706</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="7"/>
-        <v>1.6794424926176048E-2</v>
+        <v>1.6764004841046801E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8091,11 +8163,11 @@
       </c>
       <c r="C45" s="5">
         <f t="shared" si="0"/>
-        <v>19119.362818003861</v>
+        <v>19119.937165951771</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="7"/>
-        <v>1.1801501134947137E-2</v>
+        <v>1.1771107409757306E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8107,11 +8179,11 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="0"/>
-        <v>19127.688203929541</v>
+        <v>19128.26512768933</v>
       </c>
       <c r="D46" s="7">
         <f t="shared" si="7"/>
-        <v>3.7239826814205547E-2</v>
+        <v>3.7208542832271291E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8123,11 +8195,11 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="0"/>
-        <v>19136.017215083226</v>
+        <v>19136.596716789514</v>
       </c>
       <c r="D47" s="7">
         <f t="shared" ref="D47:D56" si="8">(B47-C47)/C47</f>
-        <v>3.4280005998307793E-2</v>
+        <v>3.4248685537458551E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8139,11 +8211,11 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="0"/>
-        <v>19161.026015702006</v>
+        <v>19161.613264069205</v>
       </c>
       <c r="D48" s="7">
         <f t="shared" si="8"/>
-        <v>3.6061429264370164E-2</v>
+        <v>3.6029676959683246E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8155,11 +8227,11 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="0"/>
-        <v>19169.369543560642</v>
+        <v>19169.959378426523</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="8"/>
-        <v>4.0461970054717147E-2</v>
+        <v>4.042995638507671E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8171,11 +8243,11 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="0"/>
-        <v>19177.716704547121</v>
+        <v>19178.309128053166</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="8"/>
-        <v>4.1469133562928966E-2</v>
+        <v>4.1436962280704703E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8187,11 +8259,11 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="0"/>
-        <v>19186.067500243465</v>
+        <v>19186.662514532523</v>
       </c>
       <c r="D51" s="7">
         <f t="shared" si="8"/>
-        <v>4.8469156055285116E-2</v>
+        <v>4.8436641065822156E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8203,11 +8275,11 @@
       </c>
       <c r="C52" s="5">
         <f t="shared" si="0"/>
-        <v>19194.421932232446</v>
+        <v>19195.019539448745</v>
       </c>
       <c r="D52" s="7">
         <f t="shared" si="8"/>
-        <v>4.2438270381024844E-2</v>
+        <v>4.2405815679343192E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8219,11 +8291,11 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="0"/>
-        <v>19219.507061792021</v>
+        <v>19220.112460669334</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" si="8"/>
-        <v>4.3783273707412064E-2</v>
+        <v>4.3750396416847116E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8235,11 +8307,11 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="0"/>
-        <v>19227.876054792079</v>
+        <v>19228.48405518732</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" si="8"/>
-        <v>2.8350710377710277E-2</v>
+        <v>2.8318194156641493E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8251,11 +8323,11 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="0"/>
-        <v>19236.24869200859</v>
+        <v>19236.859296072878</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" si="8"/>
-        <v>2.9462673157623399E-2</v>
+        <v>2.9429996612944861E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8267,11 +8339,11 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="0"/>
-        <v>19244.624975028397</v>
+        <v>19245.238184914237</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="8"/>
-        <v>2.849497070912882E-2</v>
+        <v>2.8462199834717421E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8283,11 +8355,11 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="0"/>
-        <v>19253.004905439113</v>
+        <v>19253.620723300377</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" ref="D57:D62" si="9">(B57-C57)/C57</f>
-        <v>4.0616781557042445E-2</v>
+        <v>4.058349792639325E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8299,11 +8371,11 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="0"/>
-        <v>19278.166596901763</v>
+        <v>19278.790251626473</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" si="9"/>
-        <v>2.7120494081748551E-2</v>
+        <v>2.7087267487101285E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8315,11 +8387,11 @@
       </c>
       <c r="C59" s="5">
         <f t="shared" si="0"/>
-        <v>19286.56113276504</v>
+        <v>19287.187404094526</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="9"/>
-        <v>4.2591256242122677E-2</v>
+        <v>4.2557402419972433E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8331,11 +8403,11 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="0"/>
-        <v>19294.959323967156</v>
+        <v>19295.588214062205</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="9"/>
-        <v>5.0481613341518863E-2</v>
+        <v>5.0447375593784358E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8347,11 +8419,11 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="0"/>
-        <v>19303.36117209986</v>
+        <v>19303.992683122662</v>
       </c>
       <c r="D61" s="7">
         <f t="shared" si="9"/>
-        <v>4.8625667806330188E-2</v>
+        <v>4.859136305503424E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8363,11 +8435,11 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="0"/>
-        <v>19311.766678755546</v>
+        <v>19312.400812869666</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" si="9"/>
-        <v>4.9722707260169287E-2</v>
+        <v>4.9688238993614041E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8379,11 +8451,11 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="0"/>
-        <v>19337.005165794781</v>
+        <v>19337.647182178142</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" ref="D63:D69" si="10">(B63-C63)/C63</f>
-        <v>5.698890933506795E-2</v>
+        <v>5.6953816948159097E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8395,11 +8467,11 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="0"/>
-        <v>19345.425322480081</v>
+        <v>19346.069970622924</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="10"/>
-        <v>4.2106837349983384E-2</v>
+        <v>4.2072112352174437E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8411,11 +8483,11 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" ref="C65:C128" si="11">Var_1 * EXP((A65 * 0.0001) * Var_2)</f>
-        <v>19353.849145660759</v>
+        <v>19354.496427733589</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="10"/>
-        <v>4.2376627417452177E-2</v>
+        <v>4.2341766696245398E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8427,11 +8499,11 @@
       </c>
       <c r="C66" s="5">
         <f t="shared" si="11"/>
-        <v>19362.276636933148</v>
+        <v>19362.926555107941</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" si="10"/>
-        <v>4.2749278847095236E-2</v>
+        <v>4.2714278884349602E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8443,11 +8515,11 @@
       </c>
       <c r="C67" s="5">
         <f t="shared" si="11"/>
-        <v>19370.707797894702</v>
+        <v>19371.360354344688</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" si="10"/>
-        <v>4.921308049512297E-2</v>
+        <v>4.917773600972996E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8459,11 +8531,11 @@
       </c>
       <c r="C68" s="5">
         <f t="shared" si="11"/>
-        <v>19396.023314896865</v>
+        <v>19396.68379922615</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" si="10"/>
-        <v>4.9802821404180755E-2</v>
+        <v>4.9767074143486446E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8475,11 +8547,11 @@
       </c>
       <c r="C69" s="5">
         <f t="shared" si="11"/>
-        <v>19404.469170601151</v>
+        <v>19405.132301912752</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="10"/>
-        <v>5.0479650887997121E-2</v>
+        <v>5.0443752861749951E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8491,11 +8563,11 @@
       </c>
       <c r="C70" s="5">
         <f t="shared" si="11"/>
-        <v>19412.91870399125</v>
+        <v>19413.584484465511</v>
       </c>
       <c r="D70" s="7">
         <f t="shared" ref="D70:D75" si="12">(B70-C70)/C70</f>
-        <v>3.3693094067007663E-2</v>
+        <v>3.3657644009911877E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8507,11 +8579,11 @@
       </c>
       <c r="C71" s="5">
         <f t="shared" si="11"/>
-        <v>19421.37191666846</v>
+        <v>19422.040348486975</v>
       </c>
       <c r="D71" s="7">
         <f t="shared" si="12"/>
-        <v>4.1790460880621771E-2</v>
+        <v>4.1754606465751729E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8523,11 +8595,11 @@
       </c>
       <c r="C72" s="5">
         <f t="shared" si="11"/>
-        <v>19429.828810234958</v>
+        <v>19430.499895580797</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" si="12"/>
-        <v>4.7461621961346068E-2</v>
+        <v>4.7425445015379444E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8539,11 +8611,11 @@
       </c>
       <c r="C73" s="5">
         <f t="shared" si="11"/>
-        <v>19455.221592301845</v>
+        <v>19455.900651342101</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="12"/>
-        <v>4.6043084292219115E-2</v>
+        <v>4.6006574802084713E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8555,11 +8627,11 @@
       </c>
       <c r="C74" s="5">
         <f t="shared" si="11"/>
-        <v>19463.693225460651</v>
+        <v>19464.374946774482</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" si="12"/>
-        <v>5.5863332921679651E-2</v>
+        <v>5.5826352307582677E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8571,11 +8643,11 @@
       </c>
       <c r="C75" s="5">
         <f t="shared" si="11"/>
-        <v>19472.168547529807</v>
+        <v>19472.852933307284</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" si="12"/>
-        <v>4.7032843323779307E-2</v>
+        <v>4.69960446898567E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8587,11 +8659,11 @@
       </c>
       <c r="C76" s="5">
         <f t="shared" si="11"/>
-        <v>19480.6475601157</v>
+        <v>19481.334612548286</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" ref="D76:D81" si="13">(B76-C76)/C76</f>
-        <v>2.1013287090230016E-2</v>
+        <v>2.0977278794261114E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8603,11 +8675,11 @@
       </c>
       <c r="C77" s="5">
         <f t="shared" si="11"/>
-        <v>19489.130264825195</v>
+        <v>19489.819986105766</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="13"/>
-        <v>2.7906311250656689E-2</v>
+        <v>2.7869934883003836E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8619,11 +8691,11 @@
       </c>
       <c r="C78" s="5">
         <f t="shared" si="11"/>
-        <v>19514.60054777635</v>
+        <v>19515.298288772156</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="13"/>
-        <v>2.3028882970133766E-2</v>
+        <v>2.2992306066159315E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8635,11 +8707,11 @@
       </c>
       <c r="C79" s="5">
         <f t="shared" si="11"/>
-        <v>19523.098037064614</v>
+        <v>19523.798455693945</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="13"/>
-        <v>3.6106050463770106E-2</v>
+        <v>3.6068880033981364E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8651,11 +8723,11 @@
       </c>
       <c r="C80" s="5">
         <f t="shared" si="11"/>
-        <v>19531.599226522023</v>
+        <v>19532.302324984845</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" si="13"/>
-        <v>6.3968175825633966E-2</v>
+        <v>6.3929876480453465E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8667,11 +8739,11 @@
       </c>
       <c r="C81" s="5">
         <f t="shared" si="11"/>
-        <v>19540.104117759929</v>
+        <v>19540.809898257485</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" si="13"/>
-        <v>7.9932833153149349E-2</v>
+        <v>7.9893827833703635E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8683,11 +8755,11 @@
       </c>
       <c r="C82" s="5">
         <f t="shared" si="11"/>
-        <v>19548.612712390244</v>
+        <v>19549.321177125257</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" ref="D82:D87" si="14">(B82-C82)/C82</f>
-        <v>8.0230106897339323E-2</v>
+        <v>8.0190959505493736E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8699,11 +8771,11 @@
       </c>
       <c r="C83" s="5">
         <f t="shared" si="11"/>
-        <v>19574.160732764751</v>
+        <v>19574.877263442544</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="14"/>
-        <v>7.8309322589216496E-2</v>
+        <v>7.8269851500872636E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8715,11 +8787,11 @@
       </c>
       <c r="C84" s="5">
         <f t="shared" si="11"/>
-        <v>19582.68415709753</v>
+        <v>19583.403380837761</v>
       </c>
       <c r="D84" s="7">
         <f t="shared" si="14"/>
-        <v>7.6001626281811119E-2</v>
+        <v>7.5962108844565973E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8731,11 +8803,11 @@
       </c>
       <c r="C85" s="5">
         <f t="shared" si="11"/>
-        <v>19591.211292892753</v>
+        <v>19591.933211905194</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="14"/>
-        <v>7.374677785397496E-2</v>
+        <v>7.370721268166161E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8747,11 +8819,11 @@
       </c>
       <c r="C86" s="5">
         <f t="shared" si="11"/>
-        <v>19599.742141766539</v>
+        <v>19600.466758262388</v>
       </c>
       <c r="D86" s="7">
         <f t="shared" si="14"/>
-        <v>6.6187496184913486E-2</v>
+        <v>6.6148079927283929E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8763,11 +8835,11 @@
       </c>
       <c r="C87" s="5">
         <f t="shared" si="11"/>
-        <v>19608.276705335731</v>
+        <v>19609.004021527726</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" si="14"/>
-        <v>4.0071001978999043E-2</v>
+        <v>4.003242477845724E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8779,11 +8851,11 @@
       </c>
       <c r="C88" s="5">
         <f t="shared" si="11"/>
-        <v>19633.902700394607</v>
+        <v>19634.638128964416</v>
       </c>
       <c r="D88" s="7">
         <f t="shared" ref="D88:D98" si="15">(B88-C88)/C88</f>
-        <v>4.6098695374873308E-2</v>
+        <v>4.6059513045035298E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8795,11 +8867,11 @@
       </c>
       <c r="C89" s="5">
         <f t="shared" si="11"/>
-        <v>19642.452138927885</v>
+        <v>19643.190276058293</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" si="15"/>
-        <v>5.3076258182957123E-2</v>
+        <v>5.303668646999242E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8811,11 +8883,11 @@
       </c>
       <c r="C90" s="5">
         <f t="shared" si="11"/>
-        <v>19651.005300251232</v>
+        <v>19651.746148161921</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" si="15"/>
-        <v>5.1701919786046699E-2</v>
+        <v>5.1662271850231395E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8827,11 +8899,11 @@
       </c>
       <c r="C91" s="5">
         <f t="shared" si="11"/>
-        <v>19659.562185985767</v>
+        <v>19660.305746897855</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="15"/>
-        <v>5.500823486217464E-2</v>
+        <v>5.4968334013455758E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8843,11 +8915,11 @@
       </c>
       <c r="C92" s="5">
         <f t="shared" si="11"/>
-        <v>19668.122797753269</v>
+        <v>19668.86907388928</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" si="15"/>
-        <v>5.6328568498325939E-2</v>
+        <v>5.6288489284849266E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8859,11 +8931,11 @@
       </c>
       <c r="C93" s="5">
         <f t="shared" si="11"/>
-        <v>19693.827005481806</v>
+        <v>19694.581440639071</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" si="15"/>
-        <v>5.6422400491732638E-2</v>
+        <v>5.6381932396370696E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8875,11 +8947,11 @@
       </c>
       <c r="C94" s="5">
         <f t="shared" si="11"/>
-        <v>19702.402537612954</v>
+        <v>19703.159696898496</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="15"/>
-        <v>6.1951706653889514E-2</v>
+        <v>6.1910897636053827E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8891,11 +8963,11 @@
       </c>
       <c r="C95" s="5">
         <f t="shared" si="11"/>
-        <v>19710.981803896571</v>
+        <v>19711.741689540031</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="15"/>
-        <v>5.2458989937224663E-2</v>
+        <v>5.2418417749876663E-2</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8907,11 +8979,11 @@
       </c>
       <c r="C96" s="5">
         <f t="shared" si="11"/>
-        <v>19728.151545425597</v>
+        <v>19728.916890479541</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" si="15"/>
-        <v>6.0920479640834774E-2</v>
+        <v>6.08793232891593E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8923,11 +8995,11 @@
       </c>
       <c r="C97" s="5">
         <f t="shared" si="11"/>
-        <v>19753.934204535442</v>
+        <v>19754.707755463111</v>
       </c>
       <c r="D97" s="7">
         <f t="shared" si="15"/>
-        <v>7.143214009190034E-2</v>
+        <v>7.1390185164692047E-2</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8939,11 +9011,11 @@
       </c>
       <c r="C98" s="5">
         <f t="shared" si="11"/>
-        <v>19762.53590990436</v>
+        <v>19763.312200597786</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" si="15"/>
-        <v>7.4204246700986104E-2</v>
+        <v>7.4162052621821226E-2</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8955,11 +9027,11 @@
       </c>
       <c r="C99" s="5">
         <f t="shared" si="11"/>
-        <v>19771.14136082269</v>
+        <v>19771.920393521512</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" ref="D99:D104" si="16">(B99-C99)/C99</f>
-        <v>8.7038912310204816E-2</v>
+        <v>8.6996081930518554E-2</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8971,11 +9043,11 @@
       </c>
       <c r="C100" s="5">
         <f t="shared" si="11"/>
-        <v>19779.750558921191</v>
+        <v>19780.532335866552</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="16"/>
-        <v>8.3178472659593702E-2</v>
+        <v>8.3135662691527196E-2</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8987,11 +9059,11 @@
       </c>
       <c r="C101" s="5">
         <f t="shared" si="11"/>
-        <v>19788.36350583176</v>
+        <v>19789.148029266093</v>
       </c>
       <c r="D101" s="7">
         <f t="shared" si="16"/>
-        <v>9.2662361575673285E-2</v>
+        <v>9.261904393374136E-2</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9003,11 +9075,11 @@
       </c>
       <c r="C102" s="5">
         <f t="shared" si="11"/>
-        <v>19814.224855762986</v>
+        <v>19815.017632133666</v>
       </c>
       <c r="D102" s="7">
         <f t="shared" si="16"/>
-        <v>8.2101376969276926E-2</v>
+        <v>8.2058083321082054E-2</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9019,11 +9091,11 @@
       </c>
       <c r="C103" s="5">
         <f t="shared" si="11"/>
-        <v>19822.852814252572</v>
+        <v>19823.648346096576</v>
       </c>
       <c r="D103" s="7">
         <f t="shared" si="16"/>
-        <v>7.7947770698094054E-2</v>
+        <v>7.7904512173588819E-2</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9035,11 +9107,11 @@
       </c>
       <c r="C104" s="5">
         <f t="shared" si="11"/>
-        <v>19831.484529723231</v>
+        <v>19832.282819290234</v>
       </c>
       <c r="D104" s="7">
         <f t="shared" si="16"/>
-        <v>9.7446838504718775E-2</v>
+        <v>9.7402664045857873E-2</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9051,11 +9123,11 @@
       </c>
       <c r="C105" s="5">
         <f t="shared" si="11"/>
-        <v>19840.120003810978</v>
+        <v>19840.921053352093</v>
       </c>
       <c r="D105" s="7">
         <f t="shared" ref="D105:D110" si="17">(B105-C105)/C105</f>
-        <v>8.9459136126600794E-2</v>
+        <v>8.9415150732036167E-2</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9067,11 +9139,11 @@
       </c>
       <c r="C106" s="5">
         <f t="shared" si="11"/>
-        <v>19848.759238152332</v>
+        <v>19849.563049920114</v>
       </c>
       <c r="D106" s="7">
         <f t="shared" si="17"/>
-        <v>9.7297807821434504E-2</v>
+        <v>9.7253372541500599E-2</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9083,11 +9155,11 @@
       </c>
       <c r="C107" s="5">
         <f t="shared" si="11"/>
-        <v>19874.69951907581</v>
+        <v>19875.511631053345</v>
       </c>
       <c r="D107" s="7">
         <f t="shared" si="17"/>
-        <v>0.11181555116298579</v>
+        <v>0.11177012245942987</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9099,11 +9171,11 @@
       </c>
       <c r="C108" s="5">
         <f t="shared" si="11"/>
-        <v>19883.353810812776</v>
+        <v>19884.168694041568</v>
       </c>
       <c r="D108" s="7">
         <f t="shared" si="17"/>
-        <v>0.10650347065873897</v>
+        <v>0.10645812447732633</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9115,11 +9187,11 @@
       </c>
       <c r="C109" s="5">
         <f t="shared" si="11"/>
-        <v>19892.01187099743</v>
+        <v>19892.829527737231</v>
       </c>
       <c r="D109" s="7">
         <f t="shared" si="17"/>
-        <v>6.6206884328414234E-2</v>
+        <v>6.6163059932102128E-2</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9131,11 +9203,11 @@
       </c>
       <c r="C110" s="5">
         <f t="shared" si="11"/>
-        <v>19900.673701270713</v>
+        <v>19901.494133782719</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="17"/>
-        <v>6.0818358056491557E-2</v>
+        <v>6.0774626170612453E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9147,11 +9219,11 @@
       </c>
       <c r="C111" s="5">
         <f t="shared" si="11"/>
-        <v>19909.339303274359</v>
+        <v>19910.162513821204</v>
       </c>
       <c r="D111" s="7">
         <f t="shared" ref="D111:D116" si="18">(B111-C111)/C111</f>
-        <v>6.9297161282430769E-2</v>
+        <v>6.9252949855212728E-2</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9163,11 +9235,11 @@
       </c>
       <c r="C112" s="5">
         <f t="shared" si="11"/>
-        <v>19935.358756094181</v>
+        <v>19936.190314335825</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="18"/>
-        <v>7.8636219347023043E-2</v>
+        <v>7.8591228362096088E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9179,11 +9251,11 @@
       </c>
       <c r="C113" s="5">
         <f t="shared" si="11"/>
-        <v>19944.039461449716</v>
+        <v>19944.873806791267</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" si="18"/>
-        <v>9.2958126267943156E-2</v>
+        <v>9.2912405019967573E-2</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9195,11 +9267,11 @@
       </c>
       <c r="C114" s="5">
         <f t="shared" si="11"/>
-        <v>19961.412213654792</v>
+        <v>19962.25214000708</v>
       </c>
       <c r="D114" s="7">
         <f t="shared" si="18"/>
-        <v>9.050400678111313E-2</v>
+        <v>9.0458123027809798E-2</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9211,11 +9283,11 @@
       </c>
       <c r="C115" s="5">
         <f t="shared" si="11"/>
-        <v>19970.104263796955</v>
+        <v>19970.94698406303</v>
       </c>
       <c r="D115" s="7">
         <f t="shared" si="18"/>
-        <v>7.52572804002625E-2</v>
+        <v>7.5211907434115169E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9227,11 +9299,11 @@
       </c>
       <c r="C116" s="5">
         <f t="shared" si="11"/>
-        <v>19996.2031301522</v>
+        <v>19997.054245810741</v>
       </c>
       <c r="D116" s="7">
         <f t="shared" si="18"/>
-        <v>6.0051243830241088E-2</v>
+        <v>6.0006125874296712E-2</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9243,11 +9315,11 @@
       </c>
       <c r="C117" s="5">
         <f t="shared" si="11"/>
-        <v>20004.910329743081</v>
+        <v>20005.764248420979</v>
       </c>
       <c r="D117" s="7">
         <f t="shared" ref="D117:D122" si="19">(B117-C117)/C117</f>
-        <v>5.034212369148134E-2</v>
+        <v>5.029729127486051E-2</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9259,11 +9331,11 @@
       </c>
       <c r="C118" s="5">
         <f t="shared" si="11"/>
-        <v>20022.336105033675</v>
+        <v>20023.195636591961</v>
       </c>
       <c r="D118" s="7">
         <f t="shared" si="19"/>
-        <v>4.7630001312712493E-2</v>
+        <v>4.7585029917342918E-2</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9275,11 +9347,11 @@
       </c>
       <c r="C119" s="5">
         <f t="shared" si="11"/>
-        <v>20031.0546840362</v>
+        <v>20031.917025458279</v>
       </c>
       <c r="D119" s="7">
         <f t="shared" si="19"/>
-        <v>6.4646886366687903E-2</v>
+        <v>6.4601055051151102E-2</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9291,11 +9363,11 @@
       </c>
       <c r="C120" s="5">
         <f t="shared" si="11"/>
-        <v>20057.233206303732</v>
+        <v>20058.103991029358</v>
       </c>
       <c r="D120" s="7">
         <f t="shared" si="19"/>
-        <v>7.4923932839548762E-2</v>
+        <v>7.4877267045895202E-2</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9307,11 +9379,11 @@
       </c>
       <c r="C121" s="5">
         <f t="shared" si="11"/>
-        <v>20065.966980992354</v>
+        <v>20066.840584728077</v>
       </c>
       <c r="D121" s="7">
         <f t="shared" si="19"/>
-        <v>5.516968208191967E-2</v>
+        <v>5.5123745594200226E-2</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9323,11 +9395,11 @@
       </c>
       <c r="C122" s="5">
         <f t="shared" si="11"/>
-        <v>20074.704558739002</v>
+        <v>20075.580983775046</v>
       </c>
       <c r="D122" s="7">
         <f t="shared" si="19"/>
-        <v>5.5108927656890516E-2</v>
+        <v>5.5062865533921368E-2</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9339,11 +9411,11 @@
       </c>
       <c r="C123" s="5">
         <f t="shared" si="11"/>
-        <v>20092.191130030802</v>
+        <v>20093.073204543984</v>
       </c>
       <c r="D123" s="7">
         <f t="shared" ref="D123:D129" si="20">(B123-C123)/C123</f>
-        <v>3.7617045601339515E-2</v>
+        <v>3.7571494801765422E-2</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9355,11 +9427,11 @@
       </c>
       <c r="C124" s="5">
         <f t="shared" si="11"/>
-        <v>20118.449551326947</v>
+        <v>20119.340117269105</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="20"/>
-        <v>3.3131303034685887E-2</v>
+        <v>3.3085572332441318E-2</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9371,11 +9443,11 @@
       </c>
       <c r="C125" s="5">
         <f t="shared" si="11"/>
-        <v>20127.209982222794</v>
+        <v>20128.103383237289</v>
       </c>
       <c r="D125" s="7">
         <f t="shared" si="20"/>
-        <v>3.1290477832420067E-2</v>
+        <v>3.1244703228544488E-2</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9387,11 +9459,11 @@
       </c>
       <c r="C126" s="5">
         <f t="shared" si="11"/>
-        <v>20135.974227783918</v>
+        <v>20136.870466171211</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="20"/>
-        <v>5.4729200571556683E-2</v>
+        <v>5.4682257388436982E-2</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9403,11 +9475,11 @@
       </c>
       <c r="C127" s="5">
         <f t="shared" si="11"/>
-        <v>20144.742289671245</v>
+        <v>20145.64136773326</v>
       </c>
       <c r="D127" s="7">
         <f t="shared" si="20"/>
-        <v>4.6972936993784568E-2</v>
+        <v>4.6926211730389265E-2</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9419,11 +9491,11 @@
       </c>
       <c r="C128" s="5">
         <f t="shared" si="11"/>
-        <v>20153.514169546634</v>
+        <v>20154.416089586764</v>
       </c>
       <c r="D128" s="7">
         <f t="shared" si="20"/>
-        <v>6.3883937045522671E-2</v>
+        <v>6.3836327715689978E-2</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9435,11 +9507,11 @@
       </c>
       <c r="C129" s="5">
         <f t="shared" ref="C129:C183" si="21">Var_1 * EXP((A129 * 0.0001) * Var_2)</f>
-        <v>20188.639902189985</v>
+        <v>20189.553213205952</v>
       </c>
       <c r="D129" s="7">
         <f t="shared" si="20"/>
-        <v>6.8274044437262746E-2</v>
+        <v>6.8225719125525858E-2</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9451,11 +9523,11 @@
       </c>
       <c r="C130" s="5">
         <f t="shared" si="21"/>
-        <v>20197.4308969579</v>
+        <v>20198.347061490982</v>
       </c>
       <c r="D130" s="7">
         <f t="shared" ref="D130:D140" si="22">(B130-C130)/C130</f>
-        <v>8.1969291613789311E-2</v>
+        <v>8.192021522710069E-2</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9467,11 +9539,11 @@
       </c>
       <c r="C131" s="5">
         <f t="shared" si="21"/>
-        <v>20206.225719699905</v>
+        <v>20207.144740062311</v>
       </c>
       <c r="D131" s="7">
         <f t="shared" si="22"/>
-        <v>8.3873866589928639E-2</v>
+        <v>8.3824572037606224E-2</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9483,11 +9555,11 @@
       </c>
       <c r="C132" s="5">
         <f t="shared" si="21"/>
-        <v>20215.02437208272</v>
+        <v>20215.946250588135</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" si="22"/>
-        <v>7.7119651167487618E-2</v>
+        <v>7.7070532840704281E-2</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9499,11 +9571,11 @@
       </c>
       <c r="C133" s="5">
         <f t="shared" si="21"/>
-        <v>20241.443323756041</v>
+        <v>20242.373790587408</v>
       </c>
       <c r="D133" s="7">
         <f t="shared" si="22"/>
-        <v>4.3749680399748976E-2</v>
+        <v>4.3701703098869692E-2</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9515,11 +9587,11 @@
       </c>
       <c r="C134" s="5">
         <f t="shared" si="21"/>
-        <v>20250.257311385536</v>
+        <v>20251.190645629391</v>
       </c>
       <c r="D134" s="7">
         <f t="shared" si="22"/>
-        <v>5.9887766854824588E-2</v>
+        <v>5.9838918885104744E-2</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9531,11 +9603,11 @@
       </c>
       <c r="C135" s="5">
         <f t="shared" si="21"/>
-        <v>20259.07513700112</v>
+        <v>20260.011340978526</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" si="22"/>
-        <v>5.6909057062194353E-2</v>
+        <v>5.6860217876158137E-2</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9547,11 +9619,11 @@
       </c>
       <c r="C136" s="5">
         <f t="shared" si="21"/>
-        <v>20267.896802274088</v>
+        <v>20268.835878307586</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="22"/>
-        <v>6.1185588708285228E-2</v>
+        <v>6.1136422887444225E-2</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9563,11 +9635,11 @@
       </c>
       <c r="C137" s="5">
         <f t="shared" si="21"/>
-        <v>20276.722308876178</v>
+        <v>20277.664259289853</v>
       </c>
       <c r="D137" s="7">
         <f t="shared" si="22"/>
-        <v>5.9244175307266486E-2</v>
+        <v>5.9194970651525312E-2</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9579,11 +9651,11 @@
       </c>
       <c r="C138" s="5">
         <f t="shared" si="21"/>
-        <v>20303.221893388745</v>
+        <v>20304.172480901649</v>
       </c>
       <c r="D138" s="7">
         <f t="shared" si="22"/>
-        <v>4.8996071255822719E-2</v>
+        <v>4.8946960041496769E-2</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9595,11 +9667,11 @@
       </c>
       <c r="C139" s="5">
         <f t="shared" si="21"/>
-        <v>20312.06278204203</v>
+        <v>20313.016253245918</v>
       </c>
       <c r="D139" s="7">
         <f t="shared" si="22"/>
-        <v>6.178285442616218E-2</v>
+        <v>6.1733015477388874E-2</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9611,11 +9683,11 @@
       </c>
       <c r="C140" s="5">
         <f t="shared" si="21"/>
-        <v>20320.907520395263</v>
+        <v>20321.863877621552</v>
       </c>
       <c r="D140" s="7">
         <f t="shared" si="22"/>
-        <v>6.5798856584665402E-2</v>
+        <v>6.5748699549641298E-2</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9627,11 +9699,11 @@
       </c>
       <c r="C141" s="5">
         <f t="shared" si="21"/>
-        <v>20329.756110124763</v>
+        <v>20330.715355706365</v>
       </c>
       <c r="D141" s="7">
         <f t="shared" ref="D141:D147" si="23">(B141-C141)/C141</f>
-        <v>7.1040886179444374E-2</v>
+        <v>7.0990352235123802E-2</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9643,11 +9715,11 @@
       </c>
       <c r="C142" s="5">
         <f t="shared" si="21"/>
-        <v>20338.608552907652</v>
+        <v>20339.57068917896</v>
       </c>
       <c r="D142" s="7">
         <f t="shared" si="23"/>
-        <v>5.6660289424155318E-2</v>
+        <v>5.6610305518081695E-2</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9659,11 +9731,11 @@
       </c>
       <c r="C143" s="5">
         <f t="shared" si="21"/>
-        <v>20365.189016357454</v>
+        <v>20366.159838719148</v>
       </c>
       <c r="D143" s="7">
         <f t="shared" si="23"/>
-        <v>6.8342649927021784E-2</v>
+        <v>6.8291723736580656E-2</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9675,11 +9747,11 @@
       </c>
       <c r="C144" s="5">
         <f t="shared" si="21"/>
-        <v>20374.056888138774</v>
+        <v>20375.030610542603</v>
       </c>
       <c r="D144" s="7">
         <f t="shared" si="23"/>
-        <v>6.4785482788637036E-2</v>
+        <v>6.4734596706565256E-2</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9691,11 +9763,11 @@
       </c>
       <c r="C145" s="5">
         <f t="shared" si="21"/>
-        <v>20382.92862136957</v>
+        <v>20383.905246157356</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="23"/>
-        <v>6.5548548172301657E-2</v>
+        <v>6.5497496074474151E-2</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9707,11 +9779,11 @@
       </c>
       <c r="C146" s="5">
         <f t="shared" si="21"/>
-        <v>20391.804217731355</v>
+        <v>20392.783747246416</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="23"/>
-        <v>8.0385029434683855E-2</v>
+        <v>8.0333135145160744E-2</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9723,11 +9795,11 @@
       </c>
       <c r="C147" s="5">
         <f t="shared" si="21"/>
-        <v>20400.683678906298</v>
+        <v>20401.666115493448</v>
       </c>
       <c r="D147" s="7">
         <f t="shared" si="23"/>
-        <v>8.4032297548255905E-2</v>
+        <v>8.3980096272892657E-2</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9739,11 +9811,11 @@
       </c>
       <c r="C148" s="5">
         <f t="shared" si="21"/>
-        <v>20436.240205406903</v>
+        <v>20437.234293760383</v>
       </c>
       <c r="D148" s="7">
         <f t="shared" ref="D148:D153" si="24">(B148-C148)/C148</f>
-        <v>8.4592849624840094E-2</v>
+        <v>8.454009389945269E-2</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9755,11 +9827,11 @@
       </c>
       <c r="C149" s="5">
         <f t="shared" si="21"/>
-        <v>20445.139015905876</v>
+        <v>20446.136023077866</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="24"/>
-        <v>8.4658802405185515E-2</v>
+        <v>8.4605911599610298E-2</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9771,11 +9843,11 @@
       </c>
       <c r="C150" s="5">
         <f t="shared" si="21"/>
-        <v>20454.041701326361</v>
+        <v>20455.041629670704</v>
       </c>
       <c r="D150" s="7">
         <f t="shared" si="24"/>
-        <v>7.8906571241075543E-2</v>
+        <v>7.8853829756554833E-2</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9787,11 +9859,11 @@
       </c>
       <c r="C151" s="5">
         <f t="shared" si="21"/>
-        <v>20462.948263355811</v>
+        <v>20463.951115227701</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="24"/>
-        <v>5.6250532515172522E-2</v>
+        <v>5.6198770134694126E-2</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9803,11 +9875,11 @@
       </c>
       <c r="C152" s="5">
         <f t="shared" si="21"/>
-        <v>20489.691225981664</v>
+        <v>20490.702862582766</v>
       </c>
       <c r="D152" s="7">
         <f t="shared" si="24"/>
-        <v>4.2085005796714883E-2</v>
+        <v>4.2033557520860514E-2</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9819,11 +9891,11 @@
       </c>
       <c r="C153" s="5">
         <f t="shared" si="21"/>
-        <v>20498.61331133444</v>
+        <v>20499.627880899134</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="24"/>
-        <v>2.8703731307532832E-2</v>
+        <v>2.8652818603022542E-2</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9835,11 +9907,11 @@
       </c>
       <c r="C154" s="5">
         <f t="shared" si="21"/>
-        <v>20507.539281743735</v>
+        <v>20508.556786634788</v>
       </c>
       <c r="D154" s="7">
         <f t="shared" ref="D154:D157" si="25">(B154-C154)/C154</f>
-        <v>3.0499062304030981E-2</v>
+        <v>3.0447935457464995E-2</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9851,11 +9923,11 @@
       </c>
       <c r="C155" s="5">
         <f t="shared" si="21"/>
-        <v>20516.469138901131</v>
+        <v>20517.489581482794</v>
       </c>
       <c r="D155" s="7">
         <f t="shared" si="25"/>
-        <v>1.6830801082333854E-3</v>
+        <v>1.633261144552951E-3</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9867,11 +9939,11 @@
       </c>
       <c r="C156" s="5">
         <f t="shared" si="21"/>
-        <v>20525.402884499152</v>
+        <v>20526.426267137198</v>
       </c>
       <c r="D156" s="7">
         <f t="shared" si="25"/>
-        <v>1.7470892898850818E-2</v>
+        <v>1.7420165020896862E-2</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9883,11 +9955,11 @@
       </c>
       <c r="C157" s="5">
         <f t="shared" si="21"/>
-        <v>20552.227468872567</v>
+        <v>20553.259685889465</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="25"/>
-        <v>-6.141790181319504E-3</v>
+        <v>-6.1917033032396866E-3</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9899,11 +9971,11 @@
       </c>
       <c r="C158" s="5">
         <f t="shared" si="21"/>
-        <v>20561.176785172385</v>
+        <v>20562.211951723773</v>
       </c>
       <c r="D158" s="7">
         <f t="shared" ref="D158:D162" si="26">(B158-C158)/C158</f>
-        <v>-1.0124750511483914E-2</v>
+        <v>-1.0174583951131518E-2</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9915,11 +9987,11 @@
       </c>
       <c r="C159" s="5">
         <f t="shared" si="21"/>
-        <v>20570.129998386168</v>
+        <v>20571.168116845336</v>
       </c>
       <c r="D159" s="7">
         <f t="shared" si="26"/>
-        <v>2.8619168482868361E-3</v>
+        <v>2.8113076917254168E-3</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9931,11 +10003,11 @@
       </c>
       <c r="C160" s="5">
         <f t="shared" si="21"/>
-        <v>20579.087110210872</v>
+        <v>20580.12818295262</v>
       </c>
       <c r="D160" s="7">
         <f t="shared" si="26"/>
-        <v>-2.5564161684793092E-2</v>
+        <v>-2.5613454798073705E-2</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9947,11 +10019,11 @@
       </c>
       <c r="C161" s="5">
         <f t="shared" si="21"/>
-        <v>20588.048122343975</v>
+        <v>20589.092151744604</v>
       </c>
       <c r="D161" s="7">
         <f t="shared" si="26"/>
-        <v>-1.8799651139532539E-2</v>
+        <v>-1.8849405737965931E-2</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9963,11 +10035,11 @@
       </c>
       <c r="C162" s="5">
         <f t="shared" si="21"/>
-        <v>20614.954577581466</v>
+        <v>20616.0074912317</v>
       </c>
       <c r="D162" s="7">
         <f t="shared" si="26"/>
-        <v>-5.7431830525059867E-2</v>
+        <v>-5.747996995711712E-2</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9979,11 +10051,11 @@
       </c>
       <c r="C163" s="5">
         <f t="shared" si="21"/>
-        <v>20623.931207939375</v>
+        <v>20624.987087768895</v>
       </c>
       <c r="D163" s="7">
         <f t="shared" ref="D163:D178" si="27">(B163-C163)/C163</f>
-        <v>-6.0460403759461587E-2</v>
+        <v>-6.0508502742723229E-2</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9995,11 +10067,11 @@
       </c>
       <c r="C164" s="5">
         <f t="shared" si="21"/>
-        <v>20632.911747105023</v>
+        <v>20633.970595497631</v>
       </c>
       <c r="D164" s="7">
         <f t="shared" si="27"/>
-        <v>-5.0255231050969372E-2</v>
+        <v>-5.0303967949053771E-2</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10011,11 +10083,11 @@
       </c>
       <c r="C165" s="5">
         <f t="shared" si="21"/>
-        <v>20641.896196780479</v>
+        <v>20642.958016121622</v>
       </c>
       <c r="D165" s="7">
         <f t="shared" si="27"/>
-        <v>-6.8593320268770491E-2</v>
+        <v>-6.864122937299072E-2</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10027,11 +10099,11 @@
       </c>
       <c r="C166" s="5">
         <f t="shared" si="21"/>
-        <v>20650.884558668396</v>
+        <v>20651.949351344887</v>
       </c>
       <c r="D166" s="7">
         <f t="shared" si="27"/>
-        <v>-4.5803585603375663E-2</v>
+        <v>-4.5852782961779838E-2</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10043,11 +10115,11 @@
       </c>
       <c r="C167" s="5">
         <f t="shared" si="21"/>
-        <v>20677.873134646583</v>
+        <v>20678.946861665645</v>
       </c>
       <c r="D167" s="7">
         <f t="shared" si="27"/>
-        <v>-4.1874380842185296E-2</v>
+        <v>-4.1924130250210155E-2</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10059,11 +10131,11 @@
       </c>
       <c r="C168" s="5">
         <f t="shared" si="21"/>
-        <v>20686.877162427503</v>
+        <v>20687.953872344649</v>
       </c>
       <c r="D168" s="7">
         <f t="shared" si="27"/>
-        <v>-5.8195210082942948E-2</v>
+        <v>-5.8244226557147054E-2</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10075,11 +10147,11 @@
       </c>
       <c r="C169" s="5">
         <f t="shared" si="21"/>
-        <v>20695.885110946099</v>
+        <v>20696.964806155807</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="27"/>
-        <v>-4.6332162447062619E-2</v>
+        <v>-4.6381912282630409E-2</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10091,11 +10163,11 @@
       </c>
       <c r="C170" s="5">
         <f t="shared" si="21"/>
-        <v>20704.896981909555</v>
+        <v>20705.979664807899</v>
       </c>
       <c r="D170" s="7">
         <f t="shared" si="27"/>
-        <v>-4.9596816772707594E-2</v>
+        <v>-4.964651185063531E-2</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10107,11 +10179,11 @@
       </c>
       <c r="C171" s="5">
         <f t="shared" si="21"/>
-        <v>20713.912777026089</v>
+        <v>20714.998450010513</v>
       </c>
       <c r="D171" s="7">
         <f t="shared" si="27"/>
-        <v>-4.6341451147304903E-2</v>
+        <v>-4.6391432387967432E-2</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10123,11 +10195,11 @@
       </c>
       <c r="C172" s="5">
         <f t="shared" si="21"/>
-        <v>20740.983724384234</v>
+        <v>20742.07838202723</v>
       </c>
       <c r="D172" s="7">
         <f t="shared" si="27"/>
-        <v>-2.704711270395101E-2</v>
+        <v>-2.709846003254256E-2</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10139,11 +10211,11 @@
       </c>
       <c r="C173" s="5">
         <f t="shared" si="21"/>
-        <v>20750.015233207381</v>
+        <v>20751.112890541757</v>
       </c>
       <c r="D173" s="7">
         <f t="shared" si="27"/>
-        <v>-2.2265778025453833E-2</v>
+        <v>-2.2317496559562427E-2</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10155,11 +10227,11 @@
       </c>
       <c r="C174" s="5">
         <f t="shared" si="21"/>
-        <v>20759.050674734546</v>
+        <v>20760.151334165439</v>
       </c>
       <c r="D174" s="7">
         <f t="shared" si="27"/>
-        <v>-4.0563062730001924E-2</v>
+        <v>-4.0613930052515866E-2</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10171,11 +10243,11 @@
       </c>
       <c r="C175" s="5">
         <f t="shared" si="21"/>
-        <v>20768.090050678275</v>
+        <v>20769.193714612349</v>
       </c>
       <c r="D175" s="7">
         <f t="shared" si="27"/>
-        <v>-4.6662454193597096E-2</v>
+        <v>-4.6713114044950182E-2</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10187,11 +10259,11 @@
       </c>
       <c r="C176" s="5">
         <f t="shared" si="21"/>
-        <v>20777.133362751778</v>
+        <v>20778.240033597216</v>
       </c>
       <c r="D176" s="7">
         <f t="shared" si="27"/>
-        <v>-7.2008651849632552E-2</v>
+        <v>-7.2058077641622448E-2</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10203,11 +10275,11 @@
       </c>
       <c r="C177" s="5">
         <f t="shared" si="21"/>
-        <v>20804.286932894258</v>
+        <v>20805.402638938278</v>
       </c>
       <c r="D177" s="7">
         <f t="shared" si="27"/>
-        <v>-7.3315991930614208E-2</v>
+        <v>-7.3365686087783016E-2</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10219,11 +10291,11 @@
       </c>
       <c r="C178" s="5">
         <f t="shared" si="21"/>
-        <v>20813.346006633987</v>
+        <v>20814.46472923741</v>
       </c>
       <c r="D178" s="7">
         <f t="shared" si="27"/>
-        <v>-6.6176097115522678E-2</v>
+        <v>-6.6226287688346125E-2</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10235,11 +10307,11 @@
       </c>
       <c r="C179" s="5">
         <f t="shared" si="21"/>
-        <v>20822.409025080677</v>
+        <v>20823.530766659343</v>
       </c>
       <c r="D179" s="7">
         <f t="shared" ref="D179:D183" si="28">(B179-C179)/C179</f>
-        <v>-5.9570870190216653E-2</v>
+        <v>-5.962153011280702E-2</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10251,11 +10323,11 @@
       </c>
       <c r="C180" s="5">
         <f t="shared" si="21"/>
-        <v>20831.475989952094</v>
+        <v>20832.600752923368</v>
       </c>
       <c r="D180" s="7">
         <f t="shared" si="28"/>
-        <v>-0.11086473138370284</v>
+        <v>-0.11091273626021608</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10267,11 +10339,11 @@
       </c>
       <c r="C181" s="5">
         <f t="shared" si="21"/>
-        <v>20840.546902966682</v>
+        <v>20841.674689749467</v>
       </c>
       <c r="D181" s="7">
         <f t="shared" si="28"/>
-        <v>-0.16518505579508713</v>
+        <v>-0.16523022938474155</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10283,11 +10355,11 @@
       </c>
       <c r="C182" s="5">
         <f t="shared" si="21"/>
-        <v>20867.783348065183</v>
+        <v>20868.920220811324</v>
       </c>
       <c r="D182" s="7">
         <f t="shared" si="28"/>
-        <v>-0.16469326380963381</v>
+        <v>-0.164738768677782</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10299,11 +10371,11 @@
       </c>
       <c r="C183" s="5">
         <f t="shared" si="21"/>
-        <v>20876.870070851764</v>
+        <v>20878.009977100435</v>
       </c>
       <c r="D183" s="7">
         <f t="shared" si="28"/>
-        <v>-0.18139069975527525</v>
+        <v>-0.18143539452539906</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10315,11 +10387,11 @@
       </c>
       <c r="C184" s="5">
         <f t="shared" ref="C184:C190" si="29">Var_1 * EXP((A184 * 0.0001) * Var_2)</f>
-        <v>20885.960750385104</v>
+        <v>20887.103692562814</v>
       </c>
       <c r="D184" s="7">
         <f t="shared" ref="D184:D190" si="30">(B184-C184)/C184</f>
-        <v>-8.3355550227824843E-2</v>
+        <v>-8.3405709006132714E-2</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10331,11 +10403,11 @@
       </c>
       <c r="C185" s="5">
         <f t="shared" si="29"/>
-        <v>20895.055388387915</v>
+        <v>20896.201368922782</v>
       </c>
       <c r="D185" s="7">
         <f t="shared" si="30"/>
-        <v>-0.12208895075748984</v>
+        <v>-0.12213709677963114</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10347,11 +10419,11 @@
       </c>
       <c r="C186" s="5">
         <f t="shared" si="29"/>
-        <v>20904.153986583955</v>
+        <v>20905.303007905633</v>
       </c>
       <c r="D186" s="7">
         <f t="shared" si="30"/>
-        <v>-0.10591933010084854</v>
+        <v>-0.1059684715915328</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10363,11 +10435,11 @@
       </c>
       <c r="C187" s="5">
         <f t="shared" si="29"/>
-        <v>20931.47355957967</v>
+        <v>20932.631717855125</v>
       </c>
       <c r="D187" s="7">
         <f t="shared" si="30"/>
-        <v>-0.10202213205397247</v>
+        <v>-0.10207181527168513</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10379,11 +10451,11 @@
       </c>
       <c r="C188" s="5">
         <f t="shared" si="29"/>
-        <v>20940.588015800524</v>
+        <v>20941.749224596817</v>
       </c>
       <c r="D188" s="7">
         <f t="shared" si="30"/>
-        <v>-0.10078933859011024</v>
+        <v>-0.10083919934044926</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10395,11 +10467,11 @@
       </c>
       <c r="C189" s="5">
         <f t="shared" si="29"/>
-        <v>20949.7064408443</v>
+        <v>20950.870702598804</v>
       </c>
       <c r="D189" s="7">
         <f t="shared" si="30"/>
-        <v>-0.12848420804582028</v>
+        <v>-0.12853263908811069</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10411,11 +10483,11 @@
       </c>
       <c r="C190" s="5">
         <f t="shared" si="29"/>
-        <v>20958.828836439276</v>
+        <v>20959.996153590899</v>
       </c>
       <c r="D190" s="7">
         <f t="shared" si="30"/>
-        <v>-0.12886353801141701</v>
+        <v>-0.12891205388546736</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10427,11 +10499,11 @@
       </c>
       <c r="C191" s="5">
         <f t="shared" ref="C191:C207" si="31">Var_1 * EXP((A191 * 0.0001) * Var_2)</f>
-        <v>20967.955204314178</v>
+        <v>20969.125579303447</v>
       </c>
       <c r="D191" s="7">
         <f t="shared" ref="D191:D207" si="32">(B191-C191)/C191</f>
-        <v>-0.12623811804832374</v>
+        <v>-0.12628688636960381</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10443,11 +10515,11 @@
       </c>
       <c r="C192" s="5">
         <f t="shared" si="31"/>
-        <v>20995.358158920368</v>
+        <v>20996.537722080546</v>
       </c>
       <c r="D192" s="7">
         <f t="shared" si="32"/>
-        <v>-0.15181251659506195</v>
+        <v>-0.15186016686586334</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10459,11 +10531,11 @@
       </c>
       <c r="C193" s="5">
         <f t="shared" si="31"/>
-        <v>21004.500433220157</v>
+        <v>21005.683063995199</v>
       </c>
       <c r="D193" s="7">
         <f t="shared" si="32"/>
-        <v>-0.1299007535025605</v>
+        <v>-0.12994974053826477</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10475,11 +10547,11 @@
       </c>
       <c r="C194" s="5">
         <f t="shared" si="31"/>
-        <v>21013.646688456058</v>
+        <v>21014.832389294152</v>
       </c>
       <c r="D194" s="7">
         <f t="shared" si="32"/>
-        <v>-0.11043521968659135</v>
+        <v>-0.11048541079380636</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10491,11 +10563,11 @@
       </c>
       <c r="C195" s="5">
         <f t="shared" si="31"/>
-        <v>21022.796926361611</v>
+        <v>21023.985699712503</v>
       </c>
       <c r="D195" s="7">
         <f t="shared" si="32"/>
-        <v>-8.603978493905648E-2</v>
+        <v>-8.6091463605649884E-2</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10507,11 +10579,11 @@
       </c>
       <c r="C196" s="5">
         <f t="shared" si="31"/>
-        <v>21031.951148670883</v>
+        <v>21033.142996985873</v>
       </c>
       <c r="D196" s="7">
         <f t="shared" si="32"/>
-        <v>-7.6024860335981201E-2</v>
+        <v>-7.6077217618649731E-2</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10523,11 +10595,11 @@
       </c>
       <c r="C197" s="5">
         <f t="shared" si="31"/>
-        <v>21059.437739375091</v>
+        <v>21060.638827305811</v>
       </c>
       <c r="D197" s="7">
         <f t="shared" si="32"/>
-        <v>-7.7515732356087649E-2</v>
+        <v>-7.7568341620660841E-2</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10539,11 +10611,11 @@
       </c>
       <c r="C198" s="5">
         <f t="shared" si="31"/>
-        <v>21068.607916656918</v>
+        <v>21069.812089372452</v>
       </c>
       <c r="D198" s="7">
         <f t="shared" si="32"/>
-        <v>-7.2316496784410142E-2</v>
+        <v>-7.2369515347579308E-2</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10555,11 +10627,11 @@
       </c>
       <c r="C199" s="5">
         <f t="shared" si="31"/>
-        <v>21077.782087025003</v>
+        <v>21078.989346984414</v>
       </c>
       <c r="D199" s="7">
         <f t="shared" si="32"/>
-        <v>-7.1486747552653732E-2</v>
+        <v>-7.1539926424420752E-2</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10571,11 +10643,11 @@
       </c>
       <c r="C200" s="5">
         <f t="shared" si="31"/>
-        <v>21086.960252218101</v>
+        <v>21088.170601882015</v>
       </c>
       <c r="D200" s="7">
         <f t="shared" si="32"/>
-        <v>-6.1647588683691884E-2</v>
+        <v>-6.1701445158352998E-2</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10587,11 +10659,11 @@
       </c>
       <c r="C201" s="5">
         <f t="shared" si="31"/>
-        <v>21096.142413975806</v>
+        <v>21097.355855806403</v>
       </c>
       <c r="D201" s="7">
         <f t="shared" si="32"/>
-        <v>-4.7076967650629201E-2</v>
+        <v>-4.7131776256821169E-2</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10603,11 +10675,11 @@
       </c>
       <c r="C202" s="5">
         <f t="shared" si="31"/>
-        <v>21123.712896042431</v>
+        <v>21124.935629161755</v>
       </c>
       <c r="D202" s="7">
         <f t="shared" si="32"/>
-        <v>-5.4711636241702367E-2</v>
+        <v>-5.4766350509711008E-2</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10619,11 +10691,11 @@
       </c>
       <c r="C203" s="5">
         <f t="shared" si="31"/>
-        <v>21132.911061468589</v>
+        <v>21134.136896618918</v>
       </c>
       <c r="D203" s="7">
         <f t="shared" si="32"/>
-        <v>-6.3498637625711715E-2</v>
+        <v>-6.3552957151223721E-2</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10635,11 +10707,11 @@
       </c>
       <c r="C204" s="5">
         <f t="shared" si="31"/>
-        <v>21142.113232168165</v>
+        <v>21143.342171819473</v>
       </c>
       <c r="D204" s="7">
         <f t="shared" si="32"/>
-        <v>-6.0264232727198504E-2</v>
+        <v>-6.0318854108093199E-2</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10651,11 +10723,11 @@
       </c>
       <c r="C205" s="5">
         <f t="shared" si="31"/>
-        <v>21151.319409885218</v>
+        <v>21152.551456509133</v>
       </c>
       <c r="D205" s="7">
         <f t="shared" si="32"/>
-        <v>-5.1406694249865652E-2</v>
+        <v>-5.1461945796338435E-2</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10667,11 +10739,11 @@
       </c>
       <c r="C206" s="5">
         <f t="shared" si="31"/>
-        <v>21160.529596364722</v>
+        <v>21161.764752434283</v>
       </c>
       <c r="D206" s="7">
         <f t="shared" si="32"/>
-        <v>-5.191408803650379E-2</v>
+        <v>-5.1969425296053091E-2</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10683,11 +10755,11 @@
       </c>
       <c r="C207" s="5">
         <f t="shared" si="31"/>
-        <v>21188.184225837264</v>
+        <v>21189.428725098056</v>
       </c>
       <c r="D207" s="7">
         <f t="shared" si="32"/>
-        <v>-1.5111451855644381E-2</v>
+        <v>-1.5169296410399973E-2</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10699,11 +10771,11 @@
       </c>
       <c r="C208" s="5">
         <f t="shared" ref="C208:C212" si="33">Var_1 * EXP((A208 * 0.0001) * Var_2)</f>
-        <v>21197.410464829831</v>
+        <v>21198.658083444363</v>
       </c>
       <c r="D208" s="7">
         <f t="shared" ref="D208:D212" si="34">(B208-C208)/C208</f>
-        <v>2.7811659879276149E-5</v>
+        <v>-3.1043636902514514E-5</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10715,11 +10787,11 @@
       </c>
       <c r="C209" s="5">
         <f t="shared" si="33"/>
-        <v>21206.640721320236</v>
+        <v>21207.891461769446</v>
       </c>
       <c r="D209" s="7">
         <f t="shared" si="34"/>
-        <v>5.2983063256596963E-3</v>
+        <v>5.2390186186516592E-3</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10731,11 +10803,11 @@
       </c>
       <c r="C210" s="5">
         <f t="shared" si="33"/>
-        <v>21215.874997057948</v>
+        <v>21217.128861824352</v>
       </c>
       <c r="D210" s="7">
         <f t="shared" si="34"/>
-        <v>5.6620338759871868E-3</v>
+        <v>5.6026024515282305E-3</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10747,11 +10819,11 @@
       </c>
       <c r="C211" s="5">
         <f t="shared" si="33"/>
-        <v>21225.113293793114</v>
+        <v>21226.370285360794</v>
       </c>
       <c r="D211" s="7">
         <f t="shared" si="34"/>
-        <v>9.5588043935773068E-3</v>
+        <v>9.4990199421077816E-3</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10763,11 +10835,11 @@
       </c>
       <c r="C212" s="5">
         <f t="shared" si="33"/>
-        <v>21252.852327496304</v>
+        <v>21254.118714388096</v>
       </c>
       <c r="D212" s="7">
         <f t="shared" si="34"/>
-        <v>9.1351348756379888E-3</v>
+        <v>9.075007446972233E-3</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10778,12 +10850,12 @@
         <v>21367</v>
       </c>
       <c r="C213" s="5">
-        <f>Var_1 * EXP((A213 * 0.0001) * Var_2)</f>
-        <v>21262.10672573806</v>
+        <f t="shared" ref="C213:C221" si="35">Var_1 * EXP((A213 * 0.0001) * Var_2)</f>
+        <v>21263.376249383175</v>
       </c>
       <c r="D213" s="7">
-        <f>(B213-C213)/C213</f>
-        <v>4.9333434177040066E-3</v>
+        <f t="shared" ref="D213:D221" si="36">(B213-C213)/C213</f>
+        <v>4.8733441670549106E-3</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10794,12 +10866,12 @@
         <v>21080</v>
       </c>
       <c r="C214" s="5">
-        <f>Var_1 * EXP((A214 * 0.0001) * Var_2)</f>
-        <v>21271.365153739549</v>
+        <f t="shared" si="35"/>
+        <v>21272.637816629933</v>
       </c>
       <c r="D214" s="7">
-        <f>(B214-C214)/C214</f>
-        <v>-8.9963738742882982E-3</v>
+        <f t="shared" si="36"/>
+        <v>-9.0556619395521197E-3</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10810,12 +10882,12 @@
         <v>21113</v>
       </c>
       <c r="C215" s="5">
-        <f>Var_1 * EXP((A215 * 0.0001) * Var_2)</f>
-        <v>21280.627613255339</v>
+        <f t="shared" si="35"/>
+        <v>21281.903417884594</v>
       </c>
       <c r="D215" s="7">
-        <f>(B215-C215)/C215</f>
-        <v>-7.8770051476736991E-3</v>
+        <f t="shared" si="36"/>
+        <v>-7.9364808009913888E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10826,12 +10898,12 @@
         <v>20916</v>
       </c>
       <c r="C216" s="5">
-        <f>Var_1 * EXP((A216 * 0.0001) * Var_2)</f>
-        <v>21289.894106041003</v>
+        <f t="shared" si="35"/>
+        <v>21291.173054904153</v>
       </c>
       <c r="D216" s="7">
-        <f>(B216-C216)/C216</f>
-        <v>-1.7562046301344027E-2</v>
+        <f t="shared" si="36"/>
+        <v>-1.7621060800017158E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10839,57 +10911,97 @@
         <v>45804</v>
       </c>
       <c r="B217" s="6">
-        <v>21413</v>
+        <v>21415</v>
       </c>
       <c r="C217" s="5">
-        <f>Var_1 * EXP((A217 * 0.0001) * Var_2)</f>
-        <v>21327.00044501905</v>
+        <f t="shared" si="35"/>
+        <v>21328.291995800399</v>
       </c>
       <c r="D217" s="7">
-        <f>(B217-C217)/C217</f>
-        <v>4.0324261821373646E-3</v>
+        <f t="shared" si="36"/>
+        <v>4.0653984021165159E-3</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="3">
+        <v>45805</v>
+      </c>
+      <c r="B218" s="6">
+        <v>21318</v>
+      </c>
+      <c r="C218" s="5">
+        <f t="shared" si="35"/>
+        <v>21337.581838027672</v>
+      </c>
+      <c r="D218" s="7">
+        <f t="shared" si="36"/>
+        <v>-9.1771589565851127E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>45806</v>
+      </c>
+      <c r="B219" s="6">
+        <v>21364</v>
+      </c>
+      <c r="C219" s="5">
+        <f t="shared" si="35"/>
+        <v>21346.875726578499</v>
+      </c>
+      <c r="D219" s="7">
+        <f t="shared" si="36"/>
+        <v>8.0219108598548192E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>45807</v>
+      </c>
+      <c r="B220" s="6">
+        <v>21341</v>
+      </c>
+      <c r="C220" s="5">
+        <f t="shared" si="35"/>
+        <v>21356.173663215159</v>
+      </c>
+      <c r="D220" s="7">
+        <f t="shared" si="36"/>
+        <v>-7.1050476805658051E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>45810</v>
+      </c>
+      <c r="B221" s="6">
+        <v>21407</v>
+      </c>
+      <c r="C221" s="5">
+        <f t="shared" si="35"/>
+        <v>21384.091779276536</v>
+      </c>
+      <c r="D221" s="7">
+        <f t="shared" si="36"/>
+        <v>1.0712739619675917E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B218" s="12">
+      <c r="B222" s="12">
         <f>表2[[#Totals],[溢价指标]] -7%</f>
-        <v>-5.4558881052175497E-2</v>
-      </c>
-      <c r="C218" s="13">
+        <v>-5.487911276514252E-2</v>
+      </c>
+      <c r="C222" s="13">
         <f>表2[[#Totals],[溢价指标]] +7%</f>
-        <v>8.544111894782451E-2</v>
-      </c>
-      <c r="D218" s="14">
+        <v>8.5120887234857501E-2</v>
+      </c>
+      <c r="D222" s="14">
         <f>SUBTOTAL(101,表2[溢价指标])</f>
-        <v>1.5441118947824508E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219"/>
-      <c r="B219"/>
-      <c r="C219"/>
-      <c r="D219"/>
-    </row>
-    <row r="220" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220"/>
-      <c r="B220"/>
-      <c r="C220"/>
-      <c r="D220"/>
-    </row>
-    <row r="221" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-    </row>
-    <row r="222" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
+        <v>1.5120887234857489E-2</v>
+      </c>
     </row>
     <row r="223" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223"/>
@@ -12896,6 +13008,30 @@
       <c r="B554"/>
       <c r="C554"/>
       <c r="D554"/>
+    </row>
+    <row r="555" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A555"/>
+      <c r="B555"/>
+      <c r="C555"/>
+      <c r="D555"/>
+    </row>
+    <row r="556" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A556"/>
+      <c r="B556"/>
+      <c r="C556"/>
+      <c r="D556"/>
+    </row>
+    <row r="557" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A557"/>
+      <c r="B557"/>
+      <c r="C557"/>
+      <c r="D557"/>
+    </row>
+    <row r="558" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A558"/>
+      <c r="B558"/>
+      <c r="C558"/>
+      <c r="D558"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
